--- a/KF-ATTITUDE_RUNNING.xlsx
+++ b/KF-ATTITUDE_RUNNING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F20368-6A0A-46C9-8A20-6300CCA3B3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9B7B0-D7D0-4C9C-A373-17AC10ECB3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,6 +342,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1461,307 +1462,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>999.98421039851064</c:v>
+                  <c:v>1000.0277545245557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>979.99273080056525</c:v>
+                  <c:v>979.98696305694943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>960.40740388756876</c:v>
+                  <c:v>960.40383290769796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>941.19813549424623</c:v>
+                  <c:v>941.17669074285311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>922.35711939692135</c:v>
+                  <c:v>922.36027612628686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>903.92450998889012</c:v>
+                  <c:v>903.92350261007778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>885.85394971185849</c:v>
+                  <c:v>885.8293599771074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>868.10563959906335</c:v>
+                  <c:v>868.1277468683079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>850.74950680592826</c:v>
+                  <c:v>850.75995325543374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>833.74128286962514</c:v>
+                  <c:v>833.7152681216628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>817.0645640238788</c:v>
+                  <c:v>817.0683804504888</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>800.732966094174</c:v>
+                  <c:v>800.73483260178921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>784.72578034729929</c:v>
+                  <c:v>784.73267367475239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>769.02661197887517</c:v>
+                  <c:v>769.02821184727065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>753.6382659212037</c:v>
+                  <c:v>753.65945724087089</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>738.56262401738945</c:v>
+                  <c:v>738.56876403932631</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>723.79956207309931</c:v>
+                  <c:v>723.80449284196038</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>709.31989119676257</c:v>
+                  <c:v>709.32083977128264</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>695.14043710267754</c:v>
+                  <c:v>695.12935228276626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>681.23427577613484</c:v>
+                  <c:v>681.22918093055569</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>667.60841084832703</c:v>
+                  <c:v>667.60337902536105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>654.24781573402197</c:v>
+                  <c:v>654.25620055721834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>641.16983527989407</c:v>
+                  <c:v>641.16146071678713</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>628.35272402564988</c:v>
+                  <c:v>628.35331858720849</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>615.78332191163281</c:v>
+                  <c:v>615.78113456076801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>603.46453359705583</c:v>
+                  <c:v>603.44983210320788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>591.39268600130436</c:v>
+                  <c:v>591.38839462802673</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>579.56402781340796</c:v>
+                  <c:v>579.57564708117752</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>567.97820237258509</c:v>
+                  <c:v>567.97785124513825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>556.61768213040239</c:v>
+                  <c:v>556.61670598550438</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>545.49032766082678</c:v>
+                  <c:v>545.47390146621308</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>534.57538131340289</c:v>
+                  <c:v>534.57098440829441</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>523.88142157603568</c:v>
+                  <c:v>523.87944407866485</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>513.40254324530565</c:v>
+                  <c:v>513.40665870443809</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>503.13327520351015</c:v>
+                  <c:v>503.13678648242302</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>493.07242728592752</c:v>
+                  <c:v>493.07311093411488</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>483.21131061994555</c:v>
+                  <c:v>483.21201143745446</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>473.54936989728259</c:v>
+                  <c:v>473.54909169003116</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>464.07614321129398</c:v>
+                  <c:v>464.07886953656379</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>454.79662468512998</c:v>
+                  <c:v>454.80526695933906</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>445.70237954012583</c:v>
+                  <c:v>445.69954924182241</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>436.78509589210876</c:v>
+                  <c:v>436.79457339888774</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>428.05005917079211</c:v>
+                  <c:v>428.04868908641265</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>419.48914233389911</c:v>
+                  <c:v>419.48888456030801</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>411.10079808919932</c:v>
+                  <c:v>411.09722507557626</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>402.88281065579531</c:v>
+                  <c:v>402.87910045302203</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>394.82045869681394</c:v>
+                  <c:v>394.82068830724853</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>386.92347623462473</c:v>
+                  <c:v>386.9268431220089</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>379.18691442334722</c:v>
+                  <c:v>379.18096107050184</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>371.60027296015568</c:v>
+                  <c:v>371.60102035950865</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>364.1702905520259</c:v>
+                  <c:v>364.17141276965492</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>356.88680120605738</c:v>
+                  <c:v>356.88941860765397</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>349.74688578672124</c:v>
+                  <c:v>349.74424920509023</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>342.75212828580101</c:v>
+                  <c:v>342.75552448228706</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>335.89744650951667</c:v>
+                  <c:v>335.900022741481</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>329.18072608408391</c:v>
+                  <c:v>329.18336333305376</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>322.59722379724747</c:v>
+                  <c:v>322.59660376411898</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>316.14623355692208</c:v>
+                  <c:v>316.14481374199249</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>309.82210764156213</c:v>
+                  <c:v>309.82118431443712</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>303.6256061028987</c:v>
+                  <c:v>303.62787367370089</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>297.55308497535538</c:v>
+                  <c:v>297.55122965141118</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>291.60129044713437</c:v>
+                  <c:v>291.60073704200255</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>285.76967021998939</c:v>
+                  <c:v>285.76875479175101</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>280.05519276433711</c:v>
+                  <c:v>280.05378502331212</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>274.45424220785827</c:v>
+                  <c:v>274.45462150684654</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>268.96569032615668</c:v>
+                  <c:v>268.96651864089324</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>263.5858250013012</c:v>
+                  <c:v>263.58387003997547</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>258.31349936454751</c:v>
+                  <c:v>258.31312832069187</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>253.14662682762983</c:v>
+                  <c:v>253.14759430719084</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>248.08400317871357</c:v>
+                  <c:v>248.08096573753073</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>243.12207159308073</c:v>
+                  <c:v>243.12200812626361</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>238.26014032123248</c:v>
+                  <c:v>238.26000493870006</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>233.49444349716248</c:v>
+                  <c:v>233.49482898438669</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>228.82481977636434</c:v>
+                  <c:v>228.82444112151222</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>224.24833903856933</c:v>
+                  <c:v>224.24789173435261</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>219.76425321308281</c:v>
+                  <c:v>219.76364503610719</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>215.36863786674689</c:v>
+                  <c:v>215.3686725459109</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>211.06079582999408</c:v>
+                  <c:v>211.06139705357035</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>206.83929538447134</c:v>
+                  <c:v>206.83916254293916</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>202.7030014069602</c:v>
+                  <c:v>202.70480988045804</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>198.64907302883785</c:v>
+                  <c:v>198.64759479152008</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>194.67591038986623</c:v>
+                  <c:v>194.67593059041283</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>190.78296466341214</c:v>
+                  <c:v>190.78310626250317</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>186.96714147306366</c:v>
+                  <c:v>186.96521294438622</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>183.22750345443961</c:v>
+                  <c:v>183.2268892292025</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>179.56259788722335</c:v>
+                  <c:v>179.56223581289302</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>175.97170435822542</c:v>
+                  <c:v>175.97207777662499</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>172.45202606424638</c:v>
+                  <c:v>172.4522276201192</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>169.00327194610728</c:v>
+                  <c:v>169.00315370736158</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>165.62328332039951</c:v>
+                  <c:v>165.62353059275085</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>162.3108851497978</c:v>
+                  <c:v>162.31132610577157</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>159.06394044887762</c:v>
+                  <c:v>159.0637101379852</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>155.88266153517887</c:v>
+                  <c:v>155.88281874818503</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>152.76524145339357</c:v>
+                  <c:v>152.76542197219106</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>149.71013562826357</c:v>
+                  <c:v>149.70943208697656</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>146.71631632394772</c:v>
+                  <c:v>146.71583766014101</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>143.78158469645035</c:v>
+                  <c:v>143.78134062843822</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>140.9057509340044</c:v>
+                  <c:v>140.90496676395557</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>138.08763951856662</c:v>
+                  <c:v>138.08750101252139</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>135.32602114314329</c:v>
+                  <c:v>135.32530075047043</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>132.61928361369087</c:v>
+                  <c:v>132.61948668724938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,307 +2132,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>842.08819550484884</c:v>
+                  <c:v>1069.4140659136519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>904.30344055930857</c:v>
+                  <c:v>946.05073062625274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1040.6778196482903</c:v>
+                  <c:v>970.79260136323273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1010.4598278539976</c:v>
+                  <c:v>897.97132634173249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>792.5841651711288</c:v>
+                  <c:v>899.19320872950334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>949.36952858274458</c:v>
+                  <c:v>912.20247743029563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1033.2810085303897</c:v>
+                  <c:v>844.34659779480808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>604.13880652192097</c:v>
+                  <c:v>875.47082806566982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>664.01534790167841</c:v>
+                  <c:v>840.15848870147283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>740.53266237575235</c:v>
+                  <c:v>716.85310098497973</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>693.59594147046755</c:v>
+                  <c:v>800.4926457186707</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>825.92663742305842</c:v>
+                  <c:v>814.31098328529367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>931.80115710822645</c:v>
+                  <c:v>849.4876642407603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>840.4292390549025</c:v>
+                  <c:v>793.64197626099269</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>688.92509917918233</c:v>
+                  <c:v>830.75673134686269</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>619.79426012529905</c:v>
+                  <c:v>737.01690422719923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>758.95016078375852</c:v>
+                  <c:v>756.1220506302252</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>672.05404686804434</c:v>
+                  <c:v>704.71767658962233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>800.81317955742145</c:v>
+                  <c:v>664.1979996481906</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>716.82175547137081</c:v>
+                  <c:v>662.67998141611156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>677.46016841762378</c:v>
+                  <c:v>641.8420733787276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>467.43381054785959</c:v>
+                  <c:v>656.52367293318036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>620.23103721606878</c:v>
+                  <c:v>584.99897034516152</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>766.18437637371301</c:v>
+                  <c:v>666.57599217531572</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>694.51531884515009</c:v>
+                  <c:v>621.04275355969378</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>598.0774338070222</c:v>
+                  <c:v>501.17830523481865</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>512.78815912965456</c:v>
+                  <c:v>541.06256000082647</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>475.40559723615792</c:v>
+                  <c:v>640.01504392454069</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>630.79412828300531</c:v>
+                  <c:v>580.9607324336572</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>589.85286295941069</c:v>
+                  <c:v>557.04884467698184</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>747.413195475007</c:v>
+                  <c:v>457.94402252187012</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>560.76142304675841</c:v>
+                  <c:v>502.65208104737826</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>461.25665721636983</c:v>
+                  <c:v>490.21021026409778</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>402.08054705320495</c:v>
+                  <c:v>524.60964272737738</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>341.45762002280367</c:v>
+                  <c:v>497.39412784152142</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>402.85735401204403</c:v>
+                  <c:v>477.54921395796953</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>405.36868713662284</c:v>
+                  <c:v>471.25491803241056</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>496.03583545659887</c:v>
+                  <c:v>476.06915760682887</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>383.04668873961293</c:v>
+                  <c:v>475.46875207215737</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>469.01647378139484</c:v>
+                  <c:v>562.8164109201241</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>545.15370655772585</c:v>
+                  <c:v>434.94301669787649</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>368.64568023479831</c:v>
+                  <c:v>543.95237278697903</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>394.82447248295267</c:v>
+                  <c:v>401.04851938459512</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>390.37867277561099</c:v>
+                  <c:v>408.54911892330153</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>466.51905524960455</c:v>
+                  <c:v>372.09752656084822</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>707.63081707293168</c:v>
+                  <c:v>421.91944345157697</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>404.5526799443453</c:v>
+                  <c:v>400.93615806504363</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>358.56109063313596</c:v>
+                  <c:v>436.05969575204949</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>482.92705018822625</c:v>
+                  <c:v>301.60216794463219</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>267.21638843319062</c:v>
+                  <c:v>359.03628023175776</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>410.20157945677045</c:v>
+                  <c:v>396.83406433924364</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>397.29894589207464</c:v>
+                  <c:v>418.36731473392291</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>212.81805887483293</c:v>
+                  <c:v>261.62685990197912</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>218.36887456940687</c:v>
+                  <c:v>383.93149810226475</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>240.95275285015498</c:v>
+                  <c:v>369.24711336787686</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>345.6710926440262</c:v>
+                  <c:v>394.15066334134872</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>350.20880772925381</c:v>
+                  <c:v>314.60470833591404</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>439.79485240978818</c:v>
+                  <c:v>311.54300705925004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>310.85117654207005</c:v>
+                  <c:v>286.03090230649184</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>298.2338960229946</c:v>
+                  <c:v>363.77269867279796</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>291.03420630359369</c:v>
+                  <c:v>243.53364795753242</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>198.76644576635363</c:v>
+                  <c:v>252.1214862698701</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.70462280201923</c:v>
+                  <c:v>246.4784410847372</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>350.85506617332214</c:v>
+                  <c:v>252.88156619636953</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>367.05072958591819</c:v>
+                  <c:v>310.19253379845071</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>437.12463414524666</c:v>
+                  <c:v>339.63125863552636</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>355.7953288711555</c:v>
+                  <c:v>216.2907675906464</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>261.11536879882686</c:v>
+                  <c:v>245.11179331289037</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>161.97998761236587</c:v>
+                  <c:v>268.09885596521781</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>205.24507344360444</c:v>
+                  <c:v>113.98990539285595</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>156.85633865028777</c:v>
+                  <c:v>218.87124349588515</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>240.10159052531947</c:v>
+                  <c:v>232.75825873226557</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>144.76108930776522</c:v>
+                  <c:v>228.98794243493762</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>188.91935451685441</c:v>
+                  <c:v>200.76898825744186</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>186.64212558417628</c:v>
+                  <c:v>192.60894910462102</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>363.79799051475709</c:v>
+                  <c:v>224.29034650028439</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>291.13503444694231</c:v>
+                  <c:v>236.17942585802246</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>183.02797899972617</c:v>
+                  <c:v>237.79437967642488</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>111.72871964220825</c:v>
+                  <c:v>175.29893882706904</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>225.3760243156118</c:v>
+                  <c:v>318.40840772022221</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>255.14655951369326</c:v>
+                  <c:v>119.1210439311043</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>204.52043560271753</c:v>
+                  <c:v>198.46959763746335</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>358.11253576088427</c:v>
+                  <c:v>242.34127050600839</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>310.82565913659795</c:v>
+                  <c:v>80.006572438209929</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>221.68726481459592</c:v>
+                  <c:v>147.10279969507633</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>108.55068944048192</c:v>
+                  <c:v>133.73522111379049</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>219.25972433187408</c:v>
+                  <c:v>216.94154104900849</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>134.5088321943127</c:v>
+                  <c:v>179.909740641865</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>230.5597554537797</c:v>
+                  <c:v>174.04298591407817</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>256.43837072060813</c:v>
+                  <c:v>210.86316026523892</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>280.59957998336665</c:v>
+                  <c:v>233.72831119214987</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-7.5675585232511651</c:v>
+                  <c:v>94.649165445573999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-14.192576239880111</c:v>
+                  <c:v>129.53849772830455</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>79.123183749234755</c:v>
+                  <c:v>153.69294342613375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>163.35423508237187</c:v>
+                  <c:v>74.646171955091972</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>338.75656384007357</c:v>
+                  <c:v>139.1333979142895</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>143.68907286276595</c:v>
+                  <c:v>114.24310718537326</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>39.0366185668897</c:v>
+                  <c:v>16.698035630948922</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>36.02920075742577</c:v>
+                  <c:v>94.413641558896984</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>104.5828171172456</c:v>
+                  <c:v>29.295853024814804</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-22.191888042308335</c:v>
+                  <c:v>122.78213825226823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +2662,956 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$F$11:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>OBSERVATIONS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>z_t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$13:$B$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$F$13:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1069.4140659136519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>946.05073062625274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>970.79260136323273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>897.97132634173249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>899.19320872950334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>912.20247743029563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>844.34659779480808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>875.47082806566982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>840.15848870147283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>716.85310098497973</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800.4926457186707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>814.31098328529367</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>849.4876642407603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>793.64197626099269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>830.75673134686269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>737.01690422719923</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>756.1220506302252</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>704.71767658962233</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>664.1979996481906</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>662.67998141611156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>641.8420733787276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>656.52367293318036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>584.99897034516152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>666.57599217531572</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>621.04275355969378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>501.17830523481865</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>541.06256000082647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>640.01504392454069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>580.9607324336572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>557.04884467698184</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>457.94402252187012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>502.65208104737826</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>490.21021026409778</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>524.60964272737738</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>497.39412784152142</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>477.54921395796953</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>471.25491803241056</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>476.06915760682887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>475.46875207215737</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>562.8164109201241</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>434.94301669787649</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>543.95237278697903</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>401.04851938459512</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>408.54911892330153</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>372.09752656084822</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>421.91944345157697</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>400.93615806504363</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>436.05969575204949</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>301.60216794463219</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>359.03628023175776</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>396.83406433924364</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>418.36731473392291</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261.62685990197912</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>383.93149810226475</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>369.24711336787686</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>394.15066334134872</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>314.60470833591404</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>311.54300705925004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>286.03090230649184</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>363.77269867279796</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>243.53364795753242</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>252.1214862698701</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>246.4784410847372</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>252.88156619636953</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>310.19253379845071</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>339.63125863552636</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>216.2907675906464</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>245.11179331289037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>268.09885596521781</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>113.98990539285595</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>218.87124349588515</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>232.75825873226557</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>228.98794243493762</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>200.76898825744186</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>192.60894910462102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>224.29034650028439</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>236.17942585802246</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>237.79437967642488</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>175.29893882706904</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>318.40840772022221</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>119.1210439311043</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>198.46959763746335</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>242.34127050600839</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80.006572438209929</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>147.10279969507633</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>133.73522111379049</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>216.94154104900849</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>179.909740641865</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174.04298591407817</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>210.86316026523892</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>233.72831119214987</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94.649165445573999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>129.53849772830455</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>153.69294342613375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>74.646171955091972</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>139.1333979142895</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>114.24310718537326</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.698035630948922</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>94.413641558896984</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29.295853024814804</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>122.78213825226823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2605-482E-AB8D-3AA4D6A3EDCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="632015280"/>
+        <c:axId val="632017248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="632015280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632017248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="632017248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632015280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3217,20 +4167,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1968500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>370416</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>162984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>359834</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3250,6 +4716,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>398858</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>182165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051839FE-64C7-4D33-B69D-98B48B65EA90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3557,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB10ABEC-9FAA-40D5-98F6-F0A3D0D05DE8}">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +5130,7 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -3637,9 +5139,9 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="10">
-        <f>E2*10/100</f>
-        <v>100</v>
+      <c r="K3" s="5">
+        <f>E2*5/100</f>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
@@ -3682,7 +5184,7 @@
       </c>
       <c r="K6">
         <f>K3^2</f>
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="s">
         <v>37</v>
@@ -3719,46 +5221,46 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="13"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3768,25 +5270,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O12" s="3"/>
@@ -3805,30 +5307,30 @@
       </c>
       <c r="E13">
         <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>-137.91180449515116</v>
+        <v>89.414065913651825</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>842.08819550484884</v>
-      </c>
-      <c r="G13" s="17">
+        <v>1069.4140659136519</v>
+      </c>
+      <c r="G13" s="18">
         <f>E2</f>
         <v>1000</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="19">
         <v>1</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="18">
         <f>H13/(H13+$K$6)</f>
-        <v>9.9990000999900015E-5</v>
-      </c>
-      <c r="J13" s="8">
+        <v>3.9984006397441024E-4</v>
+      </c>
+      <c r="J13" s="9">
         <f ca="1">G13+I13*(F13-G13)</f>
-        <v>999.98421039851064</v>
-      </c>
-      <c r="K13" s="18">
+        <v>1000.0277545245557</v>
+      </c>
+      <c r="K13" s="19">
         <f>(1-I13)*H13</f>
-        <v>0.99990000999900008</v>
+        <v>0.99960015993602558</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3845,31 +5347,31 @@
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E77" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>-56.096559440691408</v>
+        <v>-14.349269373747267</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F77" ca="1" si="3">D14+E14</f>
-        <v>904.30344055930857</v>
-      </c>
-      <c r="G14" s="17">
+        <v>946.05073062625274</v>
+      </c>
+      <c r="G14" s="18">
         <f>$B$2*G13</f>
         <v>980</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="19">
         <f>$B$2*H13*$B$2</f>
         <v>0.96039999999999992</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="18">
         <f>H14/(H14+$K$6)</f>
-        <v>9.6030777204157301E-5</v>
-      </c>
-      <c r="J14" s="8">
+        <v>3.8401247776654121E-4</v>
+      </c>
+      <c r="J14" s="9">
         <f t="shared" ref="J14:J77" ca="1" si="4">G14+I14*(F14-G14)</f>
-        <v>979.99273080056525</v>
-      </c>
-      <c r="K14" s="18">
+        <v>979.98696305694943</v>
+      </c>
+      <c r="K14" s="19">
         <f t="shared" ref="K14:K77" si="5">(1-I14)*H14</f>
-        <v>0.96030777204157314</v>
+        <v>0.96003119441635298</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3886,31 +5388,31 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>99.485819648290388</v>
+        <v>29.600601363232776</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="3"/>
-        <v>1040.6778196482903</v>
-      </c>
-      <c r="G15" s="17">
+        <v>970.79260136323273</v>
+      </c>
+      <c r="G15" s="18">
         <f t="shared" ref="G15:G78" si="6">$B$2*G14</f>
         <v>960.4</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="19">
         <f t="shared" ref="H15:H78" si="7">$B$2*H14*$B$2</f>
         <v>0.92236815999999988</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="18">
         <f>H15/(H15+$K$6)</f>
-        <v>9.2228309154418522E-5</v>
-      </c>
-      <c r="J15" s="8">
+        <v>3.6881119211973476E-4</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>960.40740388756876</v>
-      </c>
-      <c r="K15" s="18">
+        <v>960.40383290769796</v>
+      </c>
+      <c r="K15" s="19">
         <f t="shared" si="5"/>
-        <v>0.9222830915441852</v>
+        <v>0.92202798029933697</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -3927,31 +5429,31 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>88.091667853997635</v>
+        <v>-24.396833658267518</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="3"/>
-        <v>1010.4598278539976</v>
-      </c>
-      <c r="G16" s="17">
+        <v>897.97132634173249</v>
+      </c>
+      <c r="G16" s="18">
         <f t="shared" si="6"/>
         <v>941.19200000000001</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="19">
         <f t="shared" si="7"/>
         <v>0.8858423808639998</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="18">
         <f>H16/(H16+$K$6)</f>
-        <v>8.8576391614236401E-5</v>
-      </c>
-      <c r="J16" s="8">
+        <v>3.5421144214270515E-4</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>941.19813549424623</v>
-      </c>
-      <c r="K16" s="18">
+        <v>941.17669074285311</v>
+      </c>
+      <c r="K16" s="19">
         <f t="shared" si="5"/>
-        <v>0.88576391614236394</v>
+        <v>0.88552860535676281</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3968,31 +5470,31 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>-111.33663162887113</v>
+        <v>-4.7275880704966449</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="3"/>
-        <v>792.5841651711288</v>
-      </c>
-      <c r="G17" s="17">
+        <v>899.19320872950334</v>
+      </c>
+      <c r="G17" s="18">
         <f t="shared" si="6"/>
         <v>922.36815999999999</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="19">
         <f t="shared" si="7"/>
         <v>0.85076302258178538</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="18">
         <f>H17/(H17+$K$6)</f>
-        <v>8.5069064896700571E-5</v>
-      </c>
-      <c r="J17" s="8">
+        <v>3.4018944079395404E-4</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>922.35711939692135</v>
-      </c>
-      <c r="K17" s="18">
+        <v>922.36027612628686</v>
+      </c>
+      <c r="K17" s="19">
         <f t="shared" si="5"/>
-        <v>0.85069064896700564</v>
+        <v>0.85047360198488509</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4009,31 +5511,31 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>63.527147718744637</v>
+        <v>26.360096566295756</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="3"/>
-        <v>949.36952858274458</v>
-      </c>
-      <c r="G18" s="17">
+        <v>912.20247743029563</v>
+      </c>
+      <c r="G18" s="18">
         <f t="shared" si="6"/>
         <v>903.92079679999995</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="19">
         <f t="shared" si="7"/>
         <v>0.81707280688754669</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="18">
         <f>H18/(H18+$K$6)</f>
-        <v>8.170060515447687E-5</v>
-      </c>
-      <c r="J18" s="8">
+        <v>3.2672234037912809E-4</v>
+      </c>
+      <c r="J18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>903.92450998889012</v>
-      </c>
-      <c r="K18" s="18">
+        <v>903.92350261007778</v>
+      </c>
+      <c r="K18" s="19">
         <f t="shared" si="5"/>
-        <v>0.81700605154476869</v>
+        <v>0.81680585094782021</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4050,31 +5552,31 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>165.15547528366983</v>
+        <v>-23.77893545191186</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>1033.2810085303897</v>
-      </c>
-      <c r="G19" s="17">
+        <v>844.34659779480808</v>
+      </c>
+      <c r="G19" s="18">
         <f t="shared" si="6"/>
         <v>885.84238086399989</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="19">
         <f t="shared" si="7"/>
         <v>0.78471672373479984</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="18">
         <f>H19/(H19+$K$6)</f>
-        <v>7.8465515053290113E-5</v>
-      </c>
-      <c r="J19" s="8">
+        <v>3.1378819555601459E-4</v>
+      </c>
+      <c r="J19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>885.85394971185849</v>
-      </c>
-      <c r="K19" s="18">
+        <v>885.8293599771074</v>
+      </c>
+      <c r="K19" s="19">
         <f t="shared" si="5"/>
-        <v>0.78465515053290102</v>
+        <v>0.78447048889003645</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4091,31 +5593,31 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>-246.62421605986449</v>
+        <v>24.707805483884439</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>604.13880652192097</v>
-      </c>
-      <c r="G20" s="17">
+        <v>875.47082806566982</v>
+      </c>
+      <c r="G20" s="18">
         <f t="shared" si="6"/>
         <v>868.1255332467199</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="19">
         <f t="shared" si="7"/>
         <v>0.75364194147490171</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <f>H20/(H20+$K$6)</f>
-        <v>7.5358514813749077E-5</v>
-      </c>
-      <c r="J20" s="8">
+        <v>3.0136592778879539E-4</v>
+      </c>
+      <c r="J20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>868.10563959906335</v>
-      </c>
-      <c r="K20" s="18">
+        <v>868.1277468683079</v>
+      </c>
+      <c r="K20" s="19">
         <f t="shared" si="5"/>
-        <v>0.75358514813749078</v>
+        <v>0.75341481947198852</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4132,31 +5634,31 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>-169.73241422847124</v>
+        <v>6.4107265713231572</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>664.01534790167841</v>
-      </c>
-      <c r="G21" s="17">
+        <v>840.15848870147283</v>
+      </c>
+      <c r="G21" s="18">
         <f t="shared" si="6"/>
         <v>850.76302258178544</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="19">
         <f t="shared" si="7"/>
         <v>0.72379772059249559</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="18">
         <f>H21/(H21+$K$6)</f>
-        <v>7.2374533607004186E-5</v>
-      </c>
-      <c r="J21" s="8">
+        <v>2.8943529119538773E-4</v>
+      </c>
+      <c r="J21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>850.74950680592826</v>
-      </c>
-      <c r="K21" s="18">
+        <v>850.75995325543374</v>
+      </c>
+      <c r="K21" s="19">
         <f t="shared" si="5"/>
-        <v>0.72374533607004188</v>
+        <v>0.72358822798846933</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4173,31 +5675,31 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>-76.540144511794281</v>
+        <v>-100.21970590256699</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>740.53266237575235</v>
-      </c>
-      <c r="G22" s="17">
+        <v>716.85310098497973</v>
+      </c>
+      <c r="G22" s="18">
         <f t="shared" si="6"/>
         <v>833.74776213014968</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="19">
         <f t="shared" si="7"/>
         <v>0.69513533085703272</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="18">
         <f>H22/(H22+$K$6)</f>
-        <v>6.9508701290296382E-5</v>
-      </c>
-      <c r="J22" s="8">
+        <v>2.7797683973382955E-4</v>
+      </c>
+      <c r="J22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>833.74128286962514</v>
-      </c>
-      <c r="K22" s="18">
+        <v>833.7152681216628</v>
+      </c>
+      <c r="K22" s="19">
         <f t="shared" si="5"/>
-        <v>0.69508701290296382</v>
+        <v>0.69494209933457374</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4214,31 +5716,31 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>-107.13540927932823</v>
+        <v>-0.23870503112509528</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>693.59594147046755</v>
-      </c>
-      <c r="G23" s="17">
+        <v>800.4926457186707</v>
+      </c>
+      <c r="G23" s="18">
         <f t="shared" si="6"/>
         <v>817.07280688754668</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="19">
         <f t="shared" si="7"/>
         <v>0.66760797175509423</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="18">
         <f>H23/(H23+$K$6)</f>
-        <v>6.6756340469003192E-5</v>
-      </c>
-      <c r="J23" s="8">
+        <v>2.6697189567572262E-4</v>
+      </c>
+      <c r="J23" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>817.0645640238788</v>
-      </c>
-      <c r="K23" s="18">
+        <v>817.0683804504888</v>
+      </c>
+      <c r="K23" s="19">
         <f t="shared" si="5"/>
-        <v>0.66756340469003195</v>
+        <v>0.66742973918930659</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4255,31 +5757,31 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>41.209913688258538</v>
+        <v>29.594259550493764</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>825.92663742305842</v>
-      </c>
-      <c r="G24" s="17">
+        <v>814.31098328529367</v>
+      </c>
+      <c r="G24" s="18">
         <f t="shared" si="6"/>
         <v>800.73135074979575</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="19">
         <f t="shared" si="7"/>
         <v>0.64117069607359245</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="18">
         <f>H24/(H24+$K$6)</f>
-        <v>6.4112958872312496E-5</v>
-      </c>
-      <c r="J24" s="8">
+        <v>2.5640251931672285E-4</v>
+      </c>
+      <c r="J24" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>800.732966094174</v>
-      </c>
-      <c r="K24" s="18">
+        <v>800.73483260178921</v>
+      </c>
+      <c r="K24" s="19">
         <f t="shared" si="5"/>
-        <v>0.64112958872312498</v>
+        <v>0.64100629829180711</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4296,31 +5798,31 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>162.77876784812258</v>
+        <v>80.465274980656488</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>931.80115710822645</v>
-      </c>
-      <c r="G25" s="17">
+        <v>849.4876642407603</v>
+      </c>
+      <c r="G25" s="18">
         <f t="shared" si="6"/>
         <v>784.71672373479987</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="19">
         <f t="shared" si="7"/>
         <v>0.61578033650907815</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="18">
         <f>H25/(H25+$K$6)</f>
-        <v>6.157424203016005E-5</v>
-      </c>
-      <c r="J25" s="8">
+        <v>2.4625147987597371E-4</v>
+      </c>
+      <c r="J25" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>784.72578034729929</v>
-      </c>
-      <c r="K25" s="18">
+        <v>784.73267367475239</v>
+      </c>
+      <c r="K25" s="19">
         <f t="shared" si="5"/>
-        <v>0.61574242030160053</v>
+        <v>0.61562869968993428</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4337,31 +5839,31 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>86.787297580000768</v>
+        <v>40.000034786090993</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>840.4292390549025</v>
-      </c>
-      <c r="G26" s="17">
+        <v>793.64197626099269</v>
+      </c>
+      <c r="G26" s="18">
         <f t="shared" si="6"/>
         <v>769.02238926010386</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="19">
         <f t="shared" si="7"/>
         <v>0.59139543518331861</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="18">
         <f>H26/(H26+$K$6)</f>
-        <v>5.913604623955177E-5</v>
-      </c>
-      <c r="J26" s="8">
+        <v>2.3650222753821674E-4</v>
+      </c>
+      <c r="J26" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>769.02661197887517</v>
-      </c>
-      <c r="K26" s="18">
+        <v>769.02821184727065</v>
+      </c>
+      <c r="K26" s="19">
         <f t="shared" si="5"/>
-        <v>0.59136046239551776</v>
+        <v>0.59125556884554176</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,31 +5880,31 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>-49.644003466221271</v>
+        <v>92.187628701459033</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>688.92509917918233</v>
-      </c>
-      <c r="G27" s="17">
+        <v>830.75673134686269</v>
+      </c>
+      <c r="G27" s="18">
         <f t="shared" si="6"/>
         <v>753.64194147490173</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="19">
         <f t="shared" si="7"/>
         <v>0.56797617595005923</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="18">
         <f>H27/(H27+$K$6)</f>
-        <v>5.6794391808858428E-5</v>
-      </c>
-      <c r="J27" s="8">
+        <v>2.2713886659408059E-4</v>
+      </c>
+      <c r="J27" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>753.6382659212037</v>
-      </c>
-      <c r="K27" s="18">
+        <v>753.65945724087089</v>
+      </c>
+      <c r="K27" s="19">
         <f t="shared" si="5"/>
-        <v>0.56794391808858424</v>
+        <v>0.5678471664852015</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4419,31 +5921,31 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>-104.00346046719655</v>
+        <v>13.21918363470369</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>619.79426012529905</v>
-      </c>
-      <c r="G28" s="17">
+        <v>737.01690422719923</v>
+      </c>
+      <c r="G28" s="18">
         <f t="shared" si="6"/>
         <v>738.56910264540363</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="19">
         <f t="shared" si="7"/>
         <v>0.54548431938243691</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="18">
         <f>H28/(H28+$K$6)</f>
-        <v>5.4545456569118491E-5</v>
-      </c>
-      <c r="J28" s="8">
+        <v>2.1814612963575464E-4</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>738.56262401738945</v>
-      </c>
-      <c r="K28" s="18">
+        <v>738.56876403932631</v>
+      </c>
+      <c r="K28" s="19">
         <f t="shared" si="5"/>
-        <v>0.54545456569118489</v>
+        <v>0.54536532408938665</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4460,31 +5962,31 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>49.628394603112874</v>
+        <v>46.800284449579578</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>758.95016078375852</v>
-      </c>
-      <c r="G29" s="17">
+        <v>756.1220506302252</v>
+      </c>
+      <c r="G29" s="18">
         <f t="shared" si="6"/>
         <v>723.79772059249558</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="19">
         <f t="shared" si="7"/>
         <v>0.52388314033489236</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="18">
         <f>H29/(H29+$K$6)</f>
-        <v>5.2385569641816018E-5</v>
-      </c>
-      <c r="J29" s="8">
+        <v>2.0950935276689412E-4</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>723.79956207309931</v>
-      </c>
-      <c r="K29" s="18">
+        <v>723.80449284196038</v>
+      </c>
+      <c r="K29" s="19">
         <f t="shared" si="5"/>
-        <v>0.52385569641816021</v>
+        <v>0.52377338191723533</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4501,31 +6003,31 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>-23.081283988988407</v>
+        <v>9.5823457325895838</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>672.05404686804434</v>
-      </c>
-      <c r="G30" s="17">
+        <v>704.71767658962233</v>
+      </c>
+      <c r="G30" s="18">
         <f t="shared" si="6"/>
         <v>709.32176618064568</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="19">
         <f t="shared" si="7"/>
         <v>0.50313736797763065</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="18">
         <f>H30/(H30+$K$6)</f>
-        <v>5.0311205453013922E-5</v>
-      </c>
-      <c r="J30" s="8">
+        <v>2.0121445178718374E-4</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>709.31989119676257</v>
-      </c>
-      <c r="K30" s="18">
+        <v>709.32083977128264</v>
+      </c>
+      <c r="K30" s="19">
         <f t="shared" si="5"/>
-        <v>0.50311205453013919</v>
+        <v>0.50303612946795939</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4542,31 +6044,31 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>119.58055531752937</v>
+        <v>-17.034624591701416</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>800.81317955742145</v>
-      </c>
-      <c r="G31" s="17">
+        <v>664.1979996481906</v>
+      </c>
+      <c r="G31" s="18">
         <f t="shared" si="6"/>
         <v>695.13533085703273</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="19">
         <f t="shared" si="7"/>
         <v>0.48321312820571644</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="18">
         <f>H31/(H31+$K$6)</f>
-        <v>4.8318977984121306E-5</v>
-      </c>
-      <c r="J31" s="8">
+        <v>1.9324789931350801E-4</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>695.14043710267754</v>
-      </c>
-      <c r="K31" s="18">
+        <v>695.12935228276626</v>
+      </c>
+      <c r="K31" s="19">
         <f t="shared" si="5"/>
-        <v>0.48318977984121303</v>
+        <v>0.48311974828376997</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4583,31 +6085,31 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>49.213783716276588</v>
+        <v>-4.9279903389826751</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>716.82175547137081</v>
-      </c>
-      <c r="G32" s="17">
+        <v>662.67998141611156</v>
+      </c>
+      <c r="G32" s="18">
         <f t="shared" si="6"/>
         <v>681.23262423989206</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="19">
         <f t="shared" si="7"/>
         <v>0.46407788832877006</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="18">
         <f>H32/(H32+$K$6)</f>
-        <v>4.6405635249955666E-5</v>
-      </c>
-      <c r="J32" s="8">
+        <v>1.8559670280114134E-4</v>
+      </c>
+      <c r="J32" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>681.23427577613484</v>
-      </c>
-      <c r="K32" s="18">
+        <v>681.22918093055569</v>
+      </c>
+      <c r="K32" s="19">
         <f t="shared" si="5"/>
-        <v>0.46405635249955673</v>
+        <v>0.46399175700285333</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -4624,31 +6126,31 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>23.204356097631539</v>
+        <v>-12.41373894126469</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="3"/>
-        <v>677.46016841762378</v>
-      </c>
-      <c r="G33" s="17">
+        <v>641.8420733787276</v>
+      </c>
+      <c r="G33" s="18">
         <f t="shared" si="6"/>
         <v>667.60797175509424</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="19">
         <f t="shared" si="7"/>
         <v>0.44570040395095073</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="18">
         <f>H33/(H33+$K$6)</f>
-        <v>4.4568053995128184E-5</v>
-      </c>
-      <c r="J33" s="8">
+        <v>1.78248383429781E-4</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>667.60841084832703</v>
-      </c>
-      <c r="K33" s="18">
+        <v>667.60337902536105</v>
+      </c>
+      <c r="K33" s="19">
         <f t="shared" si="5"/>
-        <v>0.44568053995128182</v>
+        <v>0.44562095857445244</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -4665,31 +6167,31 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>-173.73688552573284</v>
+        <v>15.352976859587889</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="3"/>
-        <v>467.43381054785959</v>
-      </c>
-      <c r="G34" s="17">
+        <v>656.52367293318036</v>
+      </c>
+      <c r="G34" s="18">
         <f t="shared" si="6"/>
         <v>654.25581231999229</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="19">
         <f t="shared" si="7"/>
         <v>0.42805066795449304</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="18">
         <f>H34/(H34+$K$6)</f>
-        <v>4.280323460013318E-5</v>
-      </c>
-      <c r="J34" s="8">
+        <v>1.7119095582060251E-4</v>
+      </c>
+      <c r="J34" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>654.24781573402197</v>
-      </c>
-      <c r="K34" s="18">
+        <v>654.25620055721834</v>
+      </c>
+      <c r="K34" s="19">
         <f t="shared" si="5"/>
-        <v>0.42803234600133183</v>
+        <v>0.42797738955150627</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -4706,31 +6208,31 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.1162449360518245</v>
+        <v>-43.348311806959053</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>620.23103721606878</v>
-      </c>
-      <c r="G35" s="17">
+        <v>584.99897034516152</v>
+      </c>
+      <c r="G35" s="18">
         <f t="shared" si="6"/>
         <v>641.17069607359247</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="19">
         <f t="shared" si="7"/>
         <v>0.41109986150349509</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="18">
         <f>H35/(H35+$K$6)</f>
-        <v>4.1108296188862519E-5</v>
-      </c>
-      <c r="J35" s="8">
+        <v>1.6441290855182404E-4</v>
+      </c>
+      <c r="J35" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>641.16983527989407</v>
-      </c>
-      <c r="K35" s="18">
+        <v>641.16146071678713</v>
+      </c>
+      <c r="K35" s="19">
         <f t="shared" si="5"/>
-        <v>0.4110829618886252</v>
+        <v>0.41103227137956005</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -4747,31 +6249,31 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>150.40403986463494</v>
+        <v>50.795655666237607</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>766.18437637371301</v>
-      </c>
-      <c r="G36" s="17">
+        <v>666.57599217531572</v>
+      </c>
+      <c r="G36" s="18">
         <f t="shared" si="6"/>
         <v>628.34728215212056</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="19">
         <f t="shared" si="7"/>
         <v>0.39482030698795667</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="18">
         <f>H36/(H36+$K$6)</f>
-        <v>3.9480471929590934E-5</v>
-      </c>
-      <c r="J36" s="8">
+        <v>1.579031854415225E-4</v>
+      </c>
+      <c r="J36" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>628.35272402564988</v>
-      </c>
-      <c r="K36" s="18">
+        <v>628.35331858720849</v>
+      </c>
+      <c r="K36" s="19">
         <f t="shared" si="5"/>
-        <v>0.39480471929590938</v>
+        <v>0.39475796360380627</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -4788,31 +6290,31 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>91.050589066253579</v>
+        <v>17.578023780797256</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>694.51531884515009</v>
-      </c>
-      <c r="G37" s="17">
+        <v>621.04275355969378</v>
+      </c>
+      <c r="G37" s="18">
         <f t="shared" si="6"/>
         <v>615.7803365090781</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="19">
         <f t="shared" si="7"/>
         <v>0.37918542283123358</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="18">
         <f>H37/(H37+$K$6)</f>
-        <v>3.7917104521792293E-5</v>
-      </c>
-      <c r="J37" s="8">
+        <v>1.5165116756765465E-4</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>615.78332191163281</v>
-      </c>
-      <c r="K37" s="18">
+        <v>615.78113456076801</v>
+      </c>
+      <c r="K37" s="19">
         <f t="shared" si="5"/>
-        <v>0.37917104521792294</v>
+        <v>0.37912791891913661</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4829,31 +6331,31 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6819986237036142</v>
+        <v>-90.217129948499903</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>598.0774338070222</v>
-      </c>
-      <c r="G38" s="17">
+        <v>501.17830523481865</v>
+      </c>
+      <c r="G38" s="18">
         <f t="shared" si="6"/>
         <v>603.46472977889653</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="19">
         <f t="shared" si="7"/>
         <v>0.3641696800871167</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="18">
         <f>H38/(H38+$K$6)</f>
-        <v>3.6415641861446984E-5</v>
-      </c>
-      <c r="J38" s="8">
+        <v>1.4564665599639868E-4</v>
+      </c>
+      <c r="J38" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>603.46453359705583</v>
-      </c>
-      <c r="K38" s="18">
+        <v>603.44983210320788</v>
+      </c>
+      <c r="K38" s="19">
         <f t="shared" si="5"/>
-        <v>0.36415641861446985</v>
+        <v>0.36411663999099675</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4870,31 +6372,31 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>-66.779367349997671</v>
+        <v>-38.504966478825715</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>512.78815912965456</v>
-      </c>
-      <c r="G39" s="17">
+        <v>541.06256000082647</v>
+      </c>
+      <c r="G39" s="18">
         <f t="shared" si="6"/>
         <v>591.39543518331857</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="19">
         <f t="shared" si="7"/>
         <v>0.34974856075566685</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="18">
         <f>H39/(H39+$K$6)</f>
-        <v>3.4973632877790348E-5</v>
-      </c>
-      <c r="J39" s="8">
+        <v>1.3987985519105402E-4</v>
+      </c>
+      <c r="J39" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>591.39268600130436</v>
-      </c>
-      <c r="K39" s="18">
+        <v>591.38839462802673</v>
+      </c>
+      <c r="K39" s="19">
         <f t="shared" si="5"/>
-        <v>0.34973632877790345</v>
+        <v>0.34969963797763509</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4911,31 +6413,31 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>-92.570578713901284</v>
+        <v>72.038867974481533</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>475.40559723615792</v>
-      </c>
-      <c r="G40" s="17">
+        <v>640.01504392454069</v>
+      </c>
+      <c r="G40" s="18">
         <f t="shared" si="6"/>
         <v>579.5675264796522</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="19">
         <f t="shared" si="7"/>
         <v>0.33589851774974244</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="18">
         <f>H40/(H40+$K$6)</f>
-        <v>3.3588723534729401E-5</v>
-      </c>
-      <c r="J40" s="8">
+        <v>1.343413570748114E-4</v>
+      </c>
+      <c r="J40" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>579.56402781340796</v>
-      </c>
-      <c r="K40" s="18">
+        <v>579.57564708117752</v>
+      </c>
+      <c r="K40" s="19">
         <f t="shared" si="5"/>
-        <v>0.33588723534729403</v>
+        <v>0.33585339268702852</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -4952,31 +6454,31 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>74.177475851947321</v>
+        <v>24.34408000259916</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>630.79412828300531</v>
-      </c>
-      <c r="G41" s="17">
+        <v>580.9607324336572</v>
+      </c>
+      <c r="G41" s="18">
         <f t="shared" si="6"/>
         <v>567.9761759500592</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="19">
         <f t="shared" si="7"/>
         <v>0.32259693644685267</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="18">
         <f>H41/(H41+$K$6)</f>
-        <v>3.2258652990422403E-5</v>
-      </c>
-      <c r="J41" s="8">
+        <v>1.2902212572174439E-4</v>
+      </c>
+      <c r="J41" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>567.97820237258509</v>
-      </c>
-      <c r="K41" s="18">
+        <v>567.97785124513825</v>
+      </c>
+      <c r="K41" s="19">
         <f t="shared" si="5"/>
-        <v>0.32258652990422404</v>
+        <v>0.32255531430436096</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -4993,31 +6495,31 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>44.368543576973821</v>
+        <v>11.564525294545016</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>589.85286295941069</v>
-      </c>
-      <c r="G42" s="17">
+        <v>557.04884467698184</v>
+      </c>
+      <c r="G42" s="18">
         <f t="shared" si="6"/>
         <v>556.61665243105801</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="19">
         <f t="shared" si="7"/>
         <v>0.30982209776355729</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="18">
         <f>H42/(H42+$K$6)</f>
-        <v>3.0981249908771927E-5</v>
-      </c>
-      <c r="J42" s="8">
+        <v>1.2391348265136843E-4</v>
+      </c>
+      <c r="J42" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>556.61768213040239</v>
-      </c>
-      <c r="K42" s="18">
+        <v>556.61670598550438</v>
+      </c>
+      <c r="K42" s="19">
         <f t="shared" si="5"/>
-        <v>0.30981249908771924</v>
+        <v>0.30978370662842103</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -5034,31 +6536,31 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>212.83856248021894</v>
+        <v>-76.630610472917994</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>747.413195475007</v>
-      </c>
-      <c r="G43" s="17">
+        <v>457.94402252187012</v>
+      </c>
+      <c r="G43" s="18">
         <f t="shared" si="6"/>
         <v>545.48431938243687</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="19">
         <f t="shared" si="7"/>
         <v>0.29755314269212041</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="18">
         <f>H43/(H43+$K$6)</f>
-        <v>2.9754428916828717E-5</v>
-      </c>
-      <c r="J43" s="8">
+        <v>1.1900709270307358E-4</v>
+      </c>
+      <c r="J43" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>545.49032766082678</v>
-      </c>
-      <c r="K43" s="18">
+        <v>545.47390146621308</v>
+      </c>
+      <c r="K43" s="19">
         <f t="shared" si="5"/>
-        <v>0.29754428916828718</v>
+        <v>0.29751773175768398</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -5075,36 +6577,36 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>36.878282711866028</v>
+        <v>-21.231059287514068</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>560.76142304675841</v>
-      </c>
-      <c r="G44" s="17">
+        <v>502.65208104737826</v>
+      </c>
+      <c r="G44" s="18">
         <f t="shared" si="6"/>
         <v>534.57463299478809</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="19">
         <f t="shared" si="7"/>
         <v>0.28577003824151243</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="18">
         <f>H44/(H44+$K$6)</f>
-        <v>2.8576187202340285E-5</v>
-      </c>
-      <c r="J44" s="8">
+        <v>1.1429495046765859E-4</v>
+      </c>
+      <c r="J44" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>534.57538131340289</v>
-      </c>
-      <c r="K44" s="18">
+        <v>534.57098440829441</v>
+      </c>
+      <c r="K44" s="19">
         <f t="shared" si="5"/>
-        <v>0.28576187202340281</v>
-      </c>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
+        <v>0.28573737616914646</v>
+      </c>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -5120,36 +6622,36 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>-52.148820311824714</v>
+        <v>-23.195267264096742</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>461.25665721636983</v>
-      </c>
-      <c r="G45" s="17">
+        <v>490.21021026409778</v>
+      </c>
+      <c r="G45" s="18">
         <f t="shared" si="6"/>
         <v>523.88314033489235</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="19">
         <f t="shared" si="7"/>
         <v>0.27445354472714856</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="18">
         <f>H45/(H45+$K$6)</f>
-        <v>2.74446012459053E-5</v>
-      </c>
-      <c r="J45" s="8">
+        <v>1.0976936725408128E-4</v>
+      </c>
+      <c r="J45" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>523.88142157603568</v>
-      </c>
-      <c r="K45" s="18">
+        <v>523.87944407866485</v>
+      </c>
+      <c r="K45" s="19">
         <f t="shared" si="5"/>
-        <v>0.27444601245905298</v>
-      </c>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="8"/>
+        <v>0.27442341813520321</v>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="9"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -5165,36 +6667,36 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>-101.05682092442565</v>
+        <v>21.472274749746813</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>402.08054705320495</v>
-      </c>
-      <c r="G46" s="17">
+        <v>524.60964272737738</v>
+      </c>
+      <c r="G46" s="18">
         <f t="shared" si="6"/>
         <v>513.40547752819452</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="19">
         <f t="shared" si="7"/>
         <v>0.26358518435595346</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="18">
         <f>H46/(H46+$K$6)</f>
-        <v>2.6357823682413893E-5</v>
-      </c>
-      <c r="J46" s="8">
+        <v>1.0542295857039333E-4</v>
+      </c>
+      <c r="J46" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>513.40254324530565</v>
-      </c>
-      <c r="K46" s="18">
+        <v>513.40665870443809</v>
+      </c>
+      <c r="K46" s="19">
         <f t="shared" si="5"/>
-        <v>0.26357823682413889</v>
-      </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="8"/>
+        <v>0.2635573964259833</v>
+      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="9"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -5210,36 +6712,36 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>-151.61700059527433</v>
+        <v>4.3195072234434289</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>341.45762002280367</v>
-      </c>
-      <c r="G47" s="17">
+        <v>497.39412784152142</v>
+      </c>
+      <c r="G47" s="18">
         <f t="shared" si="6"/>
         <v>503.13736797763062</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="19">
         <f t="shared" si="7"/>
         <v>0.25314721105545768</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="18">
         <f>H47/(H47+$K$6)</f>
-        <v>2.5314080286663269E-5</v>
-      </c>
-      <c r="J47" s="8">
+        <v>1.0124863209864749E-4</v>
+      </c>
+      <c r="J47" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>503.13327520351015</v>
-      </c>
-      <c r="K47" s="18">
+        <v>503.13678648242302</v>
+      </c>
+      <c r="K47" s="19">
         <f t="shared" si="5"/>
-        <v>0.25314080286663271</v>
-      </c>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="8"/>
+        <v>0.25312158024661874</v>
+      </c>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="9"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -5255,36 +6757,36 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>-80.355774193672403</v>
+        <v>-5.6639142477469138</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>402.85735401204403</v>
-      </c>
-      <c r="G48" s="17">
+        <v>477.54921395796953</v>
+      </c>
+      <c r="G48" s="18">
         <f t="shared" si="6"/>
         <v>493.07462061807797</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="19">
         <f t="shared" si="7"/>
         <v>0.24312258149766156</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="18">
         <f>H48/(H48+$K$6)</f>
-        <v>2.4311667078240097E-5</v>
-      </c>
-      <c r="J48" s="8">
+        <v>9.7239576144354239E-5</v>
+      </c>
+      <c r="J48" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>493.07242728592752</v>
-      </c>
-      <c r="K48" s="18">
+        <v>493.07311093411488</v>
+      </c>
+      <c r="K48" s="19">
         <f t="shared" si="5"/>
-        <v>0.24311667078240098</v>
-      </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="8"/>
+        <v>0.24309894036088558</v>
+      </c>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="9"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -5300,36 +6802,36 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>-68.180178504979239</v>
+        <v>-2.2939476091915432</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>405.36868713662284</v>
-      </c>
-      <c r="G49" s="17">
+        <v>471.25491803241056</v>
+      </c>
+      <c r="G49" s="18">
         <f t="shared" si="6"/>
         <v>483.21312820571643</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="19">
         <f t="shared" si="7"/>
         <v>0.23349492727035415</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="18">
         <f>H49/(H49+$K$6)</f>
-        <v>2.3348947540954625E-5</v>
-      </c>
-      <c r="J49" s="8">
+        <v>9.3389248541823214E-5</v>
+      </c>
+      <c r="J49" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>483.21131061994555</v>
-      </c>
-      <c r="K49" s="18">
+        <v>483.21201143745446</v>
+      </c>
+      <c r="K49" s="19">
         <f t="shared" si="5"/>
-        <v>0.23348947540954623</v>
-      </c>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="8"/>
+        <v>0.23347312135455803</v>
+      </c>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="9"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -5345,36 +6847,36 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>31.957947127828852</v>
+        <v>11.991269278058846</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>496.03583545659887</v>
-      </c>
-      <c r="G50" s="17">
+        <v>476.06915760682887</v>
+      </c>
+      <c r="G50" s="18">
         <f t="shared" si="6"/>
         <v>473.54886564160211</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="19">
         <f t="shared" si="7"/>
         <v>0.22424852815044813</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="18">
         <f>H50/(H50+$K$6)</f>
-        <v>2.2424349952297657E-5</v>
-      </c>
-      <c r="J50" s="8">
+        <v>8.9691365997454165E-5</v>
+      </c>
+      <c r="J50" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>473.54936989728259</v>
-      </c>
-      <c r="K50" s="18">
+        <v>473.54909169003116</v>
+      </c>
+      <c r="K50" s="19">
         <f t="shared" si="5"/>
-        <v>0.22424349952297659</v>
-      </c>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="8"/>
+        <v>0.22422841499363538</v>
+      </c>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="9"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -5390,36 +6892,36 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>-71.749641822581651</v>
+        <v>20.672421509962742</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
-        <v>383.04668873961293</v>
-      </c>
-      <c r="G51" s="17">
+        <v>475.46875207215737</v>
+      </c>
+      <c r="G51" s="18">
         <f t="shared" si="6"/>
         <v>464.07788832877003</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="19">
         <f t="shared" si="7"/>
         <v>0.21536828643569036</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="18">
         <f>H51/(H51+$K$6)</f>
-        <v>2.1536364818570334E-5</v>
-      </c>
-      <c r="J51" s="8">
+        <v>8.6139893853742945E-5</v>
+      </c>
+      <c r="J51" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>464.07614321129398</v>
-      </c>
-      <c r="K51" s="18">
+        <v>464.07886953656379</v>
+      </c>
+      <c r="K51" s="19">
         <f t="shared" si="5"/>
-        <v>0.21536364818570333</v>
-      </c>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="8"/>
+        <v>0.21534973463435733</v>
+      </c>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="9"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -5435,36 +6937,36 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>23.316069830444121</v>
+        <v>117.11600696917334</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
-        <v>469.01647378139484</v>
-      </c>
-      <c r="G52" s="17">
+        <v>562.8164109201241</v>
+      </c>
+      <c r="G52" s="18">
         <f t="shared" si="6"/>
         <v>454.79633056219461</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="19">
         <f t="shared" si="7"/>
         <v>0.20683970229283702</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="18">
         <f>H52/(H52+$K$6)</f>
-        <v>2.0683542411508227E-5</v>
-      </c>
-      <c r="J52" s="8">
+        <v>8.2729036257442632E-5</v>
+      </c>
+      <c r="J52" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>454.79662468512998</v>
-      </c>
-      <c r="K52" s="18">
+        <v>454.80526695933906</v>
+      </c>
+      <c r="K52" s="19">
         <f t="shared" si="5"/>
-        <v>0.20683542411508227</v>
-      </c>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="8"/>
+        <v>0.20682259064360656</v>
+      </c>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="9"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -5480,36 +6982,36 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>108.36731068579417</v>
+        <v>-1.8433791740551986</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="3"/>
-        <v>545.15370655772585</v>
-      </c>
-      <c r="G53" s="17">
+        <v>434.94301669787649</v>
+      </c>
+      <c r="G53" s="18">
         <f t="shared" si="6"/>
         <v>445.70040395095072</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="19">
         <f t="shared" si="7"/>
         <v>0.19864885008204067</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="18">
         <f>H53/(H53+$K$6)</f>
-        <v>1.9864490402386476E-5</v>
-      </c>
-      <c r="J53" s="8">
+        <v>7.9453226715967289E-5</v>
+      </c>
+      <c r="J53" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>445.70237954012583</v>
-      </c>
-      <c r="K53" s="18">
+        <v>445.69954924182241</v>
+      </c>
+      <c r="K53" s="19">
         <f t="shared" si="5"/>
-        <v>0.19864490402386478</v>
-      </c>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="8"/>
+        <v>0.19863306678991824</v>
+      </c>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="9"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -5525,36 +7027,36 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>-59.404987719694766</v>
+        <v>115.90170483248599</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
-        <v>368.64568023479831</v>
-      </c>
-      <c r="G54" s="17">
+        <v>543.95237278697903</v>
+      </c>
+      <c r="G54" s="18">
         <f t="shared" si="6"/>
         <v>436.78639587193169</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="19">
         <f t="shared" si="7"/>
         <v>0.19078235561879187</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="18">
         <f>H54/(H54+$K$6)</f>
-        <v>1.9077871589750975E-5</v>
-      </c>
-      <c r="J54" s="8">
+        <v>7.630711902674938E-5</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>436.78509589210876</v>
-      </c>
-      <c r="K54" s="18">
+        <v>436.79457339888774</v>
+      </c>
+      <c r="K54" s="19">
         <f t="shared" si="5"/>
-        <v>0.19077871589750978</v>
-      </c>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="8"/>
+        <v>0.19076779756687345</v>
+      </c>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="9"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -5570,36 +7072,36 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>-24.66518211245052</v>
+        <v>-18.441135210808078</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>394.82447248295267</v>
-      </c>
-      <c r="G55" s="17">
+        <v>401.04851938459512</v>
+      </c>
+      <c r="G55" s="18">
         <f t="shared" si="6"/>
         <v>428.05066795449306</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="19">
         <f t="shared" si="7"/>
         <v>0.18322737433628772</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="18">
         <f>H55/(H55+$K$6)</f>
-        <v>1.8322401717072955E-5</v>
-      </c>
-      <c r="J55" s="8">
+        <v>7.3285578564860233E-5</v>
+      </c>
+      <c r="J55" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>428.05005917079211</v>
-      </c>
-      <c r="K55" s="18">
+        <v>428.04868908641265</v>
+      </c>
+      <c r="K55" s="19">
         <f t="shared" si="5"/>
-        <v>0.18322401717072956</v>
-      </c>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="8"/>
+        <v>0.18321394641215055</v>
+      </c>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="9"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -5615,36 +7117,36 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>-20.721188727884105</v>
+        <v>-2.5507425801935804</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
-        <v>390.37867277561099</v>
-      </c>
-      <c r="G56" s="17">
+        <v>408.54911892330153</v>
+      </c>
+      <c r="G56" s="18">
         <f t="shared" si="6"/>
         <v>419.48965459540318</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="19">
         <f t="shared" si="7"/>
         <v>0.17597157031257071</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="18">
         <f>H56/(H56+$K$6)</f>
-        <v>1.7596847376770527E-5</v>
-      </c>
-      <c r="J56" s="8">
+        <v>7.0383673914779023E-5</v>
+      </c>
+      <c r="J56" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>419.48914233389911</v>
-      </c>
-      <c r="K56" s="18">
+        <v>419.48888456030801</v>
+      </c>
+      <c r="K56" s="19">
         <f t="shared" si="5"/>
-        <v>0.17596847376770527</v>
-      </c>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="8"/>
+        <v>0.17595918478694755</v>
+      </c>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="9"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -5660,36 +7162,36 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>63.641190976179331</v>
+        <v>-30.780337712576994</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="3"/>
-        <v>466.51905524960455</v>
-      </c>
-      <c r="G57" s="17">
+        <v>372.09752656084822</v>
+      </c>
+      <c r="G57" s="18">
         <f t="shared" si="6"/>
         <v>411.09986150349511</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="19">
         <f t="shared" si="7"/>
         <v>0.16900309612819292</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="18">
         <f>H57/(H57+$K$6)</f>
-        <v>1.6900023997181274E-5</v>
-      </c>
-      <c r="J57" s="8">
+        <v>6.7596668832748891E-5</v>
+      </c>
+      <c r="J57" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>411.10079808919932</v>
-      </c>
-      <c r="K57" s="18">
+        <v>411.09722507557626</v>
+      </c>
+      <c r="K57" s="19">
         <f t="shared" si="5"/>
-        <v>0.16900023997181274</v>
-      </c>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
+        <v>0.16899167208187224</v>
+      </c>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -5705,31 +7207,31 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>312.81051008497496</v>
+        <v>27.099136463620326</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
-        <v>707.63081707293168</v>
-      </c>
-      <c r="G58" s="17">
+        <v>421.91944345157697</v>
+      </c>
+      <c r="G58" s="18">
         <f t="shared" si="6"/>
         <v>402.87786427342519</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="19">
         <f t="shared" si="7"/>
         <v>0.16231057352151648</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="18">
         <f>H58/(H58+$K$6)</f>
-        <v>1.6230793909204838E-5</v>
-      </c>
-      <c r="J58" s="8">
+        <v>6.4920014526690243E-5</v>
+      </c>
+      <c r="J58" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>402.88281065579531</v>
-      </c>
-      <c r="K58" s="18">
+        <v>402.87910045302203</v>
+      </c>
+      <c r="K58" s="19">
         <f t="shared" si="5"/>
-        <v>0.16230793909204835</v>
+        <v>0.16230003631672563</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -5746,31 +7248,31 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>17.628779096147802</v>
+        <v>14.012257216846166</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>404.5526799443453</v>
-      </c>
-      <c r="G59" s="17">
+        <v>400.93615806504363</v>
+      </c>
+      <c r="G59" s="18">
         <f t="shared" si="6"/>
         <v>394.82030698795666</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="19">
         <f t="shared" si="7"/>
         <v>0.15588307481006441</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="18">
         <f>H59/(H59+$K$6)</f>
-        <v>1.5588064489464144E-5</v>
-      </c>
-      <c r="J59" s="8">
+        <v>6.2349342241153395E-5</v>
+      </c>
+      <c r="J59" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>394.82045869681394</v>
-      </c>
-      <c r="K59" s="18">
+        <v>394.82068830724853</v>
+      </c>
+      <c r="K59" s="19">
         <f t="shared" si="5"/>
-        <v>0.15588064489464146</v>
+        <v>0.15587335560288348</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5787,31 +7289,31 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>-20.624332198097573</v>
+        <v>56.874272920815962</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="3"/>
-        <v>358.56109063313596</v>
-      </c>
-      <c r="G60" s="17">
+        <v>436.05969575204949</v>
+      </c>
+      <c r="G60" s="18">
         <f t="shared" si="6"/>
         <v>386.92390084819749</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="19">
         <f t="shared" si="7"/>
         <v>0.14971010504758586</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="18">
         <f>H60/(H60+$K$6)</f>
-        <v>1.4970786376958472E-5</v>
-      </c>
-      <c r="J60" s="8">
+        <v>5.9880456135283017E-5</v>
+      </c>
+      <c r="J60" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>386.92347623462473</v>
-      </c>
-      <c r="K60" s="18">
+        <v>386.9268431220089</v>
+      </c>
+      <c r="K60" s="19">
         <f t="shared" si="5"/>
-        <v>0.14970786376958473</v>
+        <v>0.14970114033820756</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5828,31 +7330,31 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>111.32533581361734</v>
+        <v>-69.999546429976689</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="3"/>
-        <v>482.92705018822625</v>
-      </c>
-      <c r="G61" s="17">
+        <v>301.60216794463219</v>
+      </c>
+      <c r="G61" s="18">
         <f t="shared" si="6"/>
         <v>379.18542283123355</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="19">
         <f t="shared" si="7"/>
         <v>0.14378158488770146</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="18">
         <f>H61/(H61+$K$6)</f>
-        <v>1.4377951760300993E-5</v>
-      </c>
-      <c r="J61" s="8">
+        <v>5.7509326442239906E-5</v>
+      </c>
+      <c r="J61" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>379.18691442334722</v>
-      </c>
-      <c r="K61" s="18">
+        <v>379.18096107050184</v>
+      </c>
+      <c r="K61" s="19">
         <f t="shared" si="5"/>
-        <v>0.14377951760300992</v>
+        <v>0.14377331610559976</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5869,31 +7371,31 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>-96.953291653926115</v>
+        <v>-5.1333998553589364</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="3"/>
-        <v>267.21638843319062</v>
-      </c>
-      <c r="G62" s="17">
+        <v>359.03628023175776</v>
+      </c>
+      <c r="G62" s="18">
         <f t="shared" si="6"/>
         <v>371.60171437460889</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="19">
         <f t="shared" si="7"/>
         <v>0.13808783412614847</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="18">
         <f>H62/(H62+$K$6)</f>
-        <v>1.3808592732748568E-5</v>
-      </c>
-      <c r="J62" s="8">
+        <v>5.5232082898978673E-5</v>
+      </c>
+      <c r="J62" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>371.60027296015568</v>
-      </c>
-      <c r="K62" s="18">
+        <v>371.60102035950865</v>
+      </c>
+      <c r="K62" s="19">
         <f t="shared" si="5"/>
-        <v>0.13808592732748567</v>
+        <v>0.13808020724744668</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5910,31 +7412,31 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>53.315292971396019</v>
+        <v>39.947777853869262</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="3"/>
-        <v>410.20157945677045</v>
-      </c>
-      <c r="G63" s="17">
+        <v>396.83406433924364</v>
+      </c>
+      <c r="G63" s="18">
         <f t="shared" si="6"/>
         <v>364.16968008711672</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="19">
         <f t="shared" si="7"/>
         <v>0.13261955589475299</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="18">
         <f>H63/(H63+$K$6)</f>
-        <v>1.3261779712341718E-5</v>
-      </c>
-      <c r="J63" s="8">
+        <v>5.3045008435716723E-5</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>364.1702905520259</v>
-      </c>
-      <c r="K63" s="18">
+        <v>364.17141276965492</v>
+      </c>
+      <c r="K63" s="19">
         <f t="shared" si="5"/>
-        <v>0.13261779712341717</v>
+        <v>0.13261252108929181</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5951,31 +7453,31 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>47.550385136407712</v>
+        <v>68.618753978255981</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="3"/>
-        <v>397.29894589207464</v>
-      </c>
-      <c r="G64" s="17">
+        <v>418.36731473392291</v>
+      </c>
+      <c r="G64" s="18">
         <f t="shared" si="6"/>
         <v>356.8862864853744</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="19">
         <f t="shared" si="7"/>
         <v>0.12736782148132078</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="18">
         <f>H64/(H64+$K$6)</f>
-        <v>1.2736619924578795E-5</v>
-      </c>
-      <c r="J64" s="8">
+        <v>5.0944533114848625E-5</v>
+      </c>
+      <c r="J64" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>356.88680120605738</v>
-      </c>
-      <c r="K64" s="18">
+        <v>356.88941860765397</v>
+      </c>
+      <c r="K64" s="19">
         <f t="shared" si="5"/>
-        <v>0.12736619924578796</v>
+        <v>0.12736133278712156</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -5992,31 +7494,31 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>-129.93553066572062</v>
+        <v>-81.126729638574417</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="3"/>
-        <v>212.81805887483293</v>
-      </c>
-      <c r="G65" s="17">
+        <v>261.62685990197912</v>
+      </c>
+      <c r="G65" s="18">
         <f t="shared" si="6"/>
         <v>349.74856075566692</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="19">
         <f t="shared" si="7"/>
         <v>0.12232405575066048</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="18">
         <f>H65/(H65+$K$6)</f>
-        <v>1.223225594515023E-5</v>
-      </c>
-      <c r="J65" s="8">
+        <v>4.8927228309462814E-5</v>
+      </c>
+      <c r="J65" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>349.74688578672124</v>
-      </c>
-      <c r="K65" s="18">
+        <v>349.74424920509023</v>
+      </c>
+      <c r="K65" s="19">
         <f t="shared" si="5"/>
-        <v>0.12232255945150229</v>
+        <v>0.12231807077365701</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -6033,31 +7535,31 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>-117.52964318033563</v>
+        <v>48.03298035252223</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="3"/>
-        <v>218.36887456940687</v>
-      </c>
-      <c r="G66" s="17">
+        <v>383.93149810226475</v>
+      </c>
+      <c r="G66" s="18">
         <f t="shared" si="6"/>
         <v>342.75358954055355</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="19">
         <f t="shared" si="7"/>
         <v>0.11748002314293432</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="18">
         <f>H66/(H66+$K$6)</f>
-        <v>1.1747864300356443E-5</v>
-      </c>
-      <c r="J66" s="8">
+        <v>4.6989801112004879E-5</v>
+      </c>
+      <c r="J66" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>342.75212828580101</v>
-      </c>
-      <c r="K66" s="18">
+        <v>342.75552448228706</v>
+      </c>
+      <c r="K66" s="19">
         <f t="shared" si="5"/>
-        <v>0.11747864300356443</v>
+        <v>0.1174745027800122</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -6074,31 +7576,31 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>-88.227794544592669</v>
+        <v>40.066565973129251</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>240.95275285015498</v>
-      </c>
-      <c r="G67" s="17">
+        <v>369.24711336787686</v>
+      </c>
+      <c r="G67" s="18">
         <f t="shared" si="6"/>
         <v>335.8985177497425</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="19">
         <f t="shared" si="7"/>
         <v>0.11282781422647412</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="18">
         <f>H67/(H67+$K$6)</f>
-        <v>1.1282654122927077E-5</v>
-      </c>
-      <c r="J67" s="8">
+        <v>4.5129088964003313E-5</v>
+      </c>
+      <c r="J67" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>335.89744650951667</v>
-      </c>
-      <c r="K67" s="18">
+        <v>335.900022741481</v>
+      </c>
+      <c r="K67" s="19">
         <f t="shared" si="5"/>
-        <v>0.11282654122927074</v>
+        <v>0.11282272241000828</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -6115,31 +7617,31 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>23.074156197173547</v>
+        <v>71.553726894496009</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="3"/>
-        <v>345.6710926440262</v>
-      </c>
-      <c r="G68" s="17">
+        <v>394.15066334134872</v>
+      </c>
+      <c r="G68" s="18">
         <f t="shared" si="6"/>
         <v>329.18054739474763</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="19">
         <f t="shared" si="7"/>
         <v>0.10835983278310574</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="18">
         <f>H68/(H68+$K$6)</f>
-        <v>1.0835865861049298E-5</v>
-      </c>
-      <c r="J68" s="8">
+        <v>4.3342054498131132E-5</v>
+      </c>
+      <c r="J68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>329.18072608408391</v>
-      </c>
-      <c r="K68" s="18">
+        <v>329.18336333305376</v>
+      </c>
+      <c r="K68" s="19">
         <f t="shared" si="5"/>
-        <v>0.10835865861049297</v>
+        <v>0.10835513624532783</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -6156,31 +7658,31 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>34.063810011338205</v>
+        <v>-1.5402893820015862</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>350.20880772925381</v>
-      </c>
-      <c r="G69" s="17">
+        <v>314.60470833591404</v>
+      </c>
+      <c r="G69" s="18">
         <f t="shared" si="6"/>
         <v>322.59693644685268</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="19">
         <f t="shared" si="7"/>
         <v>0.10406878340489474</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="18">
         <f>H69/(H69+$K$6)</f>
-        <v>1.0406770038499766E-5</v>
-      </c>
-      <c r="J69" s="8">
+        <v>4.1625780584220425E-5</v>
+      </c>
+      <c r="J69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>322.59722379724747</v>
-      </c>
-      <c r="K69" s="18">
+        <v>322.59660376411898</v>
+      </c>
+      <c r="K69" s="19">
         <f t="shared" si="5"/>
-        <v>0.10406770038499766</v>
+        <v>0.10406445146055106</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -6197,31 +7699,31 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>129.9727546462309</v>
+        <v>1.720909295692771</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="3"/>
-        <v>439.79485240978818</v>
-      </c>
-      <c r="G70" s="17">
+        <v>311.54300705925004</v>
+      </c>
+      <c r="G70" s="18">
         <f t="shared" si="6"/>
         <v>316.1449977179156</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="19">
         <f t="shared" si="7"/>
         <v>9.9947659582060908E-2</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="18">
         <f>H70/(H70+$K$6)</f>
-        <v>9.9946660638579508E-6</v>
-      </c>
-      <c r="J70" s="8">
+        <v>3.9977465571176419E-5</v>
+      </c>
+      <c r="J70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>316.14623355692208</v>
-      </c>
-      <c r="K70" s="18">
+        <v>316.14481374199249</v>
+      </c>
+      <c r="K70" s="19">
         <f t="shared" si="5"/>
-        <v>9.9946660638579515E-2</v>
+        <v>9.9943663927941045E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -6238,31 +7740,31 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>7.22552073378393</v>
+        <v>-17.594753501794276</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="3"/>
-        <v>310.85117654207005</v>
-      </c>
-      <c r="G71" s="17">
+        <v>286.03090230649184</v>
+      </c>
+      <c r="G71" s="18">
         <f t="shared" si="6"/>
         <v>309.82209776355728</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="19">
         <f t="shared" si="7"/>
         <v>9.5989732262611302E-2</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="18">
         <f>H71/(H71+$K$6)</f>
-        <v>9.5988810868585754E-6</v>
-      </c>
-      <c r="J71" s="8">
+        <v>3.839441871705531E-5</v>
+      </c>
+      <c r="J71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>309.82210764156213</v>
-      </c>
-      <c r="K71" s="18">
+        <v>309.82118431443712</v>
+      </c>
+      <c r="K71" s="19">
         <f t="shared" si="5"/>
-        <v>9.5988810868585753E-2</v>
+        <v>9.598604679263828E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -6279,31 +7781,31 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68075333087422407</v>
+        <v>66.219555980677569</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>298.2338960229946</v>
-      </c>
-      <c r="G72" s="17">
+        <v>363.77269867279796</v>
+      </c>
+      <c r="G72" s="18">
         <f t="shared" si="6"/>
         <v>303.62565580828613</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="19">
         <f t="shared" si="7"/>
         <v>9.2188538865011896E-2</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="18">
         <f>H72/(H72+$K$6)</f>
-        <v>9.2187689000176869E-6</v>
-      </c>
-      <c r="J72" s="8">
+        <v>3.6874055799874269E-5</v>
+      </c>
+      <c r="J72" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>303.6256061028987</v>
-      </c>
-      <c r="K72" s="18">
+        <v>303.62787367370089</v>
+      </c>
+      <c r="K72" s="19">
         <f t="shared" si="5"/>
-        <v>9.2187689000176862E-2</v>
+        <v>9.2185139499685681E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -6320,31 +7822,31 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.56787353468425372</v>
+        <v>-48.068431880745543</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>291.03420630359369</v>
-      </c>
-      <c r="G73" s="17">
+        <v>243.53364795753242</v>
+      </c>
+      <c r="G73" s="18">
         <f t="shared" si="6"/>
         <v>297.55314269212039</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="19">
         <f t="shared" si="7"/>
         <v>8.8537872725957423E-2</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="18">
         <f>H73/(H73+$K$6)</f>
-        <v>8.8537088837407123E-6</v>
-      </c>
-      <c r="J73" s="8">
+        <v>3.5413894902015143E-5</v>
+      </c>
+      <c r="J73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>297.55308497535538</v>
-      </c>
-      <c r="K73" s="18">
+        <v>297.55122965141118</v>
+      </c>
+      <c r="K73" s="19">
         <f t="shared" si="5"/>
-        <v>8.853708883740713E-2</v>
+        <v>8.8534737255037854E-2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -6361,31 +7863,31 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>-87.003592475158769</v>
+        <v>-33.648551971642306</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="3"/>
-        <v>198.76644576635363</v>
-      </c>
-      <c r="G74" s="17">
+        <v>252.1214862698701</v>
+      </c>
+      <c r="G74" s="18">
         <f t="shared" si="6"/>
         <v>291.60207983827797</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="19">
         <f t="shared" si="7"/>
         <v>8.50317729660095E-2</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="18">
         <f>H74/(H74+$K$6)</f>
-        <v>8.5031049931916223E-6</v>
-      </c>
-      <c r="J74" s="8">
+        <v>3.4011552361364354E-5</v>
+      </c>
+      <c r="J74" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>291.60129044713437</v>
-      </c>
-      <c r="K74" s="18">
+        <v>291.60073704200255</v>
+      </c>
+      <c r="K74" s="19">
         <f t="shared" si="5"/>
-        <v>8.5031049931916208E-2</v>
+        <v>8.5028880903410889E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -6402,31 +7904,31 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>-39.350014674662937</v>
+        <v>-33.576196391944968</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="3"/>
-        <v>240.70462280201923</v>
-      </c>
-      <c r="G75" s="17">
+        <v>246.4784410847372</v>
+      </c>
+      <c r="G75" s="18">
         <f t="shared" si="6"/>
         <v>285.7700382415124</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="19">
         <f t="shared" si="7"/>
         <v>8.1664514756555534E-2</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="18">
         <f>H75/(H75+$K$6)</f>
-        <v>8.1663847852704725E-6</v>
-      </c>
-      <c r="J75" s="8">
+        <v>3.2664738882602012E-5</v>
+      </c>
+      <c r="J75" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>285.76967021998939</v>
-      </c>
-      <c r="K75" s="18">
+        <v>285.76875479175101</v>
+      </c>
+      <c r="K75" s="19">
         <f t="shared" si="5"/>
-        <v>8.1663847852704724E-2</v>
+        <v>8.1661847206505031E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -6443,31 +7945,31 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>76.401521446173589</v>
+        <v>-21.57197853077902</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="3"/>
-        <v>350.85506617332214</v>
-      </c>
-      <c r="G76" s="17">
+        <v>252.88156619636953</v>
+      </c>
+      <c r="G76" s="18">
         <f t="shared" si="6"/>
         <v>280.05463747668216</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="19">
         <f t="shared" si="7"/>
         <v>7.8430599972195938E-2</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="18">
         <f>H76/(H76+$K$6)</f>
-        <v>7.8429984841119254E-6</v>
-      </c>
-      <c r="J76" s="8">
+        <v>3.1371255802312588E-5</v>
+      </c>
+      <c r="J76" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>280.05519276433711</v>
-      </c>
-      <c r="K76" s="18">
+        <v>280.05378502331212</v>
+      </c>
+      <c r="K76" s="19">
         <f t="shared" si="5"/>
-        <v>7.8429984841119252E-2</v>
+        <v>7.842813950578148E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -6484,31 +7986,31 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>98.086255753312628</v>
+        <v>41.228059965845141</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="3"/>
-        <v>367.05072958591819</v>
-      </c>
-      <c r="G77" s="17">
+        <v>310.19253379845071</v>
+      </c>
+      <c r="G77" s="18">
         <f t="shared" si="6"/>
         <v>274.45354472714854</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77" s="19">
         <f t="shared" si="7"/>
         <v>7.5324748213296988E-2</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="18">
         <f>H77/(H77+$K$6)</f>
-        <v>7.5324180835801402E-6</v>
-      </c>
-      <c r="J77" s="8">
+        <v>3.0128991501839274E-5</v>
+      </c>
+      <c r="J77" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>274.45424220785827</v>
-      </c>
-      <c r="K77" s="18">
+        <v>274.45462150684654</v>
+      </c>
+      <c r="K77" s="19">
         <f t="shared" si="5"/>
-        <v>7.5324180835801405E-2</v>
+        <v>7.5322478754598202E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -6525,31 +8027,31 @@
       </c>
       <c r="E78">
         <f t="shared" ref="E78:E113" ca="1" si="10">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>173.5394497892932</v>
+        <v>76.046074279572878</v>
       </c>
       <c r="F78">
         <f t="shared" ref="F78:F113" ca="1" si="11">D78+E78</f>
-        <v>437.12463414524666</v>
-      </c>
-      <c r="G78" s="17">
+        <v>339.63125863552636</v>
+      </c>
+      <c r="G78" s="18">
         <f t="shared" si="6"/>
         <v>268.96447383260556</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="19">
         <f t="shared" si="7"/>
         <v>7.2341888184050421E-2</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="18">
         <f>H78/(H78+$K$6)</f>
-        <v>7.2341364852957687E-6</v>
-      </c>
-      <c r="J78" s="8">
+        <v>2.8935917962043486E-5</v>
+      </c>
+      <c r="J78" s="9">
         <f t="shared" ref="J78:J113" ca="1" si="12">G78+I78*(F78-G78)</f>
-        <v>268.96569032615668</v>
-      </c>
-      <c r="K78" s="18">
+        <v>268.96651864089324</v>
+      </c>
+      <c r="K78" s="19">
         <f t="shared" ref="K78:K113" si="13">(1-I78)*H78</f>
-        <v>7.2341364852957696E-2</v>
+        <v>7.2339794905108709E-2</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6566,31 +8068,31 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="10"/>
-        <v>97.481848202321132</v>
+        <v>-42.022713078187955</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="11"/>
-        <v>355.7953288711555</v>
-      </c>
-      <c r="G79" s="17">
+        <v>216.2907675906464</v>
+      </c>
+      <c r="G79" s="18">
         <f t="shared" ref="G79:G113" si="14">$B$2*G78</f>
         <v>263.58518435595346</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79" s="19">
         <f t="shared" ref="H79:H113" si="15">$B$2*H78*$B$2</f>
         <v>6.9477149411962022E-2</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="18">
         <f>H79/(H79+$K$6)</f>
-        <v>6.9476666707886664E-6</v>
-      </c>
-      <c r="J79" s="8">
+        <v>2.7790087454361515E-5</v>
+      </c>
+      <c r="J79" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>263.5858250013012</v>
-      </c>
-      <c r="K79" s="18">
+        <v>263.58387003997547</v>
+      </c>
+      <c r="K79" s="19">
         <f t="shared" si="13"/>
-        <v>6.9476666707886672E-2</v>
+        <v>6.9475218635903779E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -6607,31 +8109,31 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9681577433692041</v>
+        <v>-8.035417742567299</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="11"/>
-        <v>261.11536879882686</v>
-      </c>
-      <c r="G80" s="17">
+        <v>245.11179331289037</v>
+      </c>
+      <c r="G80" s="18">
         <f t="shared" si="14"/>
         <v>258.31348066883436</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80" s="19">
         <f t="shared" si="15"/>
         <v>6.6725854295248313E-2</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="18">
         <f>H80/(H80+$K$6)</f>
-        <v>6.6725409064256019E-6</v>
-      </c>
-      <c r="J80" s="8">
+        <v>2.6689629362771301E-5</v>
+      </c>
+      <c r="J80" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>258.31349936454751</v>
-      </c>
-      <c r="K80" s="18">
+        <v>258.31312832069187</v>
+      </c>
+      <c r="K80" s="19">
         <f t="shared" si="13"/>
-        <v>6.6725409064256003E-2</v>
+        <v>6.672407340692825E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -6648,31 +8150,31 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="10"/>
-        <v>-86.104279221982637</v>
+        <v>20.014589130869297</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="11"/>
-        <v>161.97998761236587</v>
-      </c>
-      <c r="G81" s="17">
+        <v>268.09885596521781</v>
+      </c>
+      <c r="G81" s="18">
         <f t="shared" si="14"/>
         <v>253.14721105545766</v>
       </c>
-      <c r="H81" s="18">
+      <c r="H81" s="19">
         <f t="shared" si="15"/>
         <v>6.4083510465156479E-2</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="18">
         <f>H81/(H81+$K$6)</f>
-        <v>6.4083099798156817E-6</v>
-      </c>
-      <c r="J81" s="8">
+        <v>2.5632747131494972E-5</v>
+      </c>
+      <c r="J81" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>253.14662682762983</v>
-      </c>
-      <c r="K81" s="18">
+        <v>253.14759430719084</v>
+      </c>
+      <c r="K81" s="19">
         <f t="shared" si="13"/>
-        <v>6.4083099798156823E-2</v>
+        <v>6.4081867828737427E-2</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6689,31 +8191,31 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="10"/>
-        <v>-37.877508054057095</v>
+        <v>-129.1326761048056</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="11"/>
-        <v>205.24507344360444</v>
-      </c>
-      <c r="G82" s="17">
+        <v>113.98990539285595</v>
+      </c>
+      <c r="G82" s="18">
         <f t="shared" si="14"/>
         <v>248.08426683434851</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="19">
         <f t="shared" si="15"/>
         <v>6.1545803450736285E-2</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="18">
         <f>H82/(H82+$K$6)</f>
-        <v>6.1545424664475322E-6</v>
-      </c>
-      <c r="J82" s="8">
+        <v>2.4617715333466786E-5</v>
+      </c>
+      <c r="J82" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>248.08400317871357</v>
-      </c>
-      <c r="K82" s="18">
+        <v>248.08096573753073</v>
+      </c>
+      <c r="K82" s="19">
         <f t="shared" si="13"/>
-        <v>6.1545424664475316E-2</v>
+        <v>6.1544288333666965E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,31 +8232,31 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="10"/>
-        <v>-81.403791217420547</v>
+        <v>-19.388886371823162</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="11"/>
-        <v>156.85633865028777</v>
-      </c>
-      <c r="G83" s="17">
+        <v>218.87124349588515</v>
+      </c>
+      <c r="G83" s="18">
         <f t="shared" si="14"/>
         <v>243.12258149766154</v>
       </c>
-      <c r="H83" s="18">
+      <c r="H83" s="19">
         <f t="shared" si="15"/>
         <v>5.9108589634087119E-2</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="18">
         <f>H83/(H83+$K$6)</f>
-        <v>5.9108240253615404E-6</v>
-      </c>
-      <c r="J83" s="8">
+        <v>2.3642876854792536E-5</v>
+      </c>
+      <c r="J83" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>243.12207159308073</v>
-      </c>
-      <c r="K83" s="18">
+        <v>243.12200812626361</v>
+      </c>
+      <c r="K83" s="19">
         <f t="shared" si="13"/>
-        <v>5.9108240253615406E-2</v>
+        <v>5.9107192136981346E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -6771,31 +8273,31 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6066632549653139</v>
+        <v>-0.73666853808857025</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="11"/>
-        <v>240.10159052531947</v>
-      </c>
-      <c r="G84" s="17">
+        <v>232.75825873226557</v>
+      </c>
+      <c r="G84" s="18">
         <f t="shared" si="14"/>
         <v>238.26012986770832</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="19">
         <f t="shared" si="15"/>
         <v>5.6767889484577269E-2</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="18">
         <f>H84/(H84+$K$6)</f>
-        <v>5.6767567227079009E-6</v>
-      </c>
-      <c r="J84" s="8">
+        <v>2.2706640190614546E-5</v>
+      </c>
+      <c r="J84" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>238.26014032123248</v>
-      </c>
-      <c r="K84" s="18">
+        <v>238.26000493870006</v>
+      </c>
+      <c r="K84" s="19">
         <f t="shared" si="13"/>
-        <v>5.6767567227079006E-2</v>
+        <v>5.6766600476536359E-2</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -6812,31 +8314,31 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="10"/>
-        <v>-84.063939417181842</v>
+        <v>0.16291370999054811</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="11"/>
-        <v>144.76108930776522</v>
-      </c>
-      <c r="G85" s="17">
+        <v>228.98794243493762</v>
+      </c>
+      <c r="G85" s="18">
         <f t="shared" si="14"/>
         <v>233.49492727035414</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85" s="19">
         <f t="shared" si="15"/>
         <v>5.4519881060988006E-2</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="18">
         <f>H85/(H85+$K$6)</f>
-        <v>5.4519583820865461E-6</v>
-      </c>
-      <c r="J85" s="8">
+        <v>2.1807476847977604E-5</v>
+      </c>
+      <c r="J85" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>233.49444349716248</v>
-      </c>
-      <c r="K85" s="18">
+        <v>233.49482898438669</v>
+      </c>
+      <c r="K85" s="19">
         <f t="shared" si="13"/>
-        <v>5.4519583820865462E-2</v>
+        <v>5.4518692119944014E-2</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -6853,31 +8355,31 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="10"/>
-        <v>-35.329173633593719</v>
+        <v>-23.479539893006265</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="11"/>
-        <v>188.91935451685441</v>
-      </c>
-      <c r="G86" s="17">
+        <v>200.76898825744186</v>
+      </c>
+      <c r="G86" s="18">
         <f t="shared" si="14"/>
         <v>228.82502872494706</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="19">
         <f t="shared" si="15"/>
         <v>5.2360893770972874E-2</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="18">
         <f>H86/(H86+$K$6)</f>
-        <v>5.2360619606088776E-6</v>
-      </c>
-      <c r="J86" s="8">
+        <v>2.0943918851465098E-5</v>
+      </c>
+      <c r="J86" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>228.82481977636434</v>
-      </c>
-      <c r="K86" s="18">
+        <v>228.82444112151222</v>
+      </c>
+      <c r="K86" s="19">
         <f t="shared" si="13"/>
-        <v>5.236061960608878E-2</v>
+        <v>5.2359797128662747E-2</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -6894,31 +8396,31 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="10"/>
-        <v>-33.121432003262868</v>
+        <v>-27.154608482818134</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="11"/>
-        <v>186.64212558417628</v>
-      </c>
-      <c r="G87" s="17">
+        <v>192.60894910462102</v>
+      </c>
+      <c r="G87" s="18">
         <f t="shared" si="14"/>
         <v>224.24852815044812</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="19">
         <f t="shared" si="15"/>
         <v>5.028740237764235E-2</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="18">
         <f>H87/(H87+$K$6)</f>
-        <v>5.0287149496630241E-6</v>
-      </c>
-      <c r="J87" s="8">
+        <v>2.0114556347541459E-5</v>
+      </c>
+      <c r="J87" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>224.24833903856933</v>
-      </c>
-      <c r="K87" s="18">
+        <v>224.24789173435261</v>
+      </c>
+      <c r="K87" s="19">
         <f t="shared" si="13"/>
-        <v>5.0287149496630233E-2</v>
+        <v>5.0286390868853656E-2</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6935,31 +8437,31 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="10"/>
-        <v>148.42970407906671</v>
+        <v>8.922060064594012</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="11"/>
-        <v>363.79799051475709</v>
-      </c>
-      <c r="G88" s="17">
+        <v>224.29034650028439</v>
+      </c>
+      <c r="G88" s="18">
         <f t="shared" si="14"/>
         <v>219.76355758743915</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="19">
         <f t="shared" si="15"/>
         <v>4.8296021243487711E-2</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="18">
         <f>H88/(H88+$K$6)</f>
-        <v>4.8295787994047422E-6</v>
-      </c>
-      <c r="J88" s="8">
+        <v>1.931803530369772E-5</v>
+      </c>
+      <c r="J88" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>219.76425321308281</v>
-      </c>
-      <c r="K88" s="18">
+        <v>219.76364503610719</v>
+      </c>
+      <c r="K88" s="19">
         <f t="shared" si="13"/>
-        <v>4.8295787994047414E-2</v>
+        <v>4.82950882592443E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6976,31 +8478,31 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="10"/>
-        <v>80.074113739965725</v>
+        <v>25.118505151045884</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="11"/>
-        <v>291.13503444694231</v>
-      </c>
-      <c r="G89" s="17">
+        <v>236.17942585802246</v>
+      </c>
+      <c r="G89" s="18">
         <f t="shared" si="14"/>
         <v>215.36828643569038</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89" s="19">
         <f t="shared" si="15"/>
         <v>4.6383498802245599E-2</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="18">
         <f>H89/(H89+$K$6)</f>
-        <v>4.6383283660347384E-6</v>
-      </c>
-      <c r="J89" s="8">
+        <v>1.855305529865095E-5</v>
+      </c>
+      <c r="J89" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>215.36863786674689</v>
-      </c>
-      <c r="K89" s="18">
+        <v>215.3686725459109</v>
+      </c>
+      <c r="K89" s="19">
         <f t="shared" si="13"/>
-        <v>4.6383283660347385E-2</v>
+        <v>4.6382638246627375E-2</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -7017,31 +8519,31 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="10"/>
-        <v>-23.811723293110841</v>
+        <v>30.954677383587857</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="11"/>
-        <v>183.02797899972617</v>
-      </c>
-      <c r="G90" s="17">
+        <v>237.79437967642488</v>
+      </c>
+      <c r="G90" s="18">
         <f t="shared" si="14"/>
         <v>211.06092070697656</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90" s="19">
         <f t="shared" si="15"/>
         <v>4.454671224967667E-2</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="18">
         <f>H90/(H90+$K$6)</f>
-        <v>4.4546513809603432E-6</v>
-      </c>
-      <c r="J90" s="8">
+        <v>1.7818367399996539E-5</v>
+      </c>
+      <c r="J90" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>211.06079582999408</v>
-      </c>
-      <c r="K90" s="18">
+        <v>211.06139705357035</v>
+      </c>
+      <c r="K90" s="19">
         <f t="shared" si="13"/>
-        <v>4.4546513809603429E-2</v>
+        <v>4.4545918499991344E-2</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -7058,31 +8560,31 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="10"/>
-        <v>-90.974188604772039</v>
+        <v>-27.403969419911249</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="11"/>
-        <v>111.72871964220825</v>
-      </c>
-      <c r="G91" s="17">
+        <v>175.29893882706904</v>
+      </c>
+      <c r="G91" s="18">
         <f t="shared" si="14"/>
         <v>206.83970229283702</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91" s="19">
         <f t="shared" si="15"/>
         <v>4.2782662444589468E-2</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="18">
         <f>H91/(H91+$K$6)</f>
-        <v>4.2782479409751948E-6</v>
-      </c>
-      <c r="J91" s="8">
+        <v>1.7112772125854446E-5</v>
+      </c>
+      <c r="J91" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>206.83929538447134</v>
-      </c>
-      <c r="K91" s="18">
+        <v>206.83916254293916</v>
+      </c>
+      <c r="K91" s="19">
         <f t="shared" si="13"/>
-        <v>4.2782479409751953E-2</v>
+        <v>4.2781930314636112E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -7099,31 +8601,31 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="10"/>
-        <v>26.727174233571144</v>
+        <v>119.75955763818156</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="11"/>
-        <v>225.3760243156118</v>
-      </c>
-      <c r="G92" s="17">
+        <v>318.40840772022221</v>
+      </c>
+      <c r="G92" s="18">
         <f t="shared" si="14"/>
         <v>202.70290824698029</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="19">
         <f t="shared" si="15"/>
         <v>4.1088469011783729E-2</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="18">
         <f>H92/(H92+$K$6)</f>
-        <v>4.1088300186248831E-6</v>
-      </c>
-      <c r="J92" s="8">
+        <v>1.643511748718726E-5</v>
+      </c>
+      <c r="J92" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>202.7030014069602</v>
-      </c>
-      <c r="K92" s="18">
+        <v>202.70480988045804</v>
+      </c>
+      <c r="K92" s="19">
         <f t="shared" si="13"/>
-        <v>4.108830018624883E-2</v>
+        <v>4.1087793717968155E-2</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -7140,31 +8642,31 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="10"/>
-        <v>60.470686433293416</v>
+        <v>-75.554829149295543</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="11"/>
-        <v>255.14655951369326</v>
-      </c>
-      <c r="G93" s="17">
+        <v>119.1210439311043</v>
+      </c>
+      <c r="G93" s="18">
         <f t="shared" si="14"/>
         <v>198.64885008204067</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="19">
         <f t="shared" si="15"/>
         <v>3.9461365638917091E-2</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="18">
         <f>H93/(H93+$K$6)</f>
-        <v>3.9461209919593773E-6</v>
-      </c>
-      <c r="J93" s="8">
+        <v>1.5784297107599028E-5</v>
+      </c>
+      <c r="J93" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>198.64907302883785</v>
-      </c>
-      <c r="K93" s="18">
+        <v>198.64759479152008</v>
+      </c>
+      <c r="K93" s="19">
         <f t="shared" si="13"/>
-        <v>3.9461209919593773E-2</v>
+        <v>3.9460742768997574E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -7181,31 +8683,31 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="10"/>
-        <v>13.738079983925692</v>
+        <v>7.687242018671518</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="11"/>
-        <v>204.52043560271753</v>
-      </c>
-      <c r="G94" s="17">
+        <v>198.46959763746335</v>
+      </c>
+      <c r="G94" s="18">
         <f t="shared" si="14"/>
         <v>194.67587308039984</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94" s="19">
         <f t="shared" si="15"/>
         <v>3.7898695559615975E-2</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="18">
         <f>H94/(H94+$K$6)</f>
-        <v>3.7898551929047803E-6</v>
-      </c>
-      <c r="J94" s="8">
+        <v>1.5159248417550113E-5</v>
+      </c>
+      <c r="J94" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>194.67591038986623</v>
-      </c>
-      <c r="K94" s="18">
+        <v>194.67593059041283</v>
+      </c>
+      <c r="K94" s="19">
         <f t="shared" si="13"/>
-        <v>3.7898551929047807E-2</v>
+        <v>3.7898121043875285E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -7222,31 +8724,31 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="10"/>
-        <v>171.14582725446829</v>
+        <v>55.374561999592409</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="11"/>
-        <v>358.11253576088427</v>
-      </c>
-      <c r="G95" s="17">
+        <v>242.34127050600839</v>
+      </c>
+      <c r="G95" s="18">
         <f t="shared" si="14"/>
         <v>190.78235561879183</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="19">
         <f t="shared" si="15"/>
         <v>3.6397907215455182E-2</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I95" s="18">
         <f>H95/(H95+$K$6)</f>
-        <v>3.6397774735172417E-6</v>
-      </c>
-      <c r="J95" s="8">
+        <v>1.4558950920044176E-5</v>
+      </c>
+      <c r="J95" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>190.78296466341214</v>
-      </c>
-      <c r="K95" s="18">
+        <v>190.78310626250317</v>
+      </c>
+      <c r="K95" s="19">
         <f t="shared" si="13"/>
-        <v>3.6397774735172417E-2</v>
+        <v>3.6397377300110438E-2</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -7263,31 +8765,31 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="10"/>
-        <v>127.5982848003103</v>
+        <v>-103.22080189807772</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="11"/>
-        <v>310.82565913659795</v>
-      </c>
-      <c r="G96" s="17">
+        <v>80.006572438209929</v>
+      </c>
+      <c r="G96" s="18">
         <f t="shared" si="14"/>
         <v>186.96670850641598</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="19">
         <f t="shared" si="15"/>
         <v>3.4956550089723155E-2</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="18">
         <f>H96/(H96+$K$6)</f>
-        <v>3.4956427894110894E-6</v>
-      </c>
-      <c r="J96" s="8">
+        <v>1.3982424524959949E-5</v>
+      </c>
+      <c r="J96" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>186.96714147306366</v>
-      </c>
-      <c r="K96" s="18">
+        <v>186.96521294438622</v>
+      </c>
+      <c r="K96" s="19">
         <f t="shared" si="13"/>
-        <v>3.4956427894110888E-2</v>
+        <v>3.4956061312399873E-2</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -7304,31 +8806,31 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="10"/>
-        <v>42.124437965034026</v>
+        <v>-32.460027154485559</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="11"/>
-        <v>221.68726481459592</v>
-      </c>
-      <c r="G97" s="17">
+        <v>147.10279969507633</v>
+      </c>
+      <c r="G97" s="18">
         <f t="shared" si="14"/>
         <v>183.22737433628765</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97" s="19">
         <f t="shared" si="15"/>
         <v>3.3572270706170117E-2</v>
       </c>
-      <c r="I97" s="17">
+      <c r="I97" s="18">
         <f>H97/(H97+$K$6)</f>
-        <v>3.357215799681247E-6</v>
-      </c>
-      <c r="J97" s="8">
+        <v>1.3428727949312063E-5</v>
+      </c>
+      <c r="J97" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>183.22750345443961</v>
-      </c>
-      <c r="K97" s="18">
+        <v>183.2268892292025</v>
+      </c>
+      <c r="K97" s="19">
         <f t="shared" si="13"/>
-        <v>3.3572157996812471E-2</v>
+        <v>3.3571819873280166E-2</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -7345,31 +8847,31 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="10"/>
-        <v>-67.420880872088745</v>
+        <v>-42.236349198780175</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="11"/>
-        <v>108.55068944048192</v>
-      </c>
-      <c r="G98" s="17">
+        <v>133.73522111379049</v>
+      </c>
+      <c r="G98" s="18">
         <f t="shared" si="14"/>
         <v>179.5628268495619</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="19">
         <f t="shared" si="15"/>
         <v>3.2242808786205779E-2</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="18">
         <f>H98/(H98+$K$6)</f>
-        <v>3.2242704826669131E-6</v>
-      </c>
-      <c r="J98" s="8">
+        <v>1.2896957180832589E-5</v>
+      </c>
+      <c r="J98" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>179.56259788722335</v>
-      </c>
-      <c r="K98" s="18">
+        <v>179.56223581289302</v>
+      </c>
+      <c r="K98" s="19">
         <f t="shared" si="13"/>
-        <v>3.2242704826669133E-2</v>
+        <v>3.2242392952081471E-2</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -7386,31 +8888,31 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="10"/>
-        <v>46.807585425554841</v>
+        <v>44.489402142689258</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="11"/>
-        <v>219.25972433187408</v>
-      </c>
-      <c r="G99" s="17">
+        <v>216.94154104900849</v>
+      </c>
+      <c r="G99" s="18">
         <f t="shared" si="14"/>
         <v>175.97157031257066</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H99" s="19">
         <f t="shared" si="15"/>
         <v>3.096599355827203E-2</v>
       </c>
-      <c r="I99" s="17">
+      <c r="I99" s="18">
         <f>H99/(H99+$K$6)</f>
-        <v>3.0965897669293257E-6</v>
-      </c>
-      <c r="J99" s="8">
+        <v>1.2386244002368017E-5</v>
+      </c>
+      <c r="J99" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>175.97170435822542</v>
-      </c>
-      <c r="K99" s="18">
+        <v>175.97207777662499</v>
+      </c>
+      <c r="K99" s="19">
         <f t="shared" si="13"/>
-        <v>3.0965897669293255E-2</v>
+        <v>3.0965610005920043E-2</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -7427,31 +8929,31 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="10"/>
-        <v>-34.494263933880156</v>
+        <v>10.90664451367215</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="11"/>
-        <v>134.5088321943127</v>
-      </c>
-      <c r="G100" s="17">
+        <v>179.909740641865</v>
+      </c>
+      <c r="G100" s="18">
         <f t="shared" si="14"/>
         <v>172.45213890631925</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100" s="19">
         <f t="shared" si="15"/>
         <v>2.9739740213364455E-2</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="18">
         <f>H100/(H100+$K$6)</f>
-        <v>2.973965176841269E-6</v>
-      </c>
-      <c r="J100" s="8">
+        <v>1.1895754574685505E-5</v>
+      </c>
+      <c r="J100" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>172.45202606424638</v>
-      </c>
-      <c r="K100" s="18">
+        <v>172.4522276201192</v>
+      </c>
+      <c r="K100" s="19">
         <f t="shared" si="13"/>
-        <v>2.9739651768412693E-2</v>
+        <v>2.9739386436713762E-2</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -7468,31 +8970,31 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="10"/>
-        <v>64.936721248150718</v>
+        <v>8.4199517084491955</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="11"/>
-        <v>230.5597554537797</v>
-      </c>
-      <c r="G101" s="17">
+        <v>174.04298591407817</v>
+      </c>
+      <c r="G101" s="18">
         <f t="shared" si="14"/>
         <v>169.00309612819285</v>
       </c>
-      <c r="H101" s="18">
+      <c r="H101" s="19">
         <f t="shared" si="15"/>
         <v>2.856204650091522E-2</v>
       </c>
-      <c r="I101" s="17">
+      <c r="I101" s="18">
         <f>H101/(H101+$K$6)</f>
-        <v>2.8561964922098196E-6</v>
-      </c>
-      <c r="J101" s="8">
+        <v>1.142468807537726E-5</v>
+      </c>
+      <c r="J101" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>169.00327194610728</v>
-      </c>
-      <c r="K101" s="18">
+        <v>169.00315370736158</v>
+      </c>
+      <c r="K101" s="19">
         <f t="shared" si="13"/>
-        <v>2.8561964922098195E-2</v>
+        <v>2.8561720188443152E-2</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -7509,31 +9011,31 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="10"/>
-        <v>94.127797199091717</v>
+        <v>48.552586743722514</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="11"/>
-        <v>256.43837072060813</v>
-      </c>
-      <c r="G102" s="17">
+        <v>210.86316026523892</v>
+      </c>
+      <c r="G102" s="18">
         <f t="shared" si="14"/>
         <v>165.62303420562898</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102" s="19">
         <f t="shared" si="15"/>
         <v>2.7430989459478975E-2</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I102" s="18">
         <f>H102/(H102+$K$6)</f>
-        <v>2.7430914213767109E-6</v>
-      </c>
-      <c r="J102" s="8">
+        <v>1.0972275391643344E-5</v>
+      </c>
+      <c r="J102" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>165.62328332039951</v>
-      </c>
-      <c r="K102" s="18">
+        <v>165.62353059275085</v>
+      </c>
+      <c r="K102" s="19">
         <f t="shared" si="13"/>
-        <v>2.7430914213767109E-2</v>
+        <v>2.7430688479108362E-2</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -7550,31 +9052,31 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="10"/>
-        <v>121.53521793228059</v>
+        <v>74.663949141063796</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="11"/>
-        <v>280.59957998336665</v>
-      </c>
-      <c r="G103" s="17">
+        <v>233.72831119214987</v>
+      </c>
+      <c r="G103" s="18">
         <f t="shared" si="14"/>
         <v>162.3105735215164</v>
       </c>
-      <c r="H103" s="18">
+      <c r="H103" s="19">
         <f t="shared" si="15"/>
         <v>2.6344722276883607E-2</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I103" s="18">
         <f>H103/(H103+$K$6)</f>
-        <v>2.6344652872627267E-6</v>
-      </c>
-      <c r="J103" s="8">
+        <v>1.0537777864820937E-5</v>
+      </c>
+      <c r="J103" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>162.3108851497978</v>
-      </c>
-      <c r="K103" s="18">
+        <v>162.31132610577157</v>
+      </c>
+      <c r="K103" s="19">
         <f t="shared" si="13"/>
-        <v>2.6344652872627265E-2</v>
+        <v>2.6344444662052342E-2</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -7591,31 +9093,31 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="10"/>
-        <v>-163.45063333331552</v>
+        <v>-61.233909364490358</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="11"/>
-        <v>-7.5675585232511651</v>
-      </c>
-      <c r="G104" s="17">
+        <v>94.649165445573999</v>
+      </c>
+      <c r="G104" s="18">
         <f t="shared" si="14"/>
         <v>159.06436205108608</v>
       </c>
-      <c r="H104" s="18">
+      <c r="H104" s="19">
         <f t="shared" si="15"/>
         <v>2.5301471274719014E-2</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I104" s="18">
         <f>H104/(H104+$K$6)</f>
-        <v>2.5301407258436117E-6</v>
-      </c>
-      <c r="J104" s="8">
+        <v>1.0120486084612422E-5</v>
+      </c>
+      <c r="J104" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>159.06394044887762</v>
-      </c>
-      <c r="K104" s="18">
+        <v>159.0637101379852</v>
+      </c>
+      <c r="K104" s="19">
         <f t="shared" si="13"/>
-        <v>2.5301407258436118E-2</v>
+        <v>2.5301215211531058E-2</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -7632,31 +9134,31 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="10"/>
-        <v>-166.95798955374318</v>
+        <v>-23.226915585558523</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="11"/>
-        <v>-14.192576239880111</v>
-      </c>
-      <c r="G105" s="17">
+        <v>129.53849772830455</v>
+      </c>
+      <c r="G105" s="18">
         <f t="shared" si="14"/>
         <v>155.88307481006436</v>
       </c>
-      <c r="H105" s="18">
+      <c r="H105" s="19">
         <f t="shared" si="15"/>
         <v>2.4299533012240141E-2</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="18">
         <f>H105/(H105+$K$6)</f>
-        <v>2.4299473965653159E-6</v>
-      </c>
-      <c r="J105" s="8">
+        <v>9.7197187310455871E-6</v>
+      </c>
+      <c r="J105" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>155.88266153517887</v>
-      </c>
-      <c r="K105" s="18">
+        <v>155.88281874818503</v>
+      </c>
+      <c r="K105" s="19">
         <f t="shared" si="13"/>
-        <v>2.429947396565316E-2</v>
+        <v>2.4299296827613965E-2</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -7673,31 +9175,31 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="10"/>
-        <v>-70.586921298351058</v>
+        <v>3.982838378547942</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="11"/>
-        <v>79.123183749234755</v>
-      </c>
-      <c r="G106" s="17">
+        <v>153.69294342613375</v>
+      </c>
+      <c r="G106" s="18">
         <f t="shared" si="14"/>
         <v>152.76541331386306</v>
       </c>
-      <c r="H106" s="18">
+      <c r="H106" s="19">
         <f t="shared" si="15"/>
         <v>2.3337271504955431E-2</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="18">
         <f>H106/(H106+$K$6)</f>
-        <v>2.3337217042258403E-6</v>
-      </c>
-      <c r="J106" s="8">
+        <v>9.3348214622770061E-6</v>
+      </c>
+      <c r="J106" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>152.76524145339357</v>
-      </c>
-      <c r="K106" s="18">
+        <v>152.76542197219106</v>
+      </c>
+      <c r="K106" s="19">
         <f t="shared" si="13"/>
-        <v>2.3337217042258402E-2</v>
+        <v>2.3337053655692518E-2</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -7714,31 +9216,31 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="10"/>
-        <v>16.638332135737787</v>
+        <v>-72.069730991542116</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="11"/>
-        <v>163.35423508237187</v>
-      </c>
-      <c r="G107" s="17">
+        <v>74.646171955091972</v>
+      </c>
+      <c r="G107" s="18">
         <f t="shared" si="14"/>
         <v>149.71010504758581</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H107" s="19">
         <f t="shared" si="15"/>
         <v>2.2413115553359196E-2</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="18">
         <f>H107/(H107+$K$6)</f>
-        <v>2.2413065318696908E-6</v>
-      </c>
-      <c r="J107" s="8">
+        <v>8.96516584642445E-6</v>
+      </c>
+      <c r="J107" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>149.71013562826357</v>
-      </c>
-      <c r="K107" s="18">
+        <v>149.70943208697656</v>
+      </c>
+      <c r="K107" s="19">
         <f t="shared" si="13"/>
-        <v>2.2413065318696905E-2</v>
+        <v>2.2412914616061125E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -7755,31 +9257,31 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="10"/>
-        <v>194.97497895237214</v>
+        <v>-4.6481869734118986</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="11"/>
-        <v>338.75656384007357</v>
-      </c>
-      <c r="G108" s="17">
+        <v>139.1333979142895</v>
+      </c>
+      <c r="G108" s="18">
         <f t="shared" si="14"/>
         <v>146.71590294663409</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H108" s="19">
         <f t="shared" si="15"/>
         <v>2.152555617744617E-2</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="18">
         <f>H108/(H108+$K$6)</f>
-        <v>2.1525509842589033E-6</v>
-      </c>
-      <c r="J108" s="8">
+        <v>8.6101483356857897E-6</v>
+      </c>
+      <c r="J108" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>146.71631632394772</v>
-      </c>
-      <c r="K108" s="18">
+        <v>146.71583766014101</v>
+      </c>
+      <c r="K108" s="19">
         <f t="shared" si="13"/>
-        <v>2.1525509842589035E-2</v>
+        <v>2.1525370839214474E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -7796,31 +9298,31 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7831196728185637</v>
+        <v>-26.662846004574124</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="11"/>
-        <v>143.68907286276595</v>
-      </c>
-      <c r="G109" s="17">
+        <v>114.24310718537326</v>
+      </c>
+      <c r="G109" s="18">
         <f t="shared" si="14"/>
         <v>143.7815848877014</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="19">
         <f t="shared" si="15"/>
         <v>2.0673144152819303E-2</v>
       </c>
-      <c r="I109" s="17">
+      <c r="I109" s="18">
         <f>H109/(H109+$K$6)</f>
-        <v>2.0673101415018742E-6</v>
-      </c>
-      <c r="J109" s="8">
+        <v>8.2691892810709076E-6</v>
+      </c>
+      <c r="J109" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>143.78158469645035</v>
-      </c>
-      <c r="K109" s="18">
+        <v>143.78134062843822</v>
+      </c>
+      <c r="K109" s="19">
         <f t="shared" si="13"/>
-        <v>2.0673101415018737E-2</v>
+        <v>2.0672973202677268E-2</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -7837,31 +9339,31 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="10"/>
-        <v>-99.051215559258736</v>
+        <v>-121.38979849519951</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="11"/>
-        <v>39.0366185668897</v>
-      </c>
-      <c r="G110" s="17">
+        <v>16.698035630948922</v>
+      </c>
+      <c r="G110" s="18">
         <f t="shared" si="14"/>
         <v>140.90595318994738</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110" s="19">
         <f t="shared" si="15"/>
         <v>1.985448764436766E-2</v>
       </c>
-      <c r="I110" s="17">
+      <c r="I110" s="18">
         <f>H110/(H110+$K$6)</f>
-        <v>1.9854448224377964E-6</v>
-      </c>
-      <c r="J110" s="8">
+        <v>7.9417319861392271E-6</v>
+      </c>
+      <c r="J110" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>140.9057509340044</v>
-      </c>
-      <c r="K110" s="18">
+        <v>140.90496676395557</v>
+      </c>
+      <c r="K110" s="19">
         <f t="shared" si="13"/>
-        <v>1.9854448224377964E-2</v>
+        <v>1.9854329965348066E-2</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -7878,31 +9380,31 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="10"/>
-        <v>-99.29687668619971</v>
+        <v>-40.912435884728488</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="11"/>
-        <v>36.02920075742577</v>
-      </c>
-      <c r="G111" s="17">
+        <v>94.413641558896984</v>
+      </c>
+      <c r="G111" s="18">
         <f t="shared" si="14"/>
         <v>138.08783412614844</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111" s="19">
         <f t="shared" si="15"/>
         <v>1.9068249933650701E-2</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I111" s="18">
         <f>H111/(H111+$K$6)</f>
-        <v>1.9068213573904479E-6</v>
-      </c>
-      <c r="J111" s="8">
+        <v>7.6272417981991152E-6</v>
+      </c>
+      <c r="J111" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>138.08763951856662</v>
-      </c>
-      <c r="K111" s="18">
+        <v>138.08750101252139</v>
+      </c>
+      <c r="K111" s="19">
         <f t="shared" si="13"/>
-        <v>1.906821357390448E-2</v>
+        <v>1.9068104495497791E-2</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -7919,31 +9421,31 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="10"/>
-        <v>-28.036738777507381</v>
+        <v>-103.32370286993817</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="11"/>
-        <v>104.5828171172456</v>
-      </c>
-      <c r="G112" s="17">
+        <v>29.295853024814804</v>
+      </c>
+      <c r="G112" s="18">
         <f t="shared" si="14"/>
         <v>135.32607744362548</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112" s="19">
         <f t="shared" si="15"/>
         <v>1.8313147236278131E-2</v>
       </c>
-      <c r="I112" s="17">
+      <c r="I112" s="18">
         <f>H112/(H112+$K$6)</f>
-        <v>1.8313113699203377E-6</v>
-      </c>
-      <c r="J112" s="8">
+        <v>7.325205235486447E-6</v>
+      </c>
+      <c r="J112" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>135.32602114314329</v>
-      </c>
-      <c r="K112" s="18">
+        <v>135.32530075047043</v>
+      </c>
+      <c r="K112" s="19">
         <f t="shared" si="13"/>
-        <v>1.8313113699203378E-2</v>
+        <v>1.8313013088716117E-2</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -7960,31 +9462,31 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="10"/>
-        <v>-152.15905281916625</v>
+        <v>-7.185026524589694</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="11"/>
-        <v>-22.191888042308335</v>
-      </c>
-      <c r="G113" s="27">
+        <v>122.78213825226823</v>
+      </c>
+      <c r="G113" s="28">
         <f t="shared" si="14"/>
         <v>132.61955589475298</v>
       </c>
-      <c r="H113" s="29">
+      <c r="H113" s="30">
         <f t="shared" si="15"/>
         <v>1.7587946605721515E-2</v>
       </c>
-      <c r="I113" s="27">
+      <c r="I113" s="28">
         <f>H113/(H113+$K$6)</f>
-        <v>1.7587915672189339E-6</v>
-      </c>
-      <c r="J113" s="28">
+        <v>7.0351291488982726E-6</v>
+      </c>
+      <c r="J113" s="29">
         <f t="shared" ca="1" si="12"/>
-        <v>132.61928361369087</v>
-      </c>
-      <c r="K113" s="29">
+        <v>132.61948668724938</v>
+      </c>
+      <c r="K113" s="30">
         <f t="shared" si="13"/>
-        <v>1.7587915672189341E-2</v>
+        <v>1.7587822872245678E-2</v>
       </c>
     </row>
   </sheetData>

--- a/KF-ATTITUDE_RUNNING.xlsx
+++ b/KF-ATTITUDE_RUNNING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9B7B0-D7D0-4C9C-A373-17AC10ECB3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DF0E9E-57A6-4247-892A-F7FE9A6E212D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
@@ -1462,307 +1462,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1000.0277545245557</c:v>
+                  <c:v>999.99429493691491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>979.98696305694943</c:v>
+                  <c:v>980.00159951132457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>960.40383290769796</c:v>
+                  <c:v>960.40614558592904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>941.17669074285311</c:v>
+                  <c:v>941.18700843459624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>922.36027612628686</c:v>
+                  <c:v>922.37600141655309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>903.92350261007778</c:v>
+                  <c:v>903.92401846917005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>885.8293599771074</c:v>
+                  <c:v>885.83567637282476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>868.1277468683079</c:v>
+                  <c:v>868.11012744809102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>850.75995325543374</c:v>
+                  <c:v>850.77818573173465</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>833.7152681216628</c:v>
+                  <c:v>833.73110873752728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>817.0683804504888</c:v>
+                  <c:v>817.04010610656815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>800.73483260178921</c:v>
+                  <c:v>800.7352039632226</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>784.73267367475239</c:v>
+                  <c:v>784.69690387737126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>769.02821184727065</c:v>
+                  <c:v>769.00884205896898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>753.65945724087089</c:v>
+                  <c:v>753.62675446031096</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>738.56876403932631</c:v>
+                  <c:v>738.56726186376</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>723.80449284196038</c:v>
+                  <c:v>723.80347360387429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>709.32083977128264</c:v>
+                  <c:v>709.33205720328624</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>695.12935228276626</c:v>
+                  <c:v>695.12115713393564</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>681.22918093055569</c:v>
+                  <c:v>681.22713487978695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>667.60337902536105</c:v>
+                  <c:v>667.58609972483566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>654.25620055721834</c:v>
+                  <c:v>654.25718237706508</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>641.16146071678713</c:v>
+                  <c:v>641.1637557699604</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>628.35331858720849</c:v>
+                  <c:v>628.34705587576457</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>615.78113456076801</c:v>
+                  <c:v>615.78305131594323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>603.44983210320788</c:v>
+                  <c:v>603.46056809394929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>591.38839462802673</c:v>
+                  <c:v>591.38757620180093</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>579.57564708117752</c:v>
+                  <c:v>579.57184547796385</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>567.97785124513825</c:v>
+                  <c:v>567.97692332281861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>556.61670598550438</c:v>
+                  <c:v>556.62136163230343</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>545.47390146621308</c:v>
+                  <c:v>545.48579064923013</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>534.57098440829441</c:v>
+                  <c:v>534.58257171049229</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>523.87944407866485</c:v>
+                  <c:v>523.87645790302963</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>513.40665870443809</c:v>
+                  <c:v>513.41028933529867</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>503.13678648242302</c:v>
+                  <c:v>503.14009940682854</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>493.07311093411488</c:v>
+                  <c:v>493.07903085181289</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>483.21201143745446</c:v>
+                  <c:v>483.21360791187419</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>473.54909169003116</c:v>
+                  <c:v>473.54744338841692</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>464.07886953656379</c:v>
+                  <c:v>464.08469781016635</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>454.80526695933906</c:v>
+                  <c:v>454.80147926252567</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>445.69954924182241</c:v>
+                  <c:v>445.69907200671878</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>436.79457339888774</c:v>
+                  <c:v>436.78698134042247</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>428.04868908641265</c:v>
+                  <c:v>428.05020520666045</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>419.48888456030801</c:v>
+                  <c:v>419.49446984529942</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>411.09722507557626</c:v>
+                  <c:v>411.09413984061223</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>402.87910045302203</c:v>
+                  <c:v>402.8827253775703</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>394.82068830724853</c:v>
+                  <c:v>394.81669587664481</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>386.9268431220089</c:v>
+                  <c:v>386.92453605361561</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>379.18096107050184</c:v>
+                  <c:v>379.18202995825294</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>371.60102035950865</c:v>
+                  <c:v>371.60059580453873</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>364.17141276965492</c:v>
+                  <c:v>364.168831259294</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>356.88941860765397</c:v>
+                  <c:v>356.88889087844228</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>349.74424920509023</c:v>
+                  <c:v>349.74814464684732</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>342.75552448228706</c:v>
+                  <c:v>342.75157247733972</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>335.900022741481</c:v>
+                  <c:v>335.89674471868102</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>329.18336333305376</c:v>
+                  <c:v>329.18133224202688</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>322.59660376411898</c:v>
+                  <c:v>322.59422640075508</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>316.14481374199249</c:v>
+                  <c:v>316.14460192027565</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>309.82118431443712</c:v>
+                  <c:v>309.82383126522012</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>303.62787367370089</c:v>
+                  <c:v>303.62735633722258</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>297.55122965141118</c:v>
+                  <c:v>297.55168351185876</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>291.60073704200255</c:v>
+                  <c:v>291.60265975360153</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>285.76875479175101</c:v>
+                  <c:v>285.76946089988621</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>280.05378502331212</c:v>
+                  <c:v>280.05377099553846</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>274.45462150684654</c:v>
+                  <c:v>274.45266931039339</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>268.96651864089324</c:v>
+                  <c:v>268.9639466305357</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>263.58387003997547</c:v>
+                  <c:v>263.58410171103992</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>258.31312832069187</c:v>
+                  <c:v>258.31423719521837</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>253.14759430719084</c:v>
+                  <c:v>253.1503785702958</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>248.08096573753073</c:v>
+                  <c:v>248.08438881567633</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>243.12200812626361</c:v>
+                  <c:v>243.12260225276569</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>238.26000493870006</c:v>
+                  <c:v>238.26071579220385</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>233.49482898438669</c:v>
+                  <c:v>233.49461499949115</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>228.82444112151222</c:v>
+                  <c:v>228.82306786383944</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>224.24789173435261</c:v>
+                  <c:v>224.24787976332044</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>219.76364503610719</c:v>
+                  <c:v>219.76439961263969</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>215.3686725459109</c:v>
+                  <c:v>215.36828263034454</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>211.06139705357035</c:v>
+                  <c:v>211.06160834482216</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>206.83916254293916</c:v>
+                  <c:v>206.83990495343733</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>202.70480988045804</c:v>
+                  <c:v>202.70191004115776</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>198.64759479152008</c:v>
+                  <c:v>198.64818697655269</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>194.67593059041283</c:v>
+                  <c:v>194.67708606261135</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>190.78310626250317</c:v>
+                  <c:v>190.7803277505673</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>186.96521294438622</c:v>
+                  <c:v>186.96769345681201</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>183.2268892292025</c:v>
+                  <c:v>183.22757414943607</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>179.56223581289302</c:v>
+                  <c:v>179.56256399336266</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>175.97207777662499</c:v>
+                  <c:v>175.97155624181545</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>172.4522276201192</c:v>
+                  <c:v>172.4510056319094</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>169.00315370736158</c:v>
+                  <c:v>169.00285700064046</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>165.62353059275085</c:v>
+                  <c:v>165.62230841384945</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>162.31132610577157</c:v>
+                  <c:v>162.31118187184373</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>159.0637101379852</c:v>
+                  <c:v>159.06308067035528</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>155.88281874818503</c:v>
+                  <c:v>155.88324301820285</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>152.76542197219106</c:v>
+                  <c:v>152.7651886495162</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>149.70943208697656</c:v>
+                  <c:v>149.70969116985091</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>146.71583766014101</c:v>
+                  <c:v>146.71555054542526</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>143.78134062843822</c:v>
+                  <c:v>143.78206484364264</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>140.90496676395557</c:v>
+                  <c:v>140.90591271037292</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>138.08750101252139</c:v>
+                  <c:v>138.08793377653473</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>135.32530075047043</c:v>
+                  <c:v>135.32612530940864</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>132.61948668724938</c:v>
+                  <c:v>132.61942558987562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,307 +2132,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1069.4140659136519</c:v>
+                  <c:v>985.73163722427773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>946.05073062625274</c:v>
+                  <c:v>984.16525872782631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>970.79260136323273</c:v>
+                  <c:v>977.06323056443966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>897.97132634173249</c:v>
+                  <c:v>927.09994985730009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>899.19320872950334</c:v>
+                  <c:v>945.41830680877956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>912.20247743029563</c:v>
+                  <c:v>913.78136882689193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>844.34659779480808</c:v>
+                  <c:v>864.47608579593691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>875.47082806566982</c:v>
+                  <c:v>817.00562482884607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840.15848870147283</c:v>
+                  <c:v>903.15176165584819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>716.85310098497973</c:v>
+                  <c:v>773.83848106058247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800.4926457186707</c:v>
+                  <c:v>694.58507874762893</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>814.31098328529367</c:v>
+                  <c:v>815.75933657897701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>849.4876642407603</c:v>
+                  <c:v>704.23047675419423</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>793.64197626099269</c:v>
+                  <c:v>711.74089438394185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>830.75673134686269</c:v>
+                  <c:v>686.77969628304481</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>737.01690422719923</c:v>
+                  <c:v>730.13080650564416</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>756.1220506302252</c:v>
+                  <c:v>751.25716955155644</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>704.71767658962233</c:v>
+                  <c:v>760.46631643102603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>664.1979996481906</c:v>
+                  <c:v>621.79055894798046</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>662.67998141611156</c:v>
+                  <c:v>651.65580513532882</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>641.8420733787276</c:v>
+                  <c:v>544.9026218510952</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>656.52367293318036</c:v>
+                  <c:v>662.25890492601548</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>584.99897034516152</c:v>
+                  <c:v>598.9580517428567</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>666.57599217531572</c:v>
+                  <c:v>626.91427524147844</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>621.04275355969378</c:v>
+                  <c:v>633.68199139686772</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>501.17830523481865</c:v>
+                  <c:v>574.89088495729641</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>541.06256000082647</c:v>
+                  <c:v>535.21163725946201</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>640.01504392454069</c:v>
+                  <c:v>611.71695838749019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>580.9607324336572</c:v>
+                  <c:v>573.76876970290459</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>557.04884467698184</c:v>
+                  <c:v>594.62059796392191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>457.94402252187012</c:v>
+                  <c:v>557.84716902328785</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>502.65208104737826</c:v>
+                  <c:v>604.03278203535581</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>490.21021026409778</c:v>
+                  <c:v>463.00612127302514</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>524.60964272737738</c:v>
+                  <c:v>559.04835427331307</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>497.39412784152142</c:v>
+                  <c:v>530.11481094451142</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>477.54921395796953</c:v>
+                  <c:v>538.42892911840727</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>471.25491803241056</c:v>
+                  <c:v>488.34975972646356</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>476.06915760682887</c:v>
+                  <c:v>457.69167393355718</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>475.46875207215737</c:v>
+                  <c:v>543.12931376765732</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>562.8164109201241</c:v>
+                  <c:v>517.03204082789512</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>434.94301669787649</c:v>
+                  <c:v>428.93652554092296</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>543.95237278697903</c:v>
+                  <c:v>444.45892365500316</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>401.04851938459512</c:v>
+                  <c:v>421.7363583499835</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>408.54911892330153</c:v>
+                  <c:v>487.9039562145141</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>372.09752656084822</c:v>
+                  <c:v>326.45570696660252</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>421.91944345157697</c:v>
+                  <c:v>477.75622313648375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>400.93615806504363</c:v>
+                  <c:v>336.90291472625688</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>436.05969575204949</c:v>
+                  <c:v>397.53179295702768</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>301.60216794463219</c:v>
+                  <c:v>320.18850545311403</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>359.03628023175776</c:v>
+                  <c:v>351.34953463701049</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>396.83406433924364</c:v>
+                  <c:v>348.16764996682815</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>418.36731473392291</c:v>
+                  <c:v>408.00841694084153</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>261.62685990197912</c:v>
+                  <c:v>341.24391346657166</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>383.93149810226475</c:v>
+                  <c:v>299.8280362059898</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>369.24711336787686</c:v>
+                  <c:v>296.61053072919367</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>394.15066334134872</c:v>
+                  <c:v>347.28876326851611</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>314.60470833591404</c:v>
+                  <c:v>257.49194479035998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>311.54300705925004</c:v>
+                  <c:v>306.24447915543891</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>286.03090230649184</c:v>
+                  <c:v>354.97193257746295</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>363.77269867279796</c:v>
+                  <c:v>349.74287561438211</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>243.53364795753242</c:v>
+                  <c:v>256.34953417444706</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>252.1214862698701</c:v>
+                  <c:v>308.65261953134859</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>246.4784410847372</c:v>
+                  <c:v>268.09527193543693</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>252.88156619636953</c:v>
+                  <c:v>252.43441247968198</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>310.19253379845071</c:v>
+                  <c:v>245.39791718902953</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>339.63125863552636</c:v>
+                  <c:v>250.74483170703402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>216.2907675906464</c:v>
+                  <c:v>224.62723162125354</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>245.11179331289037</c:v>
+                  <c:v>286.65881187389135</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>268.09885596521781</c:v>
+                  <c:v>376.72018674516892</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>113.98990539285595</c:v>
+                  <c:v>253.03928910866867</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>218.87124349588515</c:v>
+                  <c:v>244.00044015569645</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>232.75825873226557</c:v>
+                  <c:v>264.06423345282059</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>228.98794243493762</c:v>
+                  <c:v>219.17548696279601</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>200.76898825744186</c:v>
+                  <c:v>135.2006635075289</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>192.60894910462102</c:v>
+                  <c:v>192.0138063652694</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>224.29034650028439</c:v>
+                  <c:v>263.35107501942292</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>236.17942585802246</c:v>
+                  <c:v>215.16318028052217</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>237.79437967642488</c:v>
+                  <c:v>249.65243867126176</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>175.29893882706904</c:v>
+                  <c:v>218.68235401615215</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>318.40840772022221</c:v>
+                  <c:v>141.96675450150101</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>119.1210439311043</c:v>
+                  <c:v>156.63839605586628</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>198.46959763746335</c:v>
+                  <c:v>274.69185923681141</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>242.34127050600839</c:v>
+                  <c:v>51.495655933046805</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>80.006572438209929</c:v>
+                  <c:v>257.40874052062446</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>147.10279969507633</c:v>
+                  <c:v>198.10690344550534</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133.73522111379049</c:v>
+                  <c:v>159.18156981791788</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>216.94154104900849</c:v>
+                  <c:v>174.83557176385818</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>179.909740641865</c:v>
+                  <c:v>77.18500786965501</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>174.04298591407817</c:v>
+                  <c:v>148.07232315640726</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>210.86316026523892</c:v>
+                  <c:v>99.475243194867275</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>233.72831119214987</c:v>
+                  <c:v>220.04099212903719</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>94.649165445573999</c:v>
+                  <c:v>32.45179422653473</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>129.53849772830455</c:v>
+                  <c:v>173.18893963559157</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>153.69294342613375</c:v>
+                  <c:v>128.69807064694817</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>74.646171955091972</c:v>
+                  <c:v>103.54500983622921</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>139.1333979142895</c:v>
+                  <c:v>105.78731553062633</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>114.24310718537326</c:v>
+                  <c:v>201.82305968251325</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16.698035630948922</c:v>
+                  <c:v>135.80888185352947</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>94.413641558896984</c:v>
+                  <c:v>151.15289603363891</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>29.295853024814804</c:v>
+                  <c:v>141.860472266101</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>122.78213825226823</c:v>
+                  <c:v>114.09752529818294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3072,307 +3072,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1069.4140659136519</c:v>
+                  <c:v>985.73163722427773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>946.05073062625274</c:v>
+                  <c:v>984.16525872782631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>970.79260136323273</c:v>
+                  <c:v>977.06323056443966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>897.97132634173249</c:v>
+                  <c:v>927.09994985730009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>899.19320872950334</c:v>
+                  <c:v>945.41830680877956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>912.20247743029563</c:v>
+                  <c:v>913.78136882689193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>844.34659779480808</c:v>
+                  <c:v>864.47608579593691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>875.47082806566982</c:v>
+                  <c:v>817.00562482884607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>840.15848870147283</c:v>
+                  <c:v>903.15176165584819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>716.85310098497973</c:v>
+                  <c:v>773.83848106058247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800.4926457186707</c:v>
+                  <c:v>694.58507874762893</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>814.31098328529367</c:v>
+                  <c:v>815.75933657897701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>849.4876642407603</c:v>
+                  <c:v>704.23047675419423</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>793.64197626099269</c:v>
+                  <c:v>711.74089438394185</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>830.75673134686269</c:v>
+                  <c:v>686.77969628304481</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>737.01690422719923</c:v>
+                  <c:v>730.13080650564416</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>756.1220506302252</c:v>
+                  <c:v>751.25716955155644</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>704.71767658962233</c:v>
+                  <c:v>760.46631643102603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>664.1979996481906</c:v>
+                  <c:v>621.79055894798046</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>662.67998141611156</c:v>
+                  <c:v>651.65580513532882</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>641.8420733787276</c:v>
+                  <c:v>544.9026218510952</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>656.52367293318036</c:v>
+                  <c:v>662.25890492601548</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>584.99897034516152</c:v>
+                  <c:v>598.9580517428567</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>666.57599217531572</c:v>
+                  <c:v>626.91427524147844</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>621.04275355969378</c:v>
+                  <c:v>633.68199139686772</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>501.17830523481865</c:v>
+                  <c:v>574.89088495729641</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>541.06256000082647</c:v>
+                  <c:v>535.21163725946201</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>640.01504392454069</c:v>
+                  <c:v>611.71695838749019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>580.9607324336572</c:v>
+                  <c:v>573.76876970290459</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>557.04884467698184</c:v>
+                  <c:v>594.62059796392191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>457.94402252187012</c:v>
+                  <c:v>557.84716902328785</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>502.65208104737826</c:v>
+                  <c:v>604.03278203535581</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>490.21021026409778</c:v>
+                  <c:v>463.00612127302514</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>524.60964272737738</c:v>
+                  <c:v>559.04835427331307</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>497.39412784152142</c:v>
+                  <c:v>530.11481094451142</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>477.54921395796953</c:v>
+                  <c:v>538.42892911840727</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>471.25491803241056</c:v>
+                  <c:v>488.34975972646356</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>476.06915760682887</c:v>
+                  <c:v>457.69167393355718</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>475.46875207215737</c:v>
+                  <c:v>543.12931376765732</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>562.8164109201241</c:v>
+                  <c:v>517.03204082789512</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>434.94301669787649</c:v>
+                  <c:v>428.93652554092296</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>543.95237278697903</c:v>
+                  <c:v>444.45892365500316</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>401.04851938459512</c:v>
+                  <c:v>421.7363583499835</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>408.54911892330153</c:v>
+                  <c:v>487.9039562145141</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>372.09752656084822</c:v>
+                  <c:v>326.45570696660252</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>421.91944345157697</c:v>
+                  <c:v>477.75622313648375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>400.93615806504363</c:v>
+                  <c:v>336.90291472625688</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>436.05969575204949</c:v>
+                  <c:v>397.53179295702768</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>301.60216794463219</c:v>
+                  <c:v>320.18850545311403</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>359.03628023175776</c:v>
+                  <c:v>351.34953463701049</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>396.83406433924364</c:v>
+                  <c:v>348.16764996682815</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>418.36731473392291</c:v>
+                  <c:v>408.00841694084153</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>261.62685990197912</c:v>
+                  <c:v>341.24391346657166</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>383.93149810226475</c:v>
+                  <c:v>299.8280362059898</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>369.24711336787686</c:v>
+                  <c:v>296.61053072919367</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>394.15066334134872</c:v>
+                  <c:v>347.28876326851611</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>314.60470833591404</c:v>
+                  <c:v>257.49194479035998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>311.54300705925004</c:v>
+                  <c:v>306.24447915543891</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>286.03090230649184</c:v>
+                  <c:v>354.97193257746295</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>363.77269867279796</c:v>
+                  <c:v>349.74287561438211</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>243.53364795753242</c:v>
+                  <c:v>256.34953417444706</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>252.1214862698701</c:v>
+                  <c:v>308.65261953134859</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>246.4784410847372</c:v>
+                  <c:v>268.09527193543693</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>252.88156619636953</c:v>
+                  <c:v>252.43441247968198</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>310.19253379845071</c:v>
+                  <c:v>245.39791718902953</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>339.63125863552636</c:v>
+                  <c:v>250.74483170703402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>216.2907675906464</c:v>
+                  <c:v>224.62723162125354</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>245.11179331289037</c:v>
+                  <c:v>286.65881187389135</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>268.09885596521781</c:v>
+                  <c:v>376.72018674516892</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>113.98990539285595</c:v>
+                  <c:v>253.03928910866867</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>218.87124349588515</c:v>
+                  <c:v>244.00044015569645</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>232.75825873226557</c:v>
+                  <c:v>264.06423345282059</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>228.98794243493762</c:v>
+                  <c:v>219.17548696279601</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>200.76898825744186</c:v>
+                  <c:v>135.2006635075289</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>192.60894910462102</c:v>
+                  <c:v>192.0138063652694</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>224.29034650028439</c:v>
+                  <c:v>263.35107501942292</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>236.17942585802246</c:v>
+                  <c:v>215.16318028052217</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>237.79437967642488</c:v>
+                  <c:v>249.65243867126176</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>175.29893882706904</c:v>
+                  <c:v>218.68235401615215</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>318.40840772022221</c:v>
+                  <c:v>141.96675450150101</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>119.1210439311043</c:v>
+                  <c:v>156.63839605586628</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>198.46959763746335</c:v>
+                  <c:v>274.69185923681141</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>242.34127050600839</c:v>
+                  <c:v>51.495655933046805</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>80.006572438209929</c:v>
+                  <c:v>257.40874052062446</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>147.10279969507633</c:v>
+                  <c:v>198.10690344550534</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133.73522111379049</c:v>
+                  <c:v>159.18156981791788</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>216.94154104900849</c:v>
+                  <c:v>174.83557176385818</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>179.909740641865</c:v>
+                  <c:v>77.18500786965501</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>174.04298591407817</c:v>
+                  <c:v>148.07232315640726</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>210.86316026523892</c:v>
+                  <c:v>99.475243194867275</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>233.72831119214987</c:v>
+                  <c:v>220.04099212903719</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>94.649165445573999</c:v>
+                  <c:v>32.45179422653473</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>129.53849772830455</c:v>
+                  <c:v>173.18893963559157</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>153.69294342613375</c:v>
+                  <c:v>128.69807064694817</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>74.646171955091972</c:v>
+                  <c:v>103.54500983622921</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>139.1333979142895</c:v>
+                  <c:v>105.78731553062633</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>114.24310718537326</c:v>
+                  <c:v>201.82305968251325</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16.698035630948922</c:v>
+                  <c:v>135.80888185352947</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>94.413641558896984</c:v>
+                  <c:v>151.15289603363891</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>29.295853024814804</c:v>
+                  <c:v>141.860472266101</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>122.78213825226823</c:v>
+                  <c:v>114.09752529818294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="E13">
         <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>89.414065913651825</v>
+        <v>5.7316372242777236</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>1069.4140659136519</v>
+        <v>985.73163722427773</v>
       </c>
       <c r="G13" s="18">
         <f>E2</f>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="J13" s="9">
         <f ca="1">G13+I13*(F13-G13)</f>
-        <v>1000.0277545245557</v>
+        <v>999.99429493691491</v>
       </c>
       <c r="K13" s="19">
         <f>(1-I13)*H13</f>
@@ -5347,11 +5347,11 @@
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E77" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>-14.349269373747267</v>
+        <v>23.765258727826318</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F77" ca="1" si="3">D14+E14</f>
-        <v>946.05073062625274</v>
+        <v>984.16525872782631</v>
       </c>
       <c r="G14" s="18">
         <f>$B$2*G13</f>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" ref="J14:J77" ca="1" si="4">G14+I14*(F14-G14)</f>
-        <v>979.98696305694943</v>
+        <v>980.00159951132457</v>
       </c>
       <c r="K14" s="19">
         <f t="shared" ref="K14:K77" si="5">(1-I14)*H14</f>
@@ -5388,11 +5388,11 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>29.600601363232776</v>
+        <v>35.871230564439621</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="3"/>
-        <v>970.79260136323273</v>
+        <v>977.06323056443966</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" ref="G15:G78" si="6">$B$2*G14</f>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>960.40383290769796</v>
+        <v>960.40614558592904</v>
       </c>
       <c r="K15" s="19">
         <f t="shared" si="5"/>
@@ -5429,11 +5429,11 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>-24.396833658267518</v>
+        <v>4.7317898573001003</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="3"/>
-        <v>897.97132634173249</v>
+        <v>927.09994985730009</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="6"/>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>941.17669074285311</v>
+        <v>941.18700843459624</v>
       </c>
       <c r="K16" s="19">
         <f t="shared" si="5"/>
@@ -5470,11 +5470,11 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.7275880704966449</v>
+        <v>41.497510008779656</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="3"/>
-        <v>899.19320872950334</v>
+        <v>945.41830680877956</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="6"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>922.36027612628686</v>
+        <v>922.37600141655309</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="5"/>
@@ -5511,11 +5511,11 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>26.360096566295756</v>
+        <v>27.938987962892032</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="3"/>
-        <v>912.20247743029563</v>
+        <v>913.78136882689193</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="6"/>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>903.92350261007778</v>
+        <v>903.92401846917005</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="5"/>
@@ -5552,11 +5552,11 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>-23.77893545191186</v>
+        <v>-3.6494474507829548</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>844.34659779480808</v>
+        <v>864.47608579593691</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="6"/>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>885.8293599771074</v>
+        <v>885.83567637282476</v>
       </c>
       <c r="K19" s="19">
         <f t="shared" si="5"/>
@@ -5593,11 +5593,11 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>24.707805483884439</v>
+        <v>-33.757397752939333</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>875.47082806566982</v>
+        <v>817.00562482884607</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="6"/>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>868.1277468683079</v>
+        <v>868.11012744809102</v>
       </c>
       <c r="K20" s="19">
         <f t="shared" si="5"/>
@@ -5634,11 +5634,11 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4107265713231572</v>
+        <v>69.403999525698552</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>840.15848870147283</v>
+        <v>903.15176165584819</v>
       </c>
       <c r="G21" s="18">
         <f t="shared" si="6"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>850.75995325543374</v>
+        <v>850.77818573173465</v>
       </c>
       <c r="K21" s="19">
         <f t="shared" si="5"/>
@@ -5675,11 +5675,11 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>-100.21970590256699</v>
+        <v>-43.234325826964223</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>716.85310098497973</v>
+        <v>773.83848106058247</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" si="6"/>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>833.7152681216628</v>
+        <v>833.73110873752728</v>
       </c>
       <c r="K22" s="19">
         <f t="shared" si="5"/>
@@ -5716,11 +5716,11 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.23870503112509528</v>
+        <v>-106.14627200216682</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>800.4926457186707</v>
+        <v>694.58507874762893</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" si="6"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>817.0683804504888</v>
+        <v>817.04010610656815</v>
       </c>
       <c r="K23" s="19">
         <f t="shared" si="5"/>
@@ -5757,11 +5757,11 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>29.594259550493764</v>
+        <v>31.042612844177192</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>814.31098328529367</v>
+        <v>815.75933657897701</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="6"/>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>800.73483260178921</v>
+        <v>800.7352039632226</v>
       </c>
       <c r="K24" s="19">
         <f t="shared" si="5"/>
@@ -5798,11 +5798,11 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>80.465274980656488</v>
+        <v>-64.791912505909679</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>849.4876642407603</v>
+        <v>704.23047675419423</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="6"/>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>784.73267367475239</v>
+        <v>784.69690387737126</v>
       </c>
       <c r="K25" s="19">
         <f t="shared" si="5"/>
@@ -5839,11 +5839,11 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>40.000034786090993</v>
+        <v>-41.901047090959871</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>793.64197626099269</v>
+        <v>711.74089438394185</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="6"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>769.02821184727065</v>
+        <v>769.00884205896898</v>
       </c>
       <c r="K26" s="19">
         <f t="shared" si="5"/>
@@ -5880,11 +5880,11 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>92.187628701459033</v>
+        <v>-51.789406362358761</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>830.75673134686269</v>
+        <v>686.77969628304481</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="6"/>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>753.65945724087089</v>
+        <v>753.62675446031096</v>
       </c>
       <c r="K27" s="19">
         <f t="shared" si="5"/>
@@ -5921,11 +5921,11 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>13.21918363470369</v>
+        <v>6.3330859131485377</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>737.01690422719923</v>
+        <v>730.13080650564416</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="6"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>738.56876403932631</v>
+        <v>738.56726186376</v>
       </c>
       <c r="K28" s="19">
         <f t="shared" si="5"/>
@@ -5962,11 +5962,11 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>46.800284449579578</v>
+        <v>41.935403370910819</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>756.1220506302252</v>
+        <v>751.25716955155644</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="6"/>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>723.80449284196038</v>
+        <v>723.80347360387429</v>
       </c>
       <c r="K29" s="19">
         <f t="shared" si="5"/>
@@ -6003,11 +6003,11 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5823457325895838</v>
+        <v>65.330985573993274</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>704.71767658962233</v>
+        <v>760.46631643102603</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="6"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>709.32083977128264</v>
+        <v>709.33205720328624</v>
       </c>
       <c r="K30" s="19">
         <f t="shared" si="5"/>
@@ -6044,11 +6044,11 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.034624591701416</v>
+        <v>-59.442065291911582</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>664.1979996481906</v>
+        <v>621.79055894798046</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="6"/>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>695.12935228276626</v>
+        <v>695.12115713393564</v>
       </c>
       <c r="K31" s="19">
         <f t="shared" si="5"/>
@@ -6085,11 +6085,11 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.9279903389826751</v>
+        <v>-15.952166619765421</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>662.67998141611156</v>
+        <v>651.65580513532882</v>
       </c>
       <c r="G32" s="18">
         <f t="shared" si="6"/>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>681.22918093055569</v>
+        <v>681.22713487978695</v>
       </c>
       <c r="K32" s="19">
         <f t="shared" si="5"/>
@@ -6126,11 +6126,11 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>-12.41373894126469</v>
+        <v>-109.35319046889708</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="3"/>
-        <v>641.8420733787276</v>
+        <v>544.9026218510952</v>
       </c>
       <c r="G33" s="18">
         <f t="shared" si="6"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>667.60337902536105</v>
+        <v>667.58609972483566</v>
       </c>
       <c r="K33" s="19">
         <f t="shared" si="5"/>
@@ -6167,11 +6167,11 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>15.352976859587889</v>
+        <v>21.088208852423005</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="3"/>
-        <v>656.52367293318036</v>
+        <v>662.25890492601548</v>
       </c>
       <c r="G34" s="18">
         <f t="shared" si="6"/>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>654.25620055721834</v>
+        <v>654.25718237706508</v>
       </c>
       <c r="K34" s="19">
         <f t="shared" si="5"/>
@@ -6208,11 +6208,11 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>-43.348311806959053</v>
+        <v>-29.389230409263838</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>584.99897034516152</v>
+        <v>598.9580517428567</v>
       </c>
       <c r="G35" s="18">
         <f t="shared" si="6"/>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>641.16146071678713</v>
+        <v>641.1637557699604</v>
       </c>
       <c r="K35" s="19">
         <f t="shared" si="5"/>
@@ -6249,11 +6249,11 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>50.795655666237607</v>
+        <v>11.133938732400335</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>666.57599217531572</v>
+        <v>626.91427524147844</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" si="6"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>628.35331858720849</v>
+        <v>628.34705587576457</v>
       </c>
       <c r="K36" s="19">
         <f t="shared" si="5"/>
@@ -6290,11 +6290,11 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>17.578023780797256</v>
+        <v>30.217261617971182</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>621.04275355969378</v>
+        <v>633.68199139686772</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="6"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>615.78113456076801</v>
+        <v>615.78305131594323</v>
       </c>
       <c r="K37" s="19">
         <f t="shared" si="5"/>
@@ -6331,11 +6331,11 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>-90.217129948499903</v>
+        <v>-16.50455022602214</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>501.17830523481865</v>
+        <v>574.89088495729641</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="6"/>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>603.44983210320788</v>
+        <v>603.46056809394929</v>
       </c>
       <c r="K38" s="19">
         <f t="shared" si="5"/>
@@ -6372,11 +6372,11 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>-38.504966478825715</v>
+        <v>-44.355889220190178</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>541.06256000082647</v>
+        <v>535.21163725946201</v>
       </c>
       <c r="G39" s="18">
         <f t="shared" si="6"/>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>591.38839462802673</v>
+        <v>591.38757620180093</v>
       </c>
       <c r="K39" s="19">
         <f t="shared" si="5"/>
@@ -6413,11 +6413,11 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>72.038867974481533</v>
+        <v>43.740782437431037</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>640.01504392454069</v>
+        <v>611.71695838749019</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" si="6"/>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>579.57564708117752</v>
+        <v>579.57184547796385</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" si="5"/>
@@ -6454,11 +6454,11 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>24.34408000259916</v>
+        <v>17.152117271846546</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>580.9607324336572</v>
+        <v>573.76876970290459</v>
       </c>
       <c r="G41" s="18">
         <f t="shared" si="6"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>567.97785124513825</v>
+        <v>567.97692332281861</v>
       </c>
       <c r="K41" s="19">
         <f t="shared" si="5"/>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>11.564525294545016</v>
+        <v>49.136278581484987</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>557.04884467698184</v>
+        <v>594.62059796392191</v>
       </c>
       <c r="G42" s="18">
         <f t="shared" si="6"/>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>556.61670598550438</v>
+        <v>556.62136163230343</v>
       </c>
       <c r="K42" s="19">
         <f t="shared" si="5"/>
@@ -6536,11 +6536,11 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>-76.630610472917994</v>
+        <v>23.272536028499761</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>457.94402252187012</v>
+        <v>557.84716902328785</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" si="6"/>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>545.47390146621308</v>
+        <v>545.48579064923013</v>
       </c>
       <c r="K43" s="19">
         <f t="shared" si="5"/>
@@ -6577,11 +6577,11 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>-21.231059287514068</v>
+        <v>80.149641700463462</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>502.65208104737826</v>
+        <v>604.03278203535581</v>
       </c>
       <c r="G44" s="18">
         <f t="shared" si="6"/>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>534.57098440829441</v>
+        <v>534.58257171049229</v>
       </c>
       <c r="K44" s="19">
         <f t="shared" si="5"/>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>-23.195267264096742</v>
+        <v>-50.399356255169373</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>490.21021026409778</v>
+        <v>463.00612127302514</v>
       </c>
       <c r="G45" s="18">
         <f t="shared" si="6"/>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>523.87944407866485</v>
+        <v>523.87645790302963</v>
       </c>
       <c r="K45" s="19">
         <f t="shared" si="5"/>
@@ -6667,11 +6667,11 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>21.472274749746813</v>
+        <v>55.910986295682498</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>524.60964272737738</v>
+        <v>559.04835427331307</v>
       </c>
       <c r="G46" s="18">
         <f t="shared" si="6"/>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>513.40665870443809</v>
+        <v>513.41028933529867</v>
       </c>
       <c r="K46" s="19">
         <f t="shared" si="5"/>
@@ -6712,11 +6712,11 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3195072234434289</v>
+        <v>37.040190326433475</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>497.39412784152142</v>
+        <v>530.11481094451142</v>
       </c>
       <c r="G47" s="18">
         <f t="shared" si="6"/>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="J47" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>503.13678648242302</v>
+        <v>503.14009940682854</v>
       </c>
       <c r="K47" s="19">
         <f t="shared" si="5"/>
@@ -6757,11 +6757,11 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.6639142477469138</v>
+        <v>55.21580091269086</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>477.54921395796953</v>
+        <v>538.42892911840727</v>
       </c>
       <c r="G48" s="18">
         <f t="shared" si="6"/>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="J48" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>493.07311093411488</v>
+        <v>493.07903085181289</v>
       </c>
       <c r="K48" s="19">
         <f t="shared" si="5"/>
@@ -6802,11 +6802,11 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.2939476091915432</v>
+        <v>14.80089408486146</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>471.25491803241056</v>
+        <v>488.34975972646356</v>
       </c>
       <c r="G49" s="18">
         <f t="shared" si="6"/>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="J49" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>483.21201143745446</v>
+        <v>483.21360791187419</v>
       </c>
       <c r="K49" s="19">
         <f t="shared" si="5"/>
@@ -6847,11 +6847,11 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>11.991269278058846</v>
+        <v>-6.3862143952128498</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>476.06915760682887</v>
+        <v>457.69167393355718</v>
       </c>
       <c r="G50" s="18">
         <f t="shared" si="6"/>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="J50" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>473.54909169003116</v>
+        <v>473.54744338841692</v>
       </c>
       <c r="K50" s="19">
         <f t="shared" si="5"/>
@@ -6892,11 +6892,11 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>20.672421509962742</v>
+        <v>88.332983205462725</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
-        <v>475.46875207215737</v>
+        <v>543.12931376765732</v>
       </c>
       <c r="G51" s="18">
         <f t="shared" si="6"/>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="J51" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>464.07886953656379</v>
+        <v>464.08469781016635</v>
       </c>
       <c r="K51" s="19">
         <f t="shared" si="5"/>
@@ -6937,11 +6937,11 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>117.11600696917334</v>
+        <v>71.331636876944387</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
-        <v>562.8164109201241</v>
+        <v>517.03204082789512</v>
       </c>
       <c r="G52" s="18">
         <f t="shared" si="6"/>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="J52" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>454.80526695933906</v>
+        <v>454.80147926252567</v>
       </c>
       <c r="K52" s="19">
         <f t="shared" si="5"/>
@@ -6982,11 +6982,11 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8433791740551986</v>
+        <v>-7.8498703310087308</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="3"/>
-        <v>434.94301669787649</v>
+        <v>428.93652554092296</v>
       </c>
       <c r="G53" s="18">
         <f t="shared" si="6"/>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="J53" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>445.69954924182241</v>
+        <v>445.69907200671878</v>
       </c>
       <c r="K53" s="19">
         <f t="shared" si="5"/>
@@ -7027,11 +7027,11 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>115.90170483248599</v>
+        <v>16.408255700510086</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
-        <v>543.95237278697903</v>
+        <v>444.45892365500316</v>
       </c>
       <c r="G54" s="18">
         <f t="shared" si="6"/>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="J54" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>436.79457339888774</v>
+        <v>436.78698134042247</v>
       </c>
       <c r="K54" s="19">
         <f t="shared" si="5"/>
@@ -7072,11 +7072,11 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>-18.441135210808078</v>
+        <v>2.2467037545803286</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>401.04851938459512</v>
+        <v>421.7363583499835</v>
       </c>
       <c r="G55" s="18">
         <f t="shared" si="6"/>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="J55" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>428.04868908641265</v>
+        <v>428.05020520666045</v>
       </c>
       <c r="K55" s="19">
         <f t="shared" si="5"/>
@@ -7117,11 +7117,11 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.5507425801935804</v>
+        <v>76.804094711018962</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
-        <v>408.54911892330153</v>
+        <v>487.9039562145141</v>
       </c>
       <c r="G56" s="18">
         <f t="shared" si="6"/>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="J56" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>419.48888456030801</v>
+        <v>419.49446984529942</v>
       </c>
       <c r="K56" s="19">
         <f t="shared" si="5"/>
@@ -7162,11 +7162,11 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>-30.780337712576994</v>
+        <v>-76.422157306822697</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="3"/>
-        <v>372.09752656084822</v>
+        <v>326.45570696660252</v>
       </c>
       <c r="G57" s="18">
         <f t="shared" si="6"/>
@@ -7182,7 +7182,7 @@
       </c>
       <c r="J57" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>411.09722507557626</v>
+        <v>411.09413984061223</v>
       </c>
       <c r="K57" s="19">
         <f t="shared" si="5"/>
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>27.099136463620326</v>
+        <v>82.935916148527127</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
-        <v>421.91944345157697</v>
+        <v>477.75622313648375</v>
       </c>
       <c r="G58" s="18">
         <f t="shared" si="6"/>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="J58" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>402.87910045302203</v>
+        <v>402.8827253775703</v>
       </c>
       <c r="K58" s="19">
         <f t="shared" si="5"/>
@@ -7248,11 +7248,11 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>14.012257216846166</v>
+        <v>-50.020986121940624</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>400.93615806504363</v>
+        <v>336.90291472625688</v>
       </c>
       <c r="G59" s="18">
         <f t="shared" si="6"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="J59" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>394.82068830724853</v>
+        <v>394.81669587664481</v>
       </c>
       <c r="K59" s="19">
         <f t="shared" si="5"/>
@@ -7289,11 +7289,11 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>56.874272920815962</v>
+        <v>18.34637012579411</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="3"/>
-        <v>436.05969575204949</v>
+        <v>397.53179295702768</v>
       </c>
       <c r="G60" s="18">
         <f t="shared" si="6"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="J60" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>386.9268431220089</v>
+        <v>386.92453605361561</v>
       </c>
       <c r="K60" s="19">
         <f t="shared" si="5"/>
@@ -7330,11 +7330,11 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>-69.999546429976689</v>
+        <v>-51.413208921494849</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="3"/>
-        <v>301.60216794463219</v>
+        <v>320.18850545311403</v>
       </c>
       <c r="G61" s="18">
         <f t="shared" si="6"/>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="J61" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>379.18096107050184</v>
+        <v>379.18202995825294</v>
       </c>
       <c r="K61" s="19">
         <f t="shared" si="5"/>
@@ -7371,11 +7371,11 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.1333998553589364</v>
+        <v>-12.820145450106221</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="3"/>
-        <v>359.03628023175776</v>
+        <v>351.34953463701049</v>
       </c>
       <c r="G62" s="18">
         <f t="shared" si="6"/>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="J62" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>371.60102035950865</v>
+        <v>371.60059580453873</v>
       </c>
       <c r="K62" s="19">
         <f t="shared" si="5"/>
@@ -7412,11 +7412,11 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>39.947777853869262</v>
+        <v>-8.7186365185462709</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="3"/>
-        <v>396.83406433924364</v>
+        <v>348.16764996682815</v>
       </c>
       <c r="G63" s="18">
         <f t="shared" si="6"/>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="J63" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>364.17141276965492</v>
+        <v>364.168831259294</v>
       </c>
       <c r="K63" s="19">
         <f t="shared" si="5"/>
@@ -7453,11 +7453,11 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>68.618753978255981</v>
+        <v>58.259856185174627</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="3"/>
-        <v>418.36731473392291</v>
+        <v>408.00841694084153</v>
       </c>
       <c r="G64" s="18">
         <f t="shared" si="6"/>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="J64" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>356.88941860765397</v>
+        <v>356.88889087844228</v>
       </c>
       <c r="K64" s="19">
         <f t="shared" si="5"/>
@@ -7494,11 +7494,11 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>-81.126729638574417</v>
+        <v>-1.5096760739819133</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="3"/>
-        <v>261.62685990197912</v>
+        <v>341.24391346657166</v>
       </c>
       <c r="G65" s="18">
         <f t="shared" si="6"/>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="J65" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>349.74424920509023</v>
+        <v>349.74814464684732</v>
       </c>
       <c r="K65" s="19">
         <f t="shared" si="5"/>
@@ -7535,11 +7535,11 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>48.03298035252223</v>
+        <v>-36.070481543752685</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="3"/>
-        <v>383.93149810226475</v>
+        <v>299.8280362059898</v>
       </c>
       <c r="G66" s="18">
         <f t="shared" si="6"/>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="J66" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>342.75552448228706</v>
+        <v>342.75157247733972</v>
       </c>
       <c r="K66" s="19">
         <f t="shared" si="5"/>
@@ -7576,11 +7576,11 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>40.066565973129251</v>
+        <v>-32.570016665553943</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>369.24711336787686</v>
+        <v>296.61053072919367</v>
       </c>
       <c r="G67" s="18">
         <f t="shared" si="6"/>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="J67" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>335.900022741481</v>
+        <v>335.89674471868102</v>
       </c>
       <c r="K67" s="19">
         <f t="shared" si="5"/>
@@ -7617,11 +7617,11 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>71.553726894496009</v>
+        <v>24.691826821663419</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="3"/>
-        <v>394.15066334134872</v>
+        <v>347.28876326851611</v>
       </c>
       <c r="G68" s="18">
         <f t="shared" si="6"/>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="J68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>329.18336333305376</v>
+        <v>329.18133224202688</v>
       </c>
       <c r="K68" s="19">
         <f t="shared" si="5"/>
@@ -7658,11 +7658,11 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5402893820015862</v>
+        <v>-58.653052927555592</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>314.60470833591404</v>
+        <v>257.49194479035998</v>
       </c>
       <c r="G69" s="18">
         <f t="shared" si="6"/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="J69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>322.59660376411898</v>
+        <v>322.59422640075508</v>
       </c>
       <c r="K69" s="19">
         <f t="shared" si="5"/>
@@ -7699,11 +7699,11 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.720909295692771</v>
+        <v>-3.5776186081183754</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="3"/>
-        <v>311.54300705925004</v>
+        <v>306.24447915543891</v>
       </c>
       <c r="G70" s="18">
         <f t="shared" si="6"/>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="J70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>316.14481374199249</v>
+        <v>316.14460192027565</v>
       </c>
       <c r="K70" s="19">
         <f t="shared" si="5"/>
@@ -7740,11 +7740,11 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.594753501794276</v>
+        <v>51.346276769176832</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="3"/>
-        <v>286.03090230649184</v>
+        <v>354.97193257746295</v>
       </c>
       <c r="G71" s="18">
         <f t="shared" si="6"/>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="J71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>309.82118431443712</v>
+        <v>309.82383126522012</v>
       </c>
       <c r="K71" s="19">
         <f t="shared" si="5"/>
@@ -7781,11 +7781,11 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>66.219555980677569</v>
+        <v>52.189732922261697</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>363.77269867279796</v>
+        <v>349.74287561438211</v>
       </c>
       <c r="G72" s="18">
         <f t="shared" si="6"/>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="J72" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>303.62787367370089</v>
+        <v>303.62735633722258</v>
       </c>
       <c r="K72" s="19">
         <f t="shared" si="5"/>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>-48.068431880745543</v>
+        <v>-35.252545663830922</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>243.53364795753242</v>
+        <v>256.34953417444706</v>
       </c>
       <c r="G73" s="18">
         <f t="shared" si="6"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="J73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>297.55122965141118</v>
+        <v>297.55168351185876</v>
       </c>
       <c r="K73" s="19">
         <f t="shared" si="5"/>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>-33.648551971642306</v>
+        <v>22.882581289836207</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="3"/>
-        <v>252.1214862698701</v>
+        <v>308.65261953134859</v>
       </c>
       <c r="G74" s="18">
         <f t="shared" si="6"/>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="J74" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>291.60073704200255</v>
+        <v>291.60265975360153</v>
       </c>
       <c r="K74" s="19">
         <f t="shared" si="5"/>
@@ -7904,11 +7904,11 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>-33.576196391944968</v>
+        <v>-11.959365541245218</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="3"/>
-        <v>246.4784410847372</v>
+        <v>268.09527193543693</v>
       </c>
       <c r="G75" s="18">
         <f t="shared" si="6"/>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="J75" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>285.76875479175101</v>
+        <v>285.76946089988621</v>
       </c>
       <c r="K75" s="19">
         <f t="shared" si="5"/>
@@ -7945,11 +7945,11 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>-21.57197853077902</v>
+        <v>-22.019132247466558</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="3"/>
-        <v>252.88156619636953</v>
+        <v>252.43441247968198</v>
       </c>
       <c r="G76" s="18">
         <f t="shared" si="6"/>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="J76" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>280.05378502331212</v>
+        <v>280.05377099553846</v>
       </c>
       <c r="K76" s="19">
         <f t="shared" si="5"/>
@@ -7986,11 +7986,11 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>41.228059965845141</v>
+        <v>-23.566556643576032</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="3"/>
-        <v>310.19253379845071</v>
+        <v>245.39791718902953</v>
       </c>
       <c r="G77" s="18">
         <f t="shared" si="6"/>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="J77" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>274.45462150684654</v>
+        <v>274.45266931039339</v>
       </c>
       <c r="K77" s="19">
         <f t="shared" si="5"/>
@@ -8027,11 +8027,11 @@
       </c>
       <c r="E78">
         <f t="shared" ref="E78:E113" ca="1" si="10">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>76.046074279572878</v>
+        <v>-12.840352648919445</v>
       </c>
       <c r="F78">
         <f t="shared" ref="F78:F113" ca="1" si="11">D78+E78</f>
-        <v>339.63125863552636</v>
+        <v>250.74483170703402</v>
       </c>
       <c r="G78" s="18">
         <f t="shared" si="6"/>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="J78" s="9">
         <f t="shared" ref="J78:J113" ca="1" si="12">G78+I78*(F78-G78)</f>
-        <v>268.96651864089324</v>
+        <v>268.9639466305357</v>
       </c>
       <c r="K78" s="19">
         <f t="shared" ref="K78:K113" si="13">(1-I78)*H78</f>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="10"/>
-        <v>-42.022713078187955</v>
+        <v>-33.686249047580816</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="11"/>
-        <v>216.2907675906464</v>
+        <v>224.62723162125354</v>
       </c>
       <c r="G79" s="18">
         <f t="shared" ref="G79:G113" si="14">$B$2*G78</f>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="J79" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>263.58387003997547</v>
+        <v>263.58410171103992</v>
       </c>
       <c r="K79" s="19">
         <f t="shared" si="13"/>
@@ -8109,11 +8109,11 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="10"/>
-        <v>-8.035417742567299</v>
+        <v>33.511600818433685</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="11"/>
-        <v>245.11179331289037</v>
+        <v>286.65881187389135</v>
       </c>
       <c r="G80" s="18">
         <f t="shared" si="14"/>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="J80" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>258.31312832069187</v>
+        <v>258.31423719521837</v>
       </c>
       <c r="K80" s="19">
         <f t="shared" si="13"/>
@@ -8150,11 +8150,11 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="10"/>
-        <v>20.014589130869297</v>
+        <v>128.63591991082038</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="11"/>
-        <v>268.09885596521781</v>
+        <v>376.72018674516892</v>
       </c>
       <c r="G81" s="18">
         <f t="shared" si="14"/>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="J81" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>253.14759430719084</v>
+        <v>253.1503785702958</v>
       </c>
       <c r="K81" s="19">
         <f t="shared" si="13"/>
@@ -8191,11 +8191,11 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="10"/>
-        <v>-129.1326761048056</v>
+        <v>9.9167076110071157</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="11"/>
-        <v>113.98990539285595</v>
+        <v>253.03928910866867</v>
       </c>
       <c r="G82" s="18">
         <f t="shared" si="14"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="J82" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>248.08096573753073</v>
+        <v>248.08438881567633</v>
       </c>
       <c r="K82" s="19">
         <f t="shared" si="13"/>
@@ -8232,11 +8232,11 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="10"/>
-        <v>-19.388886371823162</v>
+        <v>5.7403102879881489</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="11"/>
-        <v>218.87124349588515</v>
+        <v>244.00044015569645</v>
       </c>
       <c r="G83" s="18">
         <f t="shared" si="14"/>
@@ -8252,7 +8252,7 @@
       </c>
       <c r="J83" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>243.12200812626361</v>
+        <v>243.12260225276569</v>
       </c>
       <c r="K83" s="19">
         <f t="shared" si="13"/>
@@ -8273,11 +8273,11 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.73666853808857025</v>
+        <v>30.56930618246647</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="11"/>
-        <v>232.75825873226557</v>
+        <v>264.06423345282059</v>
       </c>
       <c r="G84" s="18">
         <f t="shared" si="14"/>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="J84" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>238.26000493870006</v>
+        <v>238.26071579220385</v>
       </c>
       <c r="K84" s="19">
         <f t="shared" si="13"/>
@@ -8314,11 +8314,11 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16291370999054811</v>
+        <v>-9.649541762151042</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="11"/>
-        <v>228.98794243493762</v>
+        <v>219.17548696279601</v>
       </c>
       <c r="G85" s="18">
         <f t="shared" si="14"/>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="J85" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>233.49482898438669</v>
+        <v>233.49461499949115</v>
       </c>
       <c r="K85" s="19">
         <f t="shared" si="13"/>
@@ -8355,11 +8355,11 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="10"/>
-        <v>-23.479539893006265</v>
+        <v>-89.047864642919222</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="11"/>
-        <v>200.76898825744186</v>
+        <v>135.2006635075289</v>
       </c>
       <c r="G86" s="18">
         <f t="shared" si="14"/>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="J86" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>228.82444112151222</v>
+        <v>228.82306786383944</v>
       </c>
       <c r="K86" s="19">
         <f t="shared" si="13"/>
@@ -8396,11 +8396,11 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="10"/>
-        <v>-27.154608482818134</v>
+        <v>-27.749751222169738</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="11"/>
-        <v>192.60894910462102</v>
+        <v>192.0138063652694</v>
       </c>
       <c r="G87" s="18">
         <f t="shared" si="14"/>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="J87" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>224.24789173435261</v>
+        <v>224.24787976332044</v>
       </c>
       <c r="K87" s="19">
         <f t="shared" si="13"/>
@@ -8437,11 +8437,11 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="10"/>
-        <v>8.922060064594012</v>
+        <v>47.982788583732564</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="11"/>
-        <v>224.29034650028439</v>
+        <v>263.35107501942292</v>
       </c>
       <c r="G88" s="18">
         <f t="shared" si="14"/>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="J88" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>219.76364503610719</v>
+        <v>219.76439961263969</v>
       </c>
       <c r="K88" s="19">
         <f t="shared" si="13"/>
@@ -8478,11 +8478,11 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="10"/>
-        <v>25.118505151045884</v>
+        <v>4.1022595735456191</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="11"/>
-        <v>236.17942585802246</v>
+        <v>215.16318028052217</v>
       </c>
       <c r="G89" s="18">
         <f t="shared" si="14"/>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="J89" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>215.3686725459109</v>
+        <v>215.36828263034454</v>
       </c>
       <c r="K89" s="19">
         <f t="shared" si="13"/>
@@ -8519,11 +8519,11 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="10"/>
-        <v>30.954677383587857</v>
+        <v>42.812736378424738</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="11"/>
-        <v>237.79437967642488</v>
+        <v>249.65243867126176</v>
       </c>
       <c r="G90" s="18">
         <f t="shared" si="14"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="J90" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>211.06139705357035</v>
+        <v>211.06160834482216</v>
       </c>
       <c r="K90" s="19">
         <f t="shared" si="13"/>
@@ -8560,11 +8560,11 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="10"/>
-        <v>-27.403969419911249</v>
+        <v>15.979445769171846</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="11"/>
-        <v>175.29893882706904</v>
+        <v>218.68235401615215</v>
       </c>
       <c r="G91" s="18">
         <f t="shared" si="14"/>
@@ -8580,7 +8580,7 @@
       </c>
       <c r="J91" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>206.83916254293916</v>
+        <v>206.83990495343733</v>
       </c>
       <c r="K91" s="19">
         <f t="shared" si="13"/>
@@ -8601,11 +8601,11 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="10"/>
-        <v>119.75955763818156</v>
+        <v>-56.682095580539652</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="11"/>
-        <v>318.40840772022221</v>
+        <v>141.96675450150101</v>
       </c>
       <c r="G92" s="18">
         <f t="shared" si="14"/>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="J92" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>202.70480988045804</v>
+        <v>202.70191004115776</v>
       </c>
       <c r="K92" s="19">
         <f t="shared" si="13"/>
@@ -8642,11 +8642,11 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="10"/>
-        <v>-75.554829149295543</v>
+        <v>-38.037477024533558</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="11"/>
-        <v>119.1210439311043</v>
+        <v>156.63839605586628</v>
       </c>
       <c r="G93" s="18">
         <f t="shared" si="14"/>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="J93" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>198.64759479152008</v>
+        <v>198.64818697655269</v>
       </c>
       <c r="K93" s="19">
         <f t="shared" si="13"/>
@@ -8683,11 +8683,11 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="10"/>
-        <v>7.687242018671518</v>
+        <v>83.909503618019571</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="11"/>
-        <v>198.46959763746335</v>
+        <v>274.69185923681141</v>
       </c>
       <c r="G94" s="18">
         <f t="shared" si="14"/>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="J94" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>194.67593059041283</v>
+        <v>194.67708606261135</v>
       </c>
       <c r="K94" s="19">
         <f t="shared" si="13"/>
@@ -8724,11 +8724,11 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="10"/>
-        <v>55.374561999592409</v>
+        <v>-135.47105257336918</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="11"/>
-        <v>242.34127050600839</v>
+        <v>51.495655933046805</v>
       </c>
       <c r="G95" s="18">
         <f t="shared" si="14"/>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="J95" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>190.78310626250317</v>
+        <v>190.7803277505673</v>
       </c>
       <c r="K95" s="19">
         <f t="shared" si="13"/>
@@ -8765,11 +8765,11 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="10"/>
-        <v>-103.22080189807772</v>
+        <v>74.181366184336824</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="11"/>
-        <v>80.006572438209929</v>
+        <v>257.40874052062446</v>
       </c>
       <c r="G96" s="18">
         <f t="shared" si="14"/>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="J96" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>186.96521294438622</v>
+        <v>186.96769345681201</v>
       </c>
       <c r="K96" s="19">
         <f t="shared" si="13"/>
@@ -8806,11 +8806,11 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="10"/>
-        <v>-32.460027154485559</v>
+        <v>18.544076595943437</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="11"/>
-        <v>147.10279969507633</v>
+        <v>198.10690344550534</v>
       </c>
       <c r="G97" s="18">
         <f t="shared" si="14"/>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="J97" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>183.2268892292025</v>
+        <v>183.22757414943607</v>
       </c>
       <c r="K97" s="19">
         <f t="shared" si="13"/>
@@ -8847,11 +8847,11 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="10"/>
-        <v>-42.236349198780175</v>
+        <v>-16.790000494652801</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="11"/>
-        <v>133.73522111379049</v>
+        <v>159.18156981791788</v>
       </c>
       <c r="G98" s="18">
         <f t="shared" si="14"/>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="J98" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>179.56223581289302</v>
+        <v>179.56256399336266</v>
       </c>
       <c r="K98" s="19">
         <f t="shared" si="13"/>
@@ -8888,11 +8888,11 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="10"/>
-        <v>44.489402142689258</v>
+        <v>2.3834328575389341</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="11"/>
-        <v>216.94154104900849</v>
+        <v>174.83557176385818</v>
       </c>
       <c r="G99" s="18">
         <f t="shared" si="14"/>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="J99" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>175.97207777662499</v>
+        <v>175.97155624181545</v>
       </c>
       <c r="K99" s="19">
         <f t="shared" si="13"/>
@@ -8929,11 +8929,11 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="10"/>
-        <v>10.90664451367215</v>
+        <v>-91.818088258537841</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="11"/>
-        <v>179.909740641865</v>
+        <v>77.18500786965501</v>
       </c>
       <c r="G100" s="18">
         <f t="shared" si="14"/>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="J100" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>172.4522276201192</v>
+        <v>172.4510056319094</v>
       </c>
       <c r="K100" s="19">
         <f t="shared" si="13"/>
@@ -8970,11 +8970,11 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4199517084491955</v>
+        <v>-17.550711049221732</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="11"/>
-        <v>174.04298591407817</v>
+        <v>148.07232315640726</v>
       </c>
       <c r="G101" s="18">
         <f t="shared" si="14"/>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="J101" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>169.00315370736158</v>
+        <v>169.00285700064046</v>
       </c>
       <c r="K101" s="19">
         <f t="shared" si="13"/>
@@ -9011,11 +9011,11 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="10"/>
-        <v>48.552586743722514</v>
+        <v>-62.835330326649128</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="11"/>
-        <v>210.86316026523892</v>
+        <v>99.475243194867275</v>
       </c>
       <c r="G102" s="18">
         <f t="shared" si="14"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="J102" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>165.62353059275085</v>
+        <v>165.62230841384945</v>
       </c>
       <c r="K102" s="19">
         <f t="shared" si="13"/>
@@ -9052,11 +9052,11 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="10"/>
-        <v>74.663949141063796</v>
+        <v>60.976630077951121</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="11"/>
-        <v>233.72831119214987</v>
+        <v>220.04099212903719</v>
       </c>
       <c r="G103" s="18">
         <f t="shared" si="14"/>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="J103" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>162.31132610577157</v>
+        <v>162.31118187184373</v>
       </c>
       <c r="K103" s="19">
         <f t="shared" si="13"/>
@@ -9093,11 +9093,11 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="10"/>
-        <v>-61.233909364490358</v>
+        <v>-123.43128058352963</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="11"/>
-        <v>94.649165445573999</v>
+        <v>32.45179422653473</v>
       </c>
       <c r="G104" s="18">
         <f t="shared" si="14"/>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="J104" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>159.0637101379852</v>
+        <v>159.06308067035528</v>
       </c>
       <c r="K104" s="19">
         <f t="shared" si="13"/>
@@ -9134,11 +9134,11 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="10"/>
-        <v>-23.226915585558523</v>
+        <v>20.423526321728495</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="11"/>
-        <v>129.53849772830455</v>
+        <v>173.18893963559157</v>
       </c>
       <c r="G105" s="18">
         <f t="shared" si="14"/>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="J105" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>155.88281874818503</v>
+        <v>155.88324301820285</v>
       </c>
       <c r="K105" s="19">
         <f t="shared" si="13"/>
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="10"/>
-        <v>3.982838378547942</v>
+        <v>-21.012034400637646</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="11"/>
-        <v>153.69294342613375</v>
+        <v>128.69807064694817</v>
       </c>
       <c r="G106" s="18">
         <f t="shared" si="14"/>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="J106" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>152.76542197219106</v>
+        <v>152.7651886495162</v>
       </c>
       <c r="K106" s="19">
         <f t="shared" si="13"/>
@@ -9216,11 +9216,11 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="10"/>
-        <v>-72.069730991542116</v>
+        <v>-43.170893110404883</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="11"/>
-        <v>74.646171955091972</v>
+        <v>103.54500983622921</v>
       </c>
       <c r="G107" s="18">
         <f t="shared" si="14"/>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="J107" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>149.70943208697656</v>
+        <v>149.70969116985091</v>
       </c>
       <c r="K107" s="19">
         <f t="shared" si="13"/>
@@ -9257,11 +9257,11 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="10"/>
-        <v>-4.6481869734118986</v>
+        <v>-37.994269357075076</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="11"/>
-        <v>139.1333979142895</v>
+        <v>105.78731553062633</v>
       </c>
       <c r="G108" s="18">
         <f t="shared" si="14"/>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="J108" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>146.71583766014101</v>
+        <v>146.71555054542526</v>
       </c>
       <c r="K108" s="19">
         <f t="shared" si="13"/>
@@ -9298,11 +9298,11 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="10"/>
-        <v>-26.662846004574124</v>
+        <v>60.917106492565878</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="11"/>
-        <v>114.24310718537326</v>
+        <v>201.82305968251325</v>
       </c>
       <c r="G109" s="18">
         <f t="shared" si="14"/>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="J109" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>143.78134062843822</v>
+        <v>143.78206484364264</v>
       </c>
       <c r="K109" s="19">
         <f t="shared" si="13"/>
@@ -9339,11 +9339,11 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="10"/>
-        <v>-121.38979849519951</v>
+        <v>-2.2789522726189575</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="11"/>
-        <v>16.698035630948922</v>
+        <v>135.80888185352947</v>
       </c>
       <c r="G110" s="18">
         <f t="shared" si="14"/>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="J110" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>140.90496676395557</v>
+        <v>140.90591271037292</v>
       </c>
       <c r="K110" s="19">
         <f t="shared" si="13"/>
@@ -9380,11 +9380,11 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="10"/>
-        <v>-40.912435884728488</v>
+        <v>15.826818590013444</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="11"/>
-        <v>94.413641558896984</v>
+        <v>151.15289603363891</v>
       </c>
       <c r="G111" s="18">
         <f t="shared" si="14"/>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="J111" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>138.08750101252139</v>
+        <v>138.08793377653473</v>
       </c>
       <c r="K111" s="19">
         <f t="shared" si="13"/>
@@ -9421,11 +9421,11 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="10"/>
-        <v>-103.32370286993817</v>
+        <v>9.2409163713480069</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="11"/>
-        <v>29.295853024814804</v>
+        <v>141.860472266101</v>
       </c>
       <c r="G112" s="18">
         <f t="shared" si="14"/>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="J112" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>135.32530075047043</v>
+        <v>135.32612530940864</v>
       </c>
       <c r="K112" s="19">
         <f t="shared" si="13"/>
@@ -9462,11 +9462,11 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="10"/>
-        <v>-7.185026524589694</v>
+        <v>-15.869639478674975</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="11"/>
-        <v>122.78213825226823</v>
+        <v>114.09752529818294</v>
       </c>
       <c r="G113" s="28">
         <f t="shared" si="14"/>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="J113" s="29">
         <f t="shared" ca="1" si="12"/>
-        <v>132.61948668724938</v>
+        <v>132.61942558987562</v>
       </c>
       <c r="K113" s="30">
         <f t="shared" si="13"/>

--- a/KF-ATTITUDE_RUNNING.xlsx
+++ b/KF-ATTITUDE_RUNNING.xlsx
@@ -8,22 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\KF-ATTITUDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DF0E9E-57A6-4247-892A-F7FE9A6E212D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC987F-2EA3-46DF-A5C4-B87633067A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53BC842-06E2-416D-B3BC-A55576E6EA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$B$13:$B$113</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$G$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$G$13:$G$113</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$I$13:$I$113</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$K$13:$K$113</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
-  <si>
-    <t>c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>k</t>
   </si>
@@ -78,9 +66,6 @@
     <t>x_0</t>
   </si>
   <si>
-    <t>MODEL NOISE</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
   </si>
   <si>
     <t>z_t = x_t + v_t</t>
-  </si>
-  <si>
-    <t>x_t = c*x_t-1 + w_t</t>
   </si>
   <si>
     <t>KALMAN GAIN</t>
@@ -156,6 +138,12 @@
   </si>
   <si>
     <t>m^2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>x_t = a*x_t-1</t>
   </si>
 </sst>
 </file>
@@ -332,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -350,7 +338,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -377,15 +364,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -398,6 +376,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -791,307 +778,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>980</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>960.4</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>941.19200000000001</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>922.36815999999999</c:v>
+                  <c:v>656.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>903.92079679999995</c:v>
+                  <c:v>590.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>885.84238086399989</c:v>
+                  <c:v>531.44100000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>868.1255332467199</c:v>
+                  <c:v>478.29690000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>850.76302258178544</c:v>
+                  <c:v>430.46721000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>833.74776213014968</c:v>
+                  <c:v>387.42048900000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>817.07280688754668</c:v>
+                  <c:v>348.6784401000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800.73135074979575</c:v>
+                  <c:v>313.8105960900001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>784.71672373479987</c:v>
+                  <c:v>282.42953648100013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>769.02238926010386</c:v>
+                  <c:v>254.18658283290011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>753.64194147490173</c:v>
+                  <c:v>228.76792454961011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>738.56910264540363</c:v>
+                  <c:v>205.89113209464909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>723.79772059249558</c:v>
+                  <c:v>185.3020188851842</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>709.32176618064568</c:v>
+                  <c:v>166.77181699666579</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>695.13533085703273</c:v>
+                  <c:v>150.09463529699923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>681.23262423989206</c:v>
+                  <c:v>135.0851717672993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>667.60797175509424</c:v>
+                  <c:v>121.57665459056938</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>654.25581231999229</c:v>
+                  <c:v>109.41898913151245</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>641.17069607359247</c:v>
+                  <c:v>98.477090218361198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>628.34728215212056</c:v>
+                  <c:v>88.629381196525074</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>615.7803365090781</c:v>
+                  <c:v>79.766443076872562</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>603.46472977889653</c:v>
+                  <c:v>71.78979876918531</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>591.39543518331857</c:v>
+                  <c:v>64.610818892266778</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>579.5675264796522</c:v>
+                  <c:v>58.149737003040102</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>567.9761759500592</c:v>
+                  <c:v>52.334763302736093</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>556.61665243105801</c:v>
+                  <c:v>47.101286972462482</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>545.48431938243687</c:v>
+                  <c:v>42.391158275216235</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>534.57463299478809</c:v>
+                  <c:v>38.152042447694612</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>523.88314033489235</c:v>
+                  <c:v>34.336838202925151</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>513.40547752819452</c:v>
+                  <c:v>30.903154382632636</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>503.13736797763062</c:v>
+                  <c:v>27.812838944369371</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>493.07462061807797</c:v>
+                  <c:v>25.031555049932436</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>483.21312820571643</c:v>
+                  <c:v>22.528399544939194</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>473.54886564160211</c:v>
+                  <c:v>20.275559590445276</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>464.07788832877003</c:v>
+                  <c:v>18.248003631400749</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>454.79633056219461</c:v>
+                  <c:v>16.423203268260675</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>445.70040395095072</c:v>
+                  <c:v>14.780882941434609</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>436.78639587193169</c:v>
+                  <c:v>13.302794647291147</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>428.05066795449306</c:v>
+                  <c:v>11.972515182562033</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>419.48965459540318</c:v>
+                  <c:v>10.775263664305829</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>411.09986150349511</c:v>
+                  <c:v>9.6977372978752463</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>402.87786427342519</c:v>
+                  <c:v>8.7279635680877217</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>394.82030698795666</c:v>
+                  <c:v>7.8551672112789497</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>386.92390084819749</c:v>
+                  <c:v>7.0696504901510551</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>379.18542283123355</c:v>
+                  <c:v>6.3626854411359499</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>371.60171437460889</c:v>
+                  <c:v>5.7264168970223555</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>364.16968008711672</c:v>
+                  <c:v>5.1537752073201197</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>356.8862864853744</c:v>
+                  <c:v>4.6383976865881076</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>349.74856075566692</c:v>
+                  <c:v>4.1745579179292971</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>342.75358954055355</c:v>
+                  <c:v>3.7571021261363673</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>335.8985177497425</c:v>
+                  <c:v>3.3813919135227306</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>329.18054739474763</c:v>
+                  <c:v>3.0432527221704575</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>322.59693644685268</c:v>
+                  <c:v>2.7389274499534118</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>316.1449977179156</c:v>
+                  <c:v>2.4650347049580708</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>309.82209776355728</c:v>
+                  <c:v>2.2185312344622639</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>303.62565580828613</c:v>
+                  <c:v>1.9966781110160374</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>297.55314269212039</c:v>
+                  <c:v>1.7970102999144337</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>291.60207983827797</c:v>
+                  <c:v>1.6173092699229903</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>285.7700382415124</c:v>
+                  <c:v>1.4555783429306912</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>280.05463747668216</c:v>
+                  <c:v>1.3100205086376222</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>274.45354472714854</c:v>
+                  <c:v>1.1790184577738601</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>268.96447383260556</c:v>
+                  <c:v>1.0611166119964741</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>263.58518435595346</c:v>
+                  <c:v>0.95500495079682668</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>258.31348066883436</c:v>
+                  <c:v>0.85950445571714407</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>253.14721105545766</c:v>
+                  <c:v>0.77355401014542968</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>248.08426683434851</c:v>
+                  <c:v>0.69619860913088671</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>243.12258149766154</c:v>
+                  <c:v>0.62657874821779802</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>238.26012986770832</c:v>
+                  <c:v>0.56392087339601826</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>233.49492727035414</c:v>
+                  <c:v>0.50752878605641649</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>228.82502872494706</c:v>
+                  <c:v>0.45677590745077484</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>224.24852815044812</c:v>
+                  <c:v>0.41109831670569735</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>219.76355758743915</c:v>
+                  <c:v>0.3699884850351276</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>215.36828643569038</c:v>
+                  <c:v>0.33298963653161484</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>211.06092070697656</c:v>
+                  <c:v>0.29969067287845336</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>206.83970229283702</c:v>
+                  <c:v>0.26972160559060804</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.70290824698029</c:v>
+                  <c:v>0.24274944503154725</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>198.64885008204067</c:v>
+                  <c:v>0.21847450052839251</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>194.67587308039984</c:v>
+                  <c:v>0.19662705047555326</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>190.78235561879183</c:v>
+                  <c:v>0.17696434542799794</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>186.96670850641598</c:v>
+                  <c:v>0.15926791088519815</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>183.22737433628765</c:v>
+                  <c:v>0.14334111979667835</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>179.5628268495619</c:v>
+                  <c:v>0.12900700781701052</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>175.97157031257066</c:v>
+                  <c:v>0.11610630703530947</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>172.45213890631925</c:v>
+                  <c:v>0.10449567633177853</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>169.00309612819285</c:v>
+                  <c:v>9.4046108698600681E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>165.62303420562898</c:v>
+                  <c:v>8.4641497828740614E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>162.3105735215164</c:v>
+                  <c:v>7.6177348045866553E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>159.06436205108608</c:v>
+                  <c:v>6.8559613241279904E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>155.88307481006436</c:v>
+                  <c:v>6.1703651917151915E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>152.76541331386306</c:v>
+                  <c:v>5.5533286725436726E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>149.71010504758581</c:v>
+                  <c:v>4.9979958052893056E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>146.71590294663409</c:v>
+                  <c:v>4.498196224760375E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>143.7815848877014</c:v>
+                  <c:v>4.0483766022843377E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>140.90595318994738</c:v>
+                  <c:v>3.6435389420559038E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>138.08783412614844</c:v>
+                  <c:v>3.2791850478503137E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>135.32607744362548</c:v>
+                  <c:v>2.9512665430652823E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>132.61955589475298</c:v>
+                  <c:v>2.6561398887587542E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>129.96716477685791</c:v>
+                  <c:v>2.3905258998828789E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,307 +1449,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>999.99429493691491</c:v>
+                  <c:v>999.98989464831345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980.00159951132457</c:v>
+                  <c:v>899.99463174963478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>960.40614558592904</c:v>
+                  <c:v>810.00841299475951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>941.18700843459624</c:v>
+                  <c:v>728.98829609584891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>922.37600141655309</c:v>
+                  <c:v>656.09885318508179</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>903.92401846917005</c:v>
+                  <c:v>590.48941077889378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>885.83567637282476</c:v>
+                  <c:v>531.44205383072449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>868.11012744809102</c:v>
+                  <c:v>478.29736977150759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>850.77818573173465</c:v>
+                  <c:v>430.46634349692278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>833.73110873752728</c:v>
+                  <c:v>387.41819796499419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>817.04010610656815</c:v>
+                  <c:v>348.67682012800338</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>800.7352039632226</c:v>
+                  <c:v>313.80905014362264</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>784.69690387737126</c:v>
+                  <c:v>282.42795772241436</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>769.00884205896898</c:v>
+                  <c:v>254.1849486496246</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>753.62675446031096</c:v>
+                  <c:v>228.76828569695061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>738.56726186376</c:v>
+                  <c:v>205.89100140699279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>723.80347360387429</c:v>
+                  <c:v>185.30140084067096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>709.33205720328624</c:v>
+                  <c:v>166.77185235967926</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>695.12115713393564</c:v>
+                  <c:v>150.09470966874633</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>681.22713487978695</c:v>
+                  <c:v>135.08545067053444</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>667.58609972483566</c:v>
+                  <c:v>121.57654194751187</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>654.25718237706508</c:v>
+                  <c:v>109.41907191209495</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>641.1637557699604</c:v>
+                  <c:v>98.477092952404746</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>628.34705587576457</c:v>
+                  <c:v>88.62926397353921</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>615.78305131594323</c:v>
+                  <c:v>79.766476290943501</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>603.46056809394929</c:v>
+                  <c:v>71.789817526913936</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>591.38757620180093</c:v>
+                  <c:v>64.610782287130945</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>579.57184547796385</c:v>
+                  <c:v>58.149704351158519</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>567.97692332281861</c:v>
+                  <c:v>52.334714331499107</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>556.62136163230343</c:v>
+                  <c:v>47.101261851325667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>545.48579064923013</c:v>
+                  <c:v>42.391142733678997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>534.58257171049229</c:v>
+                  <c:v>38.152015437432702</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>523.87645790302963</c:v>
+                  <c:v>34.336841575432913</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>513.41028933529867</c:v>
+                  <c:v>30.903132156542782</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>503.14009940682854</c:v>
+                  <c:v>27.81283801522196</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>493.07903085181289</c:v>
+                  <c:v>25.03155364884454</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>483.21360791187419</c:v>
+                  <c:v>22.528401521741269</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>473.54744338841692</c:v>
+                  <c:v>20.275562192619635</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>464.08469781016635</c:v>
+                  <c:v>18.247998021372382</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>454.80147926252567</c:v>
+                  <c:v>16.423201535654268</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>445.69907200671878</c:v>
+                  <c:v>14.780882637353367</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>436.78698134042247</c:v>
+                  <c:v>13.302794486223439</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>428.05020520666045</c:v>
+                  <c:v>11.972515057929822</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>419.49446984529942</c:v>
+                  <c:v>10.775263931284927</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>411.09413984061223</c:v>
+                  <c:v>9.6977359124044469</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>402.8827253775703</c:v>
+                  <c:v>8.7279648196895625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>394.81669587664481</c:v>
+                  <c:v>7.8551675716882805</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>386.92453605361561</c:v>
+                  <c:v>7.069650353929358</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>379.18202995825294</c:v>
+                  <c:v>6.3626854289717869</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>371.60059580453873</c:v>
+                  <c:v>5.7264170118411677</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>364.168831259294</c:v>
+                  <c:v>5.1537747581161648</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>356.88889087844228</c:v>
+                  <c:v>4.6383976194566836</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>349.74814464684732</c:v>
+                  <c:v>4.1745581176419515</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>342.75157247733972</c:v>
+                  <c:v>3.7571020838337019</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>335.89674471868102</c:v>
+                  <c:v>3.3813917543880887</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>329.18133224202688</c:v>
+                  <c:v>3.0432528314071186</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>322.59422640075508</c:v>
+                  <c:v>2.7389274177291618</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>316.14460192027565</c:v>
+                  <c:v>2.4650346405419783</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>309.82383126522012</c:v>
+                  <c:v>2.2185312052679675</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>303.62735633722258</c:v>
+                  <c:v>1.9966780919720459</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>297.55168351185876</c:v>
+                  <c:v>1.797010281974422</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>291.60265975360153</c:v>
+                  <c:v>1.6173092837737033</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>285.76946089988621</c:v>
+                  <c:v>1.4555783151063868</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>280.05377099553846</c:v>
+                  <c:v>1.3100205556436453</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>274.45266931039339</c:v>
+                  <c:v>1.1790184673209905</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>268.9639466305357</c:v>
+                  <c:v>1.0611166266465022</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>263.58410171103992</c:v>
+                  <c:v>0.95500495547993924</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>258.31423719521837</c:v>
+                  <c:v>0.85950446884650666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>253.1503785702958</c:v>
+                  <c:v>0.77355401526425427</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>248.08438881567633</c:v>
+                  <c:v>0.69619861190957555</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>243.12260225276569</c:v>
+                  <c:v>0.62657874629846466</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>238.26071579220385</c:v>
+                  <c:v>0.56392087772424382</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>233.49461499949115</c:v>
+                  <c:v>0.50752878449058947</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>228.82306786383944</c:v>
+                  <c:v>0.45677590774908838</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>224.24787976332044</c:v>
+                  <c:v>0.41109832073875219</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>219.76439961263969</c:v>
+                  <c:v>0.36998848538843854</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>215.36828263034454</c:v>
+                  <c:v>0.33298963716074026</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>211.06160834482216</c:v>
+                  <c:v>0.29969067379380504</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>206.83990495343733</c:v>
+                  <c:v>0.26972160616290658</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>202.70191004115776</c:v>
+                  <c:v>0.24274944635493514</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>198.64818697655269</c:v>
+                  <c:v>0.21847450071335212</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>194.67708606261135</c:v>
+                  <c:v>0.19662705045191575</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>190.7803277505673</c:v>
+                  <c:v>0.17696434510747225</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>186.96769345681201</c:v>
+                  <c:v>0.15926791108219493</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>183.22757414943607</c:v>
+                  <c:v>0.14334112008640315</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>179.56256399336266</c:v>
+                  <c:v>0.12900700798306766</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>175.97155624181545</c:v>
+                  <c:v>0.11610630702201194</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>172.4510056319094</c:v>
+                  <c:v>0.10449567641333884</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>169.00285700064046</c:v>
+                  <c:v>9.4046108865357456E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>165.62230841384945</c:v>
+                  <c:v>8.4641497819159042E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>162.31118187184373</c:v>
+                  <c:v>7.6177348105025466E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>159.06308067035528</c:v>
+                  <c:v>6.8559613221496798E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>155.88324301820285</c:v>
+                  <c:v>6.1703651913280644E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>152.7651886495162</c:v>
+                  <c:v>5.5533286771569372E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>149.70969116985091</c:v>
+                  <c:v>4.9979958053502735E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>146.71555054542526</c:v>
+                  <c:v>4.4981962239125824E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>143.78206484364264</c:v>
+                  <c:v>4.0483766028702795E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>140.90591271037292</c:v>
+                  <c:v>3.6435389429607341E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>138.08793377653473</c:v>
+                  <c:v>3.2791850473175059E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>135.32612530940864</c:v>
+                  <c:v>2.9512665448962836E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>132.61942558987562</c:v>
+                  <c:v>2.6561398882867539E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,307 +2119,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>985.73163722427773</c:v>
+                  <c:v>898.93637778310256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>984.16525872782631</c:v>
+                  <c:v>833.71993588232681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>977.06323056443966</c:v>
+                  <c:v>938.235737481299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>927.09994985730009</c:v>
+                  <c:v>508.75869109637148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>945.41830680877956</c:v>
+                  <c:v>629.45768536493665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>913.78136882689193</c:v>
+                  <c:v>573.59071449000044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>864.47608579593691</c:v>
+                  <c:v>568.75510322407627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>817.00562482884607</c:v>
+                  <c:v>498.83222003397225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>903.15176165584819</c:v>
+                  <c:v>383.7046793499112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>773.83848106058247</c:v>
+                  <c:v>234.7788313829561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>694.58507874762893</c:v>
+                  <c:v>215.42985736351554</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>815.75933657897701</c:v>
+                  <c:v>156.82366663521748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>704.23047675419423</c:v>
+                  <c:v>84.505306934549509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>711.74089438394185</c:v>
+                  <c:v>1.2577603677140985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>686.77969628304481</c:v>
+                  <c:v>297.77544608132587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>730.13080650564416</c:v>
+                  <c:v>175.06201214603564</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>751.25716955155644</c:v>
+                  <c:v>5.3068103116944201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>760.46631643102603</c:v>
+                  <c:v>179.48648877238762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>621.79055894798046</c:v>
+                  <c:v>183.10715112807083</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>651.65580513532882</c:v>
+                  <c:v>287.92586038843808</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>544.9026218510952</c:v>
+                  <c:v>45.367929812399808</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>662.25890492601548</c:v>
+                  <c:v>178.56125401786443</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>598.9580517428567</c:v>
+                  <c:v>101.29635219266441</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>626.91427524147844</c:v>
+                  <c:v>-60.601150489248411</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>633.68199139686772</c:v>
+                  <c:v>131.96781681101342</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>574.89088495729641</c:v>
+                  <c:v>108.18591140206365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>535.21163725946201</c:v>
+                  <c:v>-23.075474696272352</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>611.71695838749019</c:v>
+                  <c:v>-38.413729937299408</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>573.76876970290459</c:v>
+                  <c:v>-126.46241658940778</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>594.62059796392191</c:v>
+                  <c:v>-66.131927851228397</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>557.84716902328785</c:v>
+                  <c:v>-44.094378467775329</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>604.03278203535581</c:v>
+                  <c:v>-147.41176434388211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>463.00612127302514</c:v>
+                  <c:v>62.941209395402126</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>559.04835427331307</c:v>
+                  <c:v>-201.82958649262056</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>530.11481094451142</c:v>
+                  <c:v>15.801428344820422</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>538.42892911840727</c:v>
+                  <c:v>2.6706309595648143</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>488.34975972646356</c:v>
+                  <c:v>61.47795724453637</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>457.69167393355718</c:v>
+                  <c:v>83.573665216940753</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>543.12931376765732</c:v>
+                  <c:v>-150.22656549391519</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>517.03204082789512</c:v>
+                  <c:v>-47.813640163892401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>428.93652554092296</c:v>
+                  <c:v>0.86249670479783624</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>444.45892365500316</c:v>
+                  <c:v>4.2010904817314136</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>421.7363583499835</c:v>
+                  <c:v>3.2777168965159724</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>487.9039562145141</c:v>
+                  <c:v>33.769630451208116</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>326.45570696660252</c:v>
+                  <c:v>-137.62051237348504</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>477.75622313648375</c:v>
+                  <c:v>173.0290166834159</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>336.90291472625688</c:v>
+                  <c:v>66.264891987427831</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>397.53179295702768</c:v>
+                  <c:v>-20.185613953577686</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>320.18850545311403</c:v>
+                  <c:v>3.3579840977500366</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>351.34953463701049</c:v>
+                  <c:v>40.740852287974064</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>348.16764996682815</c:v>
+                  <c:v>-163.96531302552373</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>408.00841694084153</c:v>
+                  <c:v>-26.564138850083808</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>341.24391346657166</c:v>
+                  <c:v>118.77455389984587</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>299.8280362059898</c:v>
+                  <c:v>-26.21117200005428</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>296.61053072919367</c:v>
+                  <c:v>-135.79760829975856</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>347.28876326851611</c:v>
+                  <c:v>120.99174089815881</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.49194479035998</c:v>
+                  <c:v>-40.21686736670749</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>306.24447915543891</c:v>
+                  <c:v>-103.54532355910905</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>354.97193257746295</c:v>
+                  <c:v>-57.096793751891646</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>349.74287561438211</c:v>
+                  <c:v>-45.771850561500756</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>256.34953417444706</c:v>
+                  <c:v>-53.757789795807291</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>308.65261953134859</c:v>
+                  <c:v>54.56974975653555</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>268.09527193543693</c:v>
+                  <c:v>-129.87115635604673</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>252.43441247968198</c:v>
+                  <c:v>275.21335524511289</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>245.39791718902953</c:v>
+                  <c:v>69.859233353306678</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>250.74483170703402</c:v>
+                  <c:v>131.1715823889752</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>224.62723162125354</c:v>
+                  <c:v>52.302983542124103</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>286.65881187389135</c:v>
+                  <c:v>178.58403571952599</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>376.72018674516892</c:v>
+                  <c:v>86.317438309441457</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>253.03928910866867</c:v>
+                  <c:v>58.025098526108721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>244.00044015569645</c:v>
+                  <c:v>-48.261062743636735</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>264.06423345282059</c:v>
+                  <c:v>136.66875156419584</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>219.17548696279601</c:v>
+                  <c:v>-60.281111010418599</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>135.2006635075289</c:v>
+                  <c:v>14.754489674025937</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>192.0138063652694</c:v>
+                  <c:v>239.0508188256338</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>263.35107501942292</c:v>
+                  <c:v>26.179550607984755</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>215.16318028052217</c:v>
+                  <c:v>57.071220849209396</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>249.65243867126176</c:v>
+                  <c:v>102.21549128482212</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>218.68235401615215</c:v>
+                  <c:v>78.936467623823589</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>141.96675450150101</c:v>
+                  <c:v>224.82253960423202</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>156.63839605586628</c:v>
+                  <c:v>38.968799517963845</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>274.69185923681141</c:v>
+                  <c:v>-5.9172287038084921</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51.495655933046805</c:v>
+                  <c:v>-102.1738476161871</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>257.40874052062446</c:v>
+                  <c:v>77.820191228783187</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>198.10690344550534</c:v>
+                  <c:v>141.15144269661869</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>159.18156981791788</c:v>
+                  <c:v>99.906123546963045</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174.83557176385818</c:v>
+                  <c:v>-9.748039594836051</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>77.18500786965501</c:v>
+                  <c:v>74.797899379542358</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>148.07232315640726</c:v>
+                  <c:v>188.63331945764045</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>99.475243194867275</c:v>
+                  <c:v>-13.289627889637831</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>220.04099212903719</c:v>
+                  <c:v>102.02178089561461</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>32.45179422653473</c:v>
+                  <c:v>-42.019398997277925</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>173.18893963559157</c:v>
+                  <c:v>-10.106206081444251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>128.69807064694817</c:v>
+                  <c:v>149.64520584018879</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>103.54500983622921</c:v>
+                  <c:v>2.4906602047571536</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>105.78731553062633</c:v>
+                  <c:v>-41.854901005305898</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>201.82305968251325</c:v>
+                  <c:v>35.791828537827008</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>135.80888185352947</c:v>
+                  <c:v>68.194982813055404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>151.15289603363891</c:v>
+                  <c:v>-49.516676811119559</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>141.860472266101</c:v>
+                  <c:v>210.24841461764203</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>114.09752529818294</c:v>
+                  <c:v>-66.875628939131644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3072,307 +3059,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>985.73163722427773</c:v>
+                  <c:v>898.93637778310256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>984.16525872782631</c:v>
+                  <c:v>833.71993588232681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>977.06323056443966</c:v>
+                  <c:v>938.235737481299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>927.09994985730009</c:v>
+                  <c:v>508.75869109637148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>945.41830680877956</c:v>
+                  <c:v>629.45768536493665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>913.78136882689193</c:v>
+                  <c:v>573.59071449000044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>864.47608579593691</c:v>
+                  <c:v>568.75510322407627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>817.00562482884607</c:v>
+                  <c:v>498.83222003397225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>903.15176165584819</c:v>
+                  <c:v>383.7046793499112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>773.83848106058247</c:v>
+                  <c:v>234.7788313829561</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>694.58507874762893</c:v>
+                  <c:v>215.42985736351554</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>815.75933657897701</c:v>
+                  <c:v>156.82366663521748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>704.23047675419423</c:v>
+                  <c:v>84.505306934549509</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>711.74089438394185</c:v>
+                  <c:v>1.2577603677140985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>686.77969628304481</c:v>
+                  <c:v>297.77544608132587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>730.13080650564416</c:v>
+                  <c:v>175.06201214603564</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>751.25716955155644</c:v>
+                  <c:v>5.3068103116944201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>760.46631643102603</c:v>
+                  <c:v>179.48648877238762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>621.79055894798046</c:v>
+                  <c:v>183.10715112807083</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>651.65580513532882</c:v>
+                  <c:v>287.92586038843808</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>544.9026218510952</c:v>
+                  <c:v>45.367929812399808</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>662.25890492601548</c:v>
+                  <c:v>178.56125401786443</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>598.9580517428567</c:v>
+                  <c:v>101.29635219266441</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>626.91427524147844</c:v>
+                  <c:v>-60.601150489248411</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>633.68199139686772</c:v>
+                  <c:v>131.96781681101342</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>574.89088495729641</c:v>
+                  <c:v>108.18591140206365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>535.21163725946201</c:v>
+                  <c:v>-23.075474696272352</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>611.71695838749019</c:v>
+                  <c:v>-38.413729937299408</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>573.76876970290459</c:v>
+                  <c:v>-126.46241658940778</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>594.62059796392191</c:v>
+                  <c:v>-66.131927851228397</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>557.84716902328785</c:v>
+                  <c:v>-44.094378467775329</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>604.03278203535581</c:v>
+                  <c:v>-147.41176434388211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>463.00612127302514</c:v>
+                  <c:v>62.941209395402126</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>559.04835427331307</c:v>
+                  <c:v>-201.82958649262056</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>530.11481094451142</c:v>
+                  <c:v>15.801428344820422</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>538.42892911840727</c:v>
+                  <c:v>2.6706309595648143</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>488.34975972646356</c:v>
+                  <c:v>61.47795724453637</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>457.69167393355718</c:v>
+                  <c:v>83.573665216940753</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>543.12931376765732</c:v>
+                  <c:v>-150.22656549391519</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>517.03204082789512</c:v>
+                  <c:v>-47.813640163892401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>428.93652554092296</c:v>
+                  <c:v>0.86249670479783624</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>444.45892365500316</c:v>
+                  <c:v>4.2010904817314136</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>421.7363583499835</c:v>
+                  <c:v>3.2777168965159724</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>487.9039562145141</c:v>
+                  <c:v>33.769630451208116</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>326.45570696660252</c:v>
+                  <c:v>-137.62051237348504</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>477.75622313648375</c:v>
+                  <c:v>173.0290166834159</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>336.90291472625688</c:v>
+                  <c:v>66.264891987427831</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>397.53179295702768</c:v>
+                  <c:v>-20.185613953577686</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>320.18850545311403</c:v>
+                  <c:v>3.3579840977500366</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>351.34953463701049</c:v>
+                  <c:v>40.740852287974064</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>348.16764996682815</c:v>
+                  <c:v>-163.96531302552373</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>408.00841694084153</c:v>
+                  <c:v>-26.564138850083808</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>341.24391346657166</c:v>
+                  <c:v>118.77455389984587</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>299.8280362059898</c:v>
+                  <c:v>-26.21117200005428</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>296.61053072919367</c:v>
+                  <c:v>-135.79760829975856</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>347.28876326851611</c:v>
+                  <c:v>120.99174089815881</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.49194479035998</c:v>
+                  <c:v>-40.21686736670749</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>306.24447915543891</c:v>
+                  <c:v>-103.54532355910905</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>354.97193257746295</c:v>
+                  <c:v>-57.096793751891646</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>349.74287561438211</c:v>
+                  <c:v>-45.771850561500756</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>256.34953417444706</c:v>
+                  <c:v>-53.757789795807291</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>308.65261953134859</c:v>
+                  <c:v>54.56974975653555</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>268.09527193543693</c:v>
+                  <c:v>-129.87115635604673</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>252.43441247968198</c:v>
+                  <c:v>275.21335524511289</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>245.39791718902953</c:v>
+                  <c:v>69.859233353306678</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>250.74483170703402</c:v>
+                  <c:v>131.1715823889752</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>224.62723162125354</c:v>
+                  <c:v>52.302983542124103</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>286.65881187389135</c:v>
+                  <c:v>178.58403571952599</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>376.72018674516892</c:v>
+                  <c:v>86.317438309441457</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>253.03928910866867</c:v>
+                  <c:v>58.025098526108721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>244.00044015569645</c:v>
+                  <c:v>-48.261062743636735</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>264.06423345282059</c:v>
+                  <c:v>136.66875156419584</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>219.17548696279601</c:v>
+                  <c:v>-60.281111010418599</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>135.2006635075289</c:v>
+                  <c:v>14.754489674025937</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>192.0138063652694</c:v>
+                  <c:v>239.0508188256338</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>263.35107501942292</c:v>
+                  <c:v>26.179550607984755</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>215.16318028052217</c:v>
+                  <c:v>57.071220849209396</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>249.65243867126176</c:v>
+                  <c:v>102.21549128482212</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>218.68235401615215</c:v>
+                  <c:v>78.936467623823589</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>141.96675450150101</c:v>
+                  <c:v>224.82253960423202</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>156.63839605586628</c:v>
+                  <c:v>38.968799517963845</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>274.69185923681141</c:v>
+                  <c:v>-5.9172287038084921</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51.495655933046805</c:v>
+                  <c:v>-102.1738476161871</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>257.40874052062446</c:v>
+                  <c:v>77.820191228783187</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>198.10690344550534</c:v>
+                  <c:v>141.15144269661869</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>159.18156981791788</c:v>
+                  <c:v>99.906123546963045</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174.83557176385818</c:v>
+                  <c:v>-9.748039594836051</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>77.18500786965501</c:v>
+                  <c:v>74.797899379542358</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>148.07232315640726</c:v>
+                  <c:v>188.63331945764045</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>99.475243194867275</c:v>
+                  <c:v>-13.289627889637831</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>220.04099212903719</c:v>
+                  <c:v>102.02178089561461</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>32.45179422653473</c:v>
+                  <c:v>-42.019398997277925</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>173.18893963559157</c:v>
+                  <c:v>-10.106206081444251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>128.69807064694817</c:v>
+                  <c:v>149.64520584018879</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>103.54500983622921</c:v>
+                  <c:v>2.4906602047571536</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>105.78731553062633</c:v>
+                  <c:v>-41.854901005305898</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>201.82305968251325</c:v>
+                  <c:v>35.791828537827008</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>135.80888185352947</c:v>
+                  <c:v>68.194982813055404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>151.15289603363891</c:v>
+                  <c:v>-49.516676811119559</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>141.860472266101</c:v>
+                  <c:v>210.24841461764203</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>114.09752529818294</c:v>
+                  <c:v>-66.875628939131644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5059,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB10ABEC-9FAA-40D5-98F6-F0A3D0D05DE8}">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,9 +5057,10 @@
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" customWidth="1"/>
     <col min="14" max="14" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
@@ -5081,215 +5069,194 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>H3^2</f>
+        <v>10000</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <f>E2*10/100</f>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5">
-        <f>E2*5/100</f>
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <f>K3^2</f>
-        <v>2500</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <f>(B6-B5)/((MAX(A13:A113)-MIN(A13:A113)))</f>
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22" t="s">
+      <c r="G10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="14"/>
+      <c r="G11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="C12" s="3"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>26</v>
+      <c r="G12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -5303,34 +5270,34 @@
       </c>
       <c r="D13">
         <f>$B$2*G13</f>
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="E13">
-        <f ca="1">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>5.7316372242777236</v>
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-1.0636222168974059</v>
       </c>
       <c r="F13">
         <f ca="1">D13+E13</f>
-        <v>985.73163722427773</v>
-      </c>
-      <c r="G13" s="18">
+        <v>898.93637778310256</v>
+      </c>
+      <c r="G13" s="17">
         <f>E2</f>
         <v>1000</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="18">
-        <f>H13/(H13+$K$6)</f>
-        <v>3.9984006397441024E-4</v>
+      <c r="I13" s="17">
+        <f>H13/(H13+$K$2)</f>
+        <v>9.9990000999900015E-5</v>
       </c>
       <c r="J13" s="9">
         <f ca="1">G13+I13*(F13-G13)</f>
-        <v>999.99429493691491</v>
-      </c>
-      <c r="K13" s="19">
+        <v>999.98989464831345</v>
+      </c>
+      <c r="K13" s="18">
         <f>(1-I13)*H13</f>
-        <v>0.99960015993602558</v>
+        <v>0.99990000999900008</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -5343,35 +5310,35 @@
       </c>
       <c r="D14">
         <f t="shared" ref="D14:D77" si="1">$B$2*G14</f>
-        <v>960.4</v>
+        <v>810</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E77" ca="1" si="2">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>23.765258727826318</v>
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>23.719935882326812</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F77" ca="1" si="3">D14+E14</f>
-        <v>984.16525872782631</v>
-      </c>
-      <c r="G14" s="18">
+        <f t="shared" ref="F14:F77" ca="1" si="2">D14+E14</f>
+        <v>833.71993588232681</v>
+      </c>
+      <c r="G14" s="17">
         <f>$B$2*G13</f>
-        <v>980</v>
-      </c>
-      <c r="H14" s="19">
+        <v>900</v>
+      </c>
+      <c r="H14" s="18">
         <f>$B$2*H13*$B$2</f>
-        <v>0.96039999999999992</v>
-      </c>
-      <c r="I14" s="18">
-        <f>H14/(H14+$K$6)</f>
-        <v>3.8401247776654121E-4</v>
+        <v>0.81</v>
+      </c>
+      <c r="I14" s="17">
+        <f>H14/(H14+$K$2)</f>
+        <v>8.099343953139796E-5</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" ref="J14:J77" ca="1" si="4">G14+I14*(F14-G14)</f>
-        <v>980.00159951132457</v>
-      </c>
-      <c r="K14" s="19">
-        <f t="shared" ref="K14:K77" si="5">(1-I14)*H14</f>
-        <v>0.96003119441635298</v>
+        <f t="shared" ref="J14:J77" ca="1" si="3">G14+I14*(F14-G14)</f>
+        <v>899.99463174963478</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" ref="K14:K77" si="4">(1-I14)*H14</f>
+        <v>0.80993439531397959</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -5384,35 +5351,35 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>941.19200000000001</v>
+        <v>729</v>
       </c>
       <c r="E15">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>209.23573748129903</v>
+      </c>
+      <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>35.871230564439621</v>
-      </c>
-      <c r="F15">
+        <v>938.235737481299</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" ref="G15:G78" si="5">$B$2*G14</f>
+        <v>810</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" ref="H15:H78" si="6">$B$2*H14*$B$2</f>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="I15" s="17">
+        <f>H15/(H15+$K$2)</f>
+        <v>6.5605695610311017E-5</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>977.06323056443966</v>
-      </c>
-      <c r="G15" s="18">
-        <f t="shared" ref="G15:G78" si="6">$B$2*G14</f>
-        <v>960.4</v>
-      </c>
-      <c r="H15" s="19">
-        <f t="shared" ref="H15:H78" si="7">$B$2*H14*$B$2</f>
-        <v>0.92236815999999988</v>
-      </c>
-      <c r="I15" s="18">
-        <f>H15/(H15+$K$6)</f>
-        <v>3.6881119211973476E-4</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>960.40614558592904</v>
-      </c>
-      <c r="K15" s="19">
-        <f t="shared" si="5"/>
-        <v>0.92202798029933697</v>
+        <v>810.00841299475951</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="4"/>
+        <v>0.65605695610311021</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -5425,35 +5392,35 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>922.36815999999999</v>
+        <v>656.1</v>
       </c>
       <c r="E16">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-147.34130890362854</v>
+      </c>
+      <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7317898573001003</v>
-      </c>
-      <c r="F16">
+        <v>508.75869109637148</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="6"/>
+        <v>0.53144100000000016</v>
+      </c>
+      <c r="I16" s="17">
+        <f>H16/(H16+$K$2)</f>
+        <v>5.3141275854721869E-5</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>927.09994985730009</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" si="6"/>
-        <v>941.19200000000001</v>
-      </c>
-      <c r="H16" s="19">
-        <f t="shared" si="7"/>
-        <v>0.8858423808639998</v>
-      </c>
-      <c r="I16" s="18">
-        <f>H16/(H16+$K$6)</f>
-        <v>3.5421144214270515E-4</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>941.18700843459624</v>
-      </c>
-      <c r="K16" s="19">
-        <f t="shared" si="5"/>
-        <v>0.88552860535676281</v>
+        <v>728.98829609584891</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="4"/>
+        <v>0.53141275854721859</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5466,35 +5433,35 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>903.92079679999995</v>
+        <v>590.49</v>
       </c>
       <c r="E17">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>38.967685364936635</v>
+      </c>
+      <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>41.497510008779656</v>
-      </c>
-      <c r="F17">
+        <v>629.45768536493665</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
+        <v>656.1</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="6"/>
+        <v>0.43046721000000016</v>
+      </c>
+      <c r="I17" s="17">
+        <f>H17/(H17+$K$2)</f>
+        <v>4.3044868059574169E-5</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>945.41830680877956</v>
-      </c>
-      <c r="G17" s="18">
-        <f t="shared" si="6"/>
-        <v>922.36815999999999</v>
-      </c>
-      <c r="H17" s="19">
-        <f t="shared" si="7"/>
-        <v>0.85076302258178538</v>
-      </c>
-      <c r="I17" s="18">
-        <f>H17/(H17+$K$6)</f>
-        <v>3.4018944079395404E-4</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>922.37600141655309</v>
-      </c>
-      <c r="K17" s="19">
-        <f t="shared" si="5"/>
-        <v>0.85047360198488509</v>
+        <v>656.09885318508179</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="4"/>
+        <v>0.43044868059574171</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5507,35 +5474,35 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>885.84238086399989</v>
+        <v>531.44100000000003</v>
       </c>
       <c r="E18">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>42.14971449000042</v>
+      </c>
+      <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>27.938987962892032</v>
-      </c>
-      <c r="F18">
+        <v>573.59071449000044</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="5"/>
+        <v>590.49</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="6"/>
+        <v>0.34867844010000015</v>
+      </c>
+      <c r="I18" s="17">
+        <f>H18/(H18+$K$2)</f>
+        <v>3.486662828584379E-5</v>
+      </c>
+      <c r="J18" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>913.78136882689193</v>
-      </c>
-      <c r="G18" s="18">
-        <f t="shared" si="6"/>
-        <v>903.92079679999995</v>
-      </c>
-      <c r="H18" s="19">
-        <f t="shared" si="7"/>
-        <v>0.81707280688754669</v>
-      </c>
-      <c r="I18" s="18">
-        <f>H18/(H18+$K$6)</f>
-        <v>3.2672234037912809E-4</v>
-      </c>
-      <c r="J18" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>903.92401846917005</v>
-      </c>
-      <c r="K18" s="19">
-        <f t="shared" si="5"/>
-        <v>0.81680585094782021</v>
+        <v>590.48941077889378</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="4"/>
+        <v>0.34866628285843787</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5548,35 +5515,35 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>868.1255332467199</v>
+        <v>478.29690000000005</v>
       </c>
       <c r="E19">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>90.458203224076271</v>
+      </c>
+      <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.6494474507829548</v>
-      </c>
-      <c r="F19">
+        <v>568.75510322407627</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="5"/>
+        <v>531.44100000000003</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="6"/>
+        <v>0.28242953648100017</v>
+      </c>
+      <c r="I19" s="17">
+        <f>H19/(H19+$K$2)</f>
+        <v>2.8242156006197013E-5</v>
+      </c>
+      <c r="J19" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>864.47608579593691</v>
-      </c>
-      <c r="G19" s="18">
-        <f t="shared" si="6"/>
-        <v>885.84238086399989</v>
-      </c>
-      <c r="H19" s="19">
-        <f t="shared" si="7"/>
-        <v>0.78471672373479984</v>
-      </c>
-      <c r="I19" s="18">
-        <f>H19/(H19+$K$6)</f>
-        <v>3.1378819555601459E-4</v>
-      </c>
-      <c r="J19" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>885.83567637282476</v>
-      </c>
-      <c r="K19" s="19">
-        <f t="shared" si="5"/>
-        <v>0.78447048889003645</v>
+        <v>531.44205383072449</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="4"/>
+        <v>0.28242156006197011</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5589,35 +5556,35 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>850.76302258178544</v>
+        <v>430.46721000000008</v>
       </c>
       <c r="E20">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>68.365010033972183</v>
+      </c>
+      <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>-33.757397752939333</v>
-      </c>
-      <c r="F20">
+        <v>498.83222003397225</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="5"/>
+        <v>478.29690000000005</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="6"/>
+        <v>0.22876792454961012</v>
+      </c>
+      <c r="I20" s="17">
+        <f>H20/(H20+$K$2)</f>
+        <v>2.2876269119300228E-5</v>
+      </c>
+      <c r="J20" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>817.00562482884607</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="6"/>
-        <v>868.1255332467199</v>
-      </c>
-      <c r="H20" s="19">
-        <f t="shared" si="7"/>
-        <v>0.75364194147490171</v>
-      </c>
-      <c r="I20" s="18">
-        <f>H20/(H20+$K$6)</f>
-        <v>3.0136592778879539E-4</v>
-      </c>
-      <c r="J20" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>868.11012744809102</v>
-      </c>
-      <c r="K20" s="19">
-        <f t="shared" si="5"/>
-        <v>0.75341481947198852</v>
+        <v>478.29736977150759</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="4"/>
+        <v>0.22876269119300224</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5630,35 +5597,35 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>833.74776213014968</v>
+        <v>387.42048900000009</v>
       </c>
       <c r="E21">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-3.7158096500888727</v>
+      </c>
+      <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>69.403999525698552</v>
-      </c>
-      <c r="F21">
+        <v>383.7046793499112</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="5"/>
+        <v>430.46721000000008</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="6"/>
+        <v>0.18530201888518419</v>
+      </c>
+      <c r="I21" s="17">
+        <f>H21/(H21+$K$2)</f>
+        <v>1.8529858526498958E-5</v>
+      </c>
+      <c r="J21" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>903.15176165584819</v>
-      </c>
-      <c r="G21" s="18">
-        <f t="shared" si="6"/>
-        <v>850.76302258178544</v>
-      </c>
-      <c r="H21" s="19">
-        <f t="shared" si="7"/>
-        <v>0.72379772059249559</v>
-      </c>
-      <c r="I21" s="18">
-        <f>H21/(H21+$K$6)</f>
-        <v>2.8943529119538773E-4</v>
-      </c>
-      <c r="J21" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>850.77818573173465</v>
-      </c>
-      <c r="K21" s="19">
-        <f t="shared" si="5"/>
-        <v>0.72358822798846933</v>
+        <v>430.46634349692278</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="4"/>
+        <v>0.18529858526498957</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5671,35 +5638,35 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>817.07280688754668</v>
+        <v>348.6784401000001</v>
       </c>
       <c r="E22">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-113.899608717044</v>
+      </c>
+      <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>-43.234325826964223</v>
-      </c>
-      <c r="F22">
+        <v>234.7788313829561</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="5"/>
+        <v>387.42048900000009</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="6"/>
+        <v>0.15009463529699921</v>
+      </c>
+      <c r="I22" s="17">
+        <f>H22/(H22+$K$2)</f>
+        <v>1.5009238249085812E-5</v>
+      </c>
+      <c r="J22" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>773.83848106058247</v>
-      </c>
-      <c r="G22" s="18">
-        <f t="shared" si="6"/>
-        <v>833.74776213014968</v>
-      </c>
-      <c r="H22" s="19">
-        <f t="shared" si="7"/>
-        <v>0.69513533085703272</v>
-      </c>
-      <c r="I22" s="18">
-        <f>H22/(H22+$K$6)</f>
-        <v>2.7797683973382955E-4</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>833.73110873752728</v>
-      </c>
-      <c r="K22" s="19">
-        <f t="shared" si="5"/>
-        <v>0.69494209933457374</v>
+        <v>387.41819796499419</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="4"/>
+        <v>0.15009238249085813</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5712,35 +5679,35 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>800.73135074979575</v>
+        <v>313.8105960900001</v>
       </c>
       <c r="E23">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-98.380738726484566</v>
+      </c>
+      <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>-106.14627200216682</v>
-      </c>
-      <c r="F23">
+        <v>215.42985736351554</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="5"/>
+        <v>348.6784401000001</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="6"/>
+        <v>0.12157665459056936</v>
+      </c>
+      <c r="I23" s="17">
+        <f>H23/(H23+$K$2)</f>
+        <v>1.2157517652024511E-5</v>
+      </c>
+      <c r="J23" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>694.58507874762893</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" si="6"/>
-        <v>817.07280688754668</v>
-      </c>
-      <c r="H23" s="19">
-        <f t="shared" si="7"/>
-        <v>0.66760797175509423</v>
-      </c>
-      <c r="I23" s="18">
-        <f>H23/(H23+$K$6)</f>
-        <v>2.6697189567572262E-4</v>
-      </c>
-      <c r="J23" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>817.04010610656815</v>
-      </c>
-      <c r="K23" s="19">
-        <f t="shared" si="5"/>
-        <v>0.66742973918930659</v>
+        <v>348.67682012800338</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="4"/>
+        <v>0.1215751765202451</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5753,35 +5720,35 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>784.71672373479987</v>
+        <v>282.42953648100013</v>
       </c>
       <c r="E24">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-125.60586984578264</v>
+      </c>
+      <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>31.042612844177192</v>
-      </c>
-      <c r="F24">
+        <v>156.82366663521748</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="5"/>
+        <v>313.8105960900001</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="6"/>
+        <v>9.8477090218361193E-2</v>
+      </c>
+      <c r="I24" s="17">
+        <f>H24/(H24+$K$2)</f>
+        <v>9.8476120454181369E-6</v>
+      </c>
+      <c r="J24" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>815.75933657897701</v>
-      </c>
-      <c r="G24" s="18">
-        <f t="shared" si="6"/>
-        <v>800.73135074979575</v>
-      </c>
-      <c r="H24" s="19">
-        <f t="shared" si="7"/>
-        <v>0.64117069607359245</v>
-      </c>
-      <c r="I24" s="18">
-        <f>H24/(H24+$K$6)</f>
-        <v>2.5640251931672285E-4</v>
-      </c>
-      <c r="J24" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>800.7352039632226</v>
-      </c>
-      <c r="K24" s="19">
-        <f t="shared" si="5"/>
-        <v>0.64100629829180711</v>
+        <v>313.80905014362264</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="4"/>
+        <v>9.8476120454181373E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5794,35 +5761,35 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>769.02238926010386</v>
+        <v>254.18658283290011</v>
       </c>
       <c r="E25">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-169.68127589835061</v>
+      </c>
+      <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>-64.791912505909679</v>
-      </c>
-      <c r="F25">
+        <v>84.505306934549509</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="5"/>
+        <v>282.42953648100013</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="6"/>
+        <v>7.976644307687257E-2</v>
+      </c>
+      <c r="I25" s="17">
+        <f>H25/(H25+$K$2)</f>
+        <v>7.9765806813403697E-6</v>
+      </c>
+      <c r="J25" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>704.23047675419423</v>
-      </c>
-      <c r="G25" s="18">
-        <f t="shared" si="6"/>
-        <v>784.71672373479987</v>
-      </c>
-      <c r="H25" s="19">
-        <f t="shared" si="7"/>
-        <v>0.61578033650907815</v>
-      </c>
-      <c r="I25" s="18">
-        <f>H25/(H25+$K$6)</f>
-        <v>2.4625147987597371E-4</v>
-      </c>
-      <c r="J25" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>784.69690387737126</v>
-      </c>
-      <c r="K25" s="19">
-        <f t="shared" si="5"/>
-        <v>0.61562869968993428</v>
+        <v>282.42795772241436</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="4"/>
+        <v>7.97658068134037E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5835,35 +5802,35 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>753.64194147490173</v>
+        <v>228.76792454961011</v>
       </c>
       <c r="E26">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-227.51016418189602</v>
+      </c>
+      <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>-41.901047090959871</v>
-      </c>
-      <c r="F26">
+        <v>1.2577603677140985</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="5"/>
+        <v>254.18658283290011</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="6"/>
+        <v>6.4610818892266789E-2</v>
+      </c>
+      <c r="I26" s="17">
+        <f>H26/(H26+$K$2)</f>
+        <v>6.4610401439172199E-6</v>
+      </c>
+      <c r="J26" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>711.74089438394185</v>
-      </c>
-      <c r="G26" s="18">
-        <f t="shared" si="6"/>
-        <v>769.02238926010386</v>
-      </c>
-      <c r="H26" s="19">
-        <f t="shared" si="7"/>
-        <v>0.59139543518331861</v>
-      </c>
-      <c r="I26" s="18">
-        <f>H26/(H26+$K$6)</f>
-        <v>2.3650222753821674E-4</v>
-      </c>
-      <c r="J26" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>769.00884205896898</v>
-      </c>
-      <c r="K26" s="19">
-        <f t="shared" si="5"/>
-        <v>0.59125556884554176</v>
+        <v>254.1849486496246</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="4"/>
+        <v>6.4610401439172196E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5876,35 +5843,35 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>738.56910264540363</v>
+        <v>205.89113209464909</v>
       </c>
       <c r="E27">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>91.884313986676773</v>
+      </c>
+      <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>-51.789406362358761</v>
-      </c>
-      <c r="F27">
+        <v>297.77544608132587</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="5"/>
+        <v>228.76792454961011</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="6"/>
+        <v>5.2334763302736099E-2</v>
+      </c>
+      <c r="I27" s="17">
+        <f>H27/(H27+$K$2)</f>
+        <v>5.2334489411424507E-6</v>
+      </c>
+      <c r="J27" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>686.77969628304481</v>
-      </c>
-      <c r="G27" s="18">
-        <f t="shared" si="6"/>
-        <v>753.64194147490173</v>
-      </c>
-      <c r="H27" s="19">
-        <f t="shared" si="7"/>
-        <v>0.56797617595005923</v>
-      </c>
-      <c r="I27" s="18">
-        <f>H27/(H27+$K$6)</f>
-        <v>2.2713886659408059E-4</v>
-      </c>
-      <c r="J27" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>753.62675446031096</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="shared" si="5"/>
-        <v>0.5678471664852015</v>
+        <v>228.76828569695061</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="4"/>
+        <v>5.233448941142451E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5917,35 +5884,35 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>723.79772059249558</v>
+        <v>185.3020188851842</v>
       </c>
       <c r="E28">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-10.240006739148562</v>
+      </c>
+      <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3330859131485377</v>
-      </c>
-      <c r="F28">
+        <v>175.06201214603564</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="5"/>
+        <v>205.89113209464909</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="6"/>
+        <v>4.2391158275216244E-2</v>
+      </c>
+      <c r="I28" s="17">
+        <f>H28/(H28+$K$2)</f>
+        <v>4.2390978574948027E-6</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>730.13080650564416</v>
-      </c>
-      <c r="G28" s="18">
-        <f t="shared" si="6"/>
-        <v>738.56910264540363</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="7"/>
-        <v>0.54548431938243691</v>
-      </c>
-      <c r="I28" s="18">
-        <f>H28/(H28+$K$6)</f>
-        <v>2.1814612963575464E-4</v>
-      </c>
-      <c r="J28" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>738.56726186376</v>
-      </c>
-      <c r="K28" s="19">
-        <f t="shared" si="5"/>
-        <v>0.54536532408938665</v>
+        <v>205.89100140699279</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="4"/>
+        <v>4.2390978574948023E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5958,35 +5925,35 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>709.32176618064568</v>
+        <v>166.77181699666579</v>
       </c>
       <c r="E29">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-161.46500668497137</v>
+      </c>
+      <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>41.935403370910819</v>
-      </c>
-      <c r="F29">
+        <v>5.3068103116944201</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="5"/>
+        <v>185.3020188851842</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="6"/>
+        <v>3.4336838202925157E-2</v>
+      </c>
+      <c r="I29" s="17">
+        <f>H29/(H29+$K$2)</f>
+        <v>3.4336720301484212E-6</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>751.25716955155644</v>
-      </c>
-      <c r="G29" s="18">
-        <f t="shared" si="6"/>
-        <v>723.79772059249558</v>
-      </c>
-      <c r="H29" s="19">
-        <f t="shared" si="7"/>
-        <v>0.52388314033489236</v>
-      </c>
-      <c r="I29" s="18">
-        <f>H29/(H29+$K$6)</f>
-        <v>2.0950935276689412E-4</v>
-      </c>
-      <c r="J29" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>723.80347360387429</v>
-      </c>
-      <c r="K29" s="19">
-        <f t="shared" si="5"/>
-        <v>0.52377338191723533</v>
+        <v>185.30140084067096</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="4"/>
+        <v>3.4336720301484214E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5999,35 +5966,35 @@
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>695.13533085703273</v>
+        <v>150.09463529699923</v>
       </c>
       <c r="E30">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>29.39185347538838</v>
+      </c>
+      <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>65.330985573993274</v>
-      </c>
-      <c r="F30">
+        <v>179.48648877238762</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="5"/>
+        <v>166.77181699666579</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="6"/>
+        <v>2.7812838944369381E-2</v>
+      </c>
+      <c r="I30" s="17">
+        <f>H30/(H30+$K$2)</f>
+        <v>2.7812761589183515E-6</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>760.46631643102603</v>
-      </c>
-      <c r="G30" s="18">
-        <f t="shared" si="6"/>
-        <v>709.32176618064568</v>
-      </c>
-      <c r="H30" s="19">
-        <f t="shared" si="7"/>
-        <v>0.50313736797763065</v>
-      </c>
-      <c r="I30" s="18">
-        <f>H30/(H30+$K$6)</f>
-        <v>2.0121445178718374E-4</v>
-      </c>
-      <c r="J30" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>709.33205720328624</v>
-      </c>
-      <c r="K30" s="19">
-        <f t="shared" si="5"/>
-        <v>0.50303612946795939</v>
+        <v>166.77185235967926</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="4"/>
+        <v>2.7812761589183513E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6040,35 +6007,35 @@
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>681.23262423989206</v>
+        <v>135.0851717672993</v>
       </c>
       <c r="E31">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>48.021979360771525</v>
+      </c>
+      <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>-59.442065291911582</v>
-      </c>
-      <c r="F31">
+        <v>183.10715112807083</v>
+      </c>
+      <c r="G31" s="17">
+        <f t="shared" si="5"/>
+        <v>150.09463529699923</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="6"/>
+        <v>2.2528399544939199E-2</v>
+      </c>
+      <c r="I31" s="17">
+        <f>H31/(H31+$K$2)</f>
+        <v>2.2528348792174933E-6</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>621.79055894798046</v>
-      </c>
-      <c r="G31" s="18">
-        <f t="shared" si="6"/>
-        <v>695.13533085703273</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" si="7"/>
-        <v>0.48321312820571644</v>
-      </c>
-      <c r="I31" s="18">
-        <f>H31/(H31+$K$6)</f>
-        <v>1.9324789931350801E-4</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>695.12115713393564</v>
-      </c>
-      <c r="K31" s="19">
-        <f t="shared" si="5"/>
-        <v>0.48311974828376997</v>
+        <v>150.09470966874633</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="4"/>
+        <v>2.252834879217493E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6081,35 +6048,35 @@
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>667.60797175509424</v>
+        <v>121.57665459056938</v>
       </c>
       <c r="E32">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>166.34920579786873</v>
+      </c>
+      <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>-15.952166619765421</v>
-      </c>
-      <c r="F32">
+        <v>287.92586038843808</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="5"/>
+        <v>135.0851717672993</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="6"/>
+        <v>1.824800363140075E-2</v>
+      </c>
+      <c r="I32" s="17">
+        <f>H32/(H32+$K$2)</f>
+        <v>1.8247970332497862E-6</v>
+      </c>
+      <c r="J32" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>651.65580513532882</v>
-      </c>
-      <c r="G32" s="18">
-        <f t="shared" si="6"/>
-        <v>681.23262423989206</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" si="7"/>
-        <v>0.46407788832877006</v>
-      </c>
-      <c r="I32" s="18">
-        <f>H32/(H32+$K$6)</f>
-        <v>1.8559670280114134E-4</v>
-      </c>
-      <c r="J32" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>681.22713487978695</v>
-      </c>
-      <c r="K32" s="19">
-        <f t="shared" si="5"/>
-        <v>0.46399175700285333</v>
+        <v>135.08545067053444</v>
+      </c>
+      <c r="K32" s="18">
+        <f t="shared" si="4"/>
+        <v>1.8247970332497861E-2</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -6122,35 +6089,35 @@
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>654.25581231999229</v>
+        <v>109.41898913151245</v>
       </c>
       <c r="E33">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-64.051059319112639</v>
+      </c>
+      <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>-109.35319046889708</v>
-      </c>
-      <c r="F33">
+        <v>45.367929812399808</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="5"/>
+        <v>121.57665459056938</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="6"/>
+        <v>1.4780882941434608E-2</v>
+      </c>
+      <c r="I33" s="17">
+        <f>H33/(H33+$K$2)</f>
+        <v>1.4780861094016848E-6</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>544.9026218510952</v>
-      </c>
-      <c r="G33" s="18">
-        <f t="shared" si="6"/>
-        <v>667.60797175509424</v>
-      </c>
-      <c r="H33" s="19">
-        <f t="shared" si="7"/>
-        <v>0.44570040395095073</v>
-      </c>
-      <c r="I33" s="18">
-        <f>H33/(H33+$K$6)</f>
-        <v>1.78248383429781E-4</v>
-      </c>
-      <c r="J33" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>667.58609972483566</v>
-      </c>
-      <c r="K33" s="19">
-        <f t="shared" si="5"/>
-        <v>0.44562095857445244</v>
+        <v>121.57654194751187</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="4"/>
+        <v>1.4780861094016847E-2</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -6163,35 +6130,35 @@
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>641.17069607359247</v>
+        <v>98.477090218361198</v>
       </c>
       <c r="E34">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>80.084163799503244</v>
+      </c>
+      <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>21.088208852423005</v>
-      </c>
-      <c r="F34">
+        <v>178.56125401786443</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="5"/>
+        <v>109.41898913151245</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1972515182562033E-2</v>
+      </c>
+      <c r="I34" s="17">
+        <f>H34/(H34+$K$2)</f>
+        <v>1.1972500848467216E-6</v>
+      </c>
+      <c r="J34" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>662.25890492601548</v>
-      </c>
-      <c r="G34" s="18">
-        <f t="shared" si="6"/>
-        <v>654.25581231999229</v>
-      </c>
-      <c r="H34" s="19">
-        <f t="shared" si="7"/>
-        <v>0.42805066795449304</v>
-      </c>
-      <c r="I34" s="18">
-        <f>H34/(H34+$K$6)</f>
-        <v>1.7119095582060251E-4</v>
-      </c>
-      <c r="J34" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>654.25718237706508</v>
-      </c>
-      <c r="K34" s="19">
-        <f t="shared" si="5"/>
-        <v>0.42797738955150627</v>
+        <v>109.41907191209495</v>
+      </c>
+      <c r="K34" s="18">
+        <f t="shared" si="4"/>
+        <v>1.1972500848467215E-2</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -6204,35 +6171,35 @@
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>628.34728215212056</v>
+        <v>88.629381196525074</v>
       </c>
       <c r="E35">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>12.666970996139346</v>
+      </c>
+      <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>-29.389230409263838</v>
-      </c>
-      <c r="F35">
+        <v>101.29635219266441</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="5"/>
+        <v>98.477090218361198</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="6"/>
+        <v>9.6977372978752467E-3</v>
+      </c>
+      <c r="I35" s="17">
+        <f>H35/(H35+$K$2)</f>
+        <v>9.6977278932734974E-7</v>
+      </c>
+      <c r="J35" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>598.9580517428567</v>
-      </c>
-      <c r="G35" s="18">
-        <f t="shared" si="6"/>
-        <v>641.17069607359247</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" si="7"/>
-        <v>0.41109986150349509</v>
-      </c>
-      <c r="I35" s="18">
-        <f>H35/(H35+$K$6)</f>
-        <v>1.6441290855182404E-4</v>
-      </c>
-      <c r="J35" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>641.1637557699604</v>
-      </c>
-      <c r="K35" s="19">
-        <f t="shared" si="5"/>
-        <v>0.41103227137956005</v>
+        <v>98.477092952404746</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="4"/>
+        <v>9.6977278932734983E-3</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -6245,35 +6212,35 @@
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>615.7803365090781</v>
+        <v>79.766443076872562</v>
       </c>
       <c r="E36">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-140.36759356612097</v>
+      </c>
+      <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>11.133938732400335</v>
-      </c>
-      <c r="F36">
+        <v>-60.601150489248411</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="5"/>
+        <v>88.629381196525074</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="6"/>
+        <v>7.8551672112789506E-3</v>
+      </c>
+      <c r="I36" s="17">
+        <f>H36/(H36+$K$2)</f>
+        <v>7.8551610409186063E-7</v>
+      </c>
+      <c r="J36" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>626.91427524147844</v>
-      </c>
-      <c r="G36" s="18">
-        <f t="shared" si="6"/>
-        <v>628.34728215212056</v>
-      </c>
-      <c r="H36" s="19">
-        <f t="shared" si="7"/>
-        <v>0.39482030698795667</v>
-      </c>
-      <c r="I36" s="18">
-        <f>H36/(H36+$K$6)</f>
-        <v>1.579031854415225E-4</v>
-      </c>
-      <c r="J36" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>628.34705587576457</v>
-      </c>
-      <c r="K36" s="19">
-        <f t="shared" si="5"/>
-        <v>0.39475796360380627</v>
+        <v>88.62926397353921</v>
+      </c>
+      <c r="K36" s="18">
+        <f t="shared" si="4"/>
+        <v>7.8551610409186064E-3</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -6286,35 +6253,35 @@
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>603.46472977889653</v>
+        <v>71.78979876918531</v>
       </c>
       <c r="E37">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>60.178018041828111</v>
+      </c>
+      <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>30.217261617971182</v>
-      </c>
-      <c r="F37">
+        <v>131.96781681101342</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" si="5"/>
+        <v>79.766443076872562</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="6"/>
+        <v>6.3626854411359497E-3</v>
+      </c>
+      <c r="I37" s="17">
+        <f>H37/(H37+$K$2)</f>
+        <v>6.3626813927619234E-7</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>633.68199139686772</v>
-      </c>
-      <c r="G37" s="18">
-        <f t="shared" si="6"/>
-        <v>615.7803365090781</v>
-      </c>
-      <c r="H37" s="19">
-        <f t="shared" si="7"/>
-        <v>0.37918542283123358</v>
-      </c>
-      <c r="I37" s="18">
-        <f>H37/(H37+$K$6)</f>
-        <v>1.5165116756765465E-4</v>
-      </c>
-      <c r="J37" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>615.78305131594323</v>
-      </c>
-      <c r="K37" s="19">
-        <f t="shared" si="5"/>
-        <v>0.37912791891913661</v>
+        <v>79.766476290943501</v>
+      </c>
+      <c r="K37" s="18">
+        <f t="shared" si="4"/>
+        <v>6.3626813927619231E-3</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -6327,35 +6294,35 @@
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>591.39543518331857</v>
+        <v>64.610818892266778</v>
       </c>
       <c r="E38">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>43.575092509796868</v>
+      </c>
+      <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>-16.50455022602214</v>
-      </c>
-      <c r="F38">
+        <v>108.18591140206365</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="5"/>
+        <v>71.78979876918531</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="6"/>
+        <v>5.1537752073201196E-3</v>
+      </c>
+      <c r="I38" s="17">
+        <f>H38/(H38+$K$2)</f>
+        <v>5.1537725511815998E-7</v>
+      </c>
+      <c r="J38" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>574.89088495729641</v>
-      </c>
-      <c r="G38" s="18">
-        <f t="shared" si="6"/>
-        <v>603.46472977889653</v>
-      </c>
-      <c r="H38" s="19">
-        <f t="shared" si="7"/>
-        <v>0.3641696800871167</v>
-      </c>
-      <c r="I38" s="18">
-        <f>H38/(H38+$K$6)</f>
-        <v>1.4564665599639868E-4</v>
-      </c>
-      <c r="J38" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>603.46056809394929</v>
-      </c>
-      <c r="K38" s="19">
-        <f t="shared" si="5"/>
-        <v>0.36411663999099675</v>
+        <v>71.789817526913936</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" si="4"/>
+        <v>5.1537725511815995E-3</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -6368,35 +6335,35 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>579.5675264796522</v>
+        <v>58.149737003040102</v>
       </c>
       <c r="E39">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-81.225211699312453</v>
+      </c>
+      <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>-44.355889220190178</v>
-      </c>
-      <c r="F39">
+        <v>-23.075474696272352</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="5"/>
+        <v>64.610818892266778</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="6"/>
+        <v>4.1745579179292966E-3</v>
+      </c>
+      <c r="I39" s="17">
+        <f>H39/(H39+$K$2)</f>
+        <v>4.1745561752366427E-7</v>
+      </c>
+      <c r="J39" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>535.21163725946201</v>
-      </c>
-      <c r="G39" s="18">
-        <f t="shared" si="6"/>
-        <v>591.39543518331857</v>
-      </c>
-      <c r="H39" s="19">
-        <f t="shared" si="7"/>
-        <v>0.34974856075566685</v>
-      </c>
-      <c r="I39" s="18">
-        <f>H39/(H39+$K$6)</f>
-        <v>1.3987985519105402E-4</v>
-      </c>
-      <c r="J39" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>591.38757620180093</v>
-      </c>
-      <c r="K39" s="19">
-        <f t="shared" si="5"/>
-        <v>0.34969963797763509</v>
+        <v>64.610782287130945</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="shared" si="4"/>
+        <v>4.1745561752366432E-3</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -6409,35 +6376,35 @@
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>567.9761759500592</v>
+        <v>52.334763302736093</v>
       </c>
       <c r="E40">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-90.748493240035501</v>
+      </c>
+      <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>43.740782437431037</v>
-      </c>
-      <c r="F40">
+        <v>-38.413729937299408</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="5"/>
+        <v>58.149737003040102</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="6"/>
+        <v>3.3813919135227302E-3</v>
+      </c>
+      <c r="I40" s="17">
+        <f>H40/(H40+$K$2)</f>
+        <v>3.3813907701419899E-7</v>
+      </c>
+      <c r="J40" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>611.71695838749019</v>
-      </c>
-      <c r="G40" s="18">
-        <f t="shared" si="6"/>
-        <v>579.5675264796522</v>
-      </c>
-      <c r="H40" s="19">
-        <f t="shared" si="7"/>
-        <v>0.33589851774974244</v>
-      </c>
-      <c r="I40" s="18">
-        <f>H40/(H40+$K$6)</f>
-        <v>1.343413570748114E-4</v>
-      </c>
-      <c r="J40" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>579.57184547796385</v>
-      </c>
-      <c r="K40" s="19">
-        <f t="shared" si="5"/>
-        <v>0.33585339268702852</v>
+        <v>58.149704351158519</v>
+      </c>
+      <c r="K40" s="18">
+        <f t="shared" si="4"/>
+        <v>3.3813907701419899E-3</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -6450,35 +6417,35 @@
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>556.61665243105801</v>
+        <v>47.101286972462482</v>
       </c>
       <c r="E41">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-173.56370356187026</v>
+      </c>
+      <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>17.152117271846546</v>
-      </c>
-      <c r="F41">
+        <v>-126.46241658940778</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="5"/>
+        <v>52.334763302736093</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="6"/>
+        <v>2.7389274499534117E-3</v>
+      </c>
+      <c r="I41" s="17">
+        <f>H41/(H41+$K$2)</f>
+        <v>2.7389266997812598E-7</v>
+      </c>
+      <c r="J41" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>573.76876970290459</v>
-      </c>
-      <c r="G41" s="18">
-        <f t="shared" si="6"/>
-        <v>567.9761759500592</v>
-      </c>
-      <c r="H41" s="19">
-        <f t="shared" si="7"/>
-        <v>0.32259693644685267</v>
-      </c>
-      <c r="I41" s="18">
-        <f>H41/(H41+$K$6)</f>
-        <v>1.2902212572174439E-4</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>567.97692332281861</v>
-      </c>
-      <c r="K41" s="19">
-        <f t="shared" si="5"/>
-        <v>0.32255531430436096</v>
+        <v>52.334714331499107</v>
+      </c>
+      <c r="K41" s="18">
+        <f t="shared" si="4"/>
+        <v>2.7389266997812594E-3</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -6491,35 +6458,35 @@
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>545.48431938243687</v>
+        <v>42.391158275216235</v>
       </c>
       <c r="E42">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-108.52308612644464</v>
+      </c>
+      <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>49.136278581484987</v>
-      </c>
-      <c r="F42">
+        <v>-66.131927851228397</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="5"/>
+        <v>47.101286972462482</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="6"/>
+        <v>2.2185312344622636E-3</v>
+      </c>
+      <c r="I42" s="17">
+        <f>H42/(H42+$K$2)</f>
+        <v>2.218530742274289E-7</v>
+      </c>
+      <c r="J42" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>594.62059796392191</v>
-      </c>
-      <c r="G42" s="18">
-        <f t="shared" si="6"/>
-        <v>556.61665243105801</v>
-      </c>
-      <c r="H42" s="19">
-        <f t="shared" si="7"/>
-        <v>0.30982209776355729</v>
-      </c>
-      <c r="I42" s="18">
-        <f>H42/(H42+$K$6)</f>
-        <v>1.2391348265136843E-4</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>556.62136163230343</v>
-      </c>
-      <c r="K42" s="19">
-        <f t="shared" si="5"/>
-        <v>0.30978370662842103</v>
+        <v>47.101261851325667</v>
+      </c>
+      <c r="K42" s="18">
+        <f t="shared" si="4"/>
+        <v>2.2185307422742887E-3</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -6532,35 +6499,35 @@
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>534.57463299478809</v>
+        <v>38.152042447694612</v>
       </c>
       <c r="E43">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-82.24642091546994</v>
+      </c>
+      <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>23.272536028499761</v>
-      </c>
-      <c r="F43">
+        <v>-44.094378467775329</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="5"/>
+        <v>42.391158275216235</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="6"/>
+        <v>1.7970102999144335E-3</v>
+      </c>
+      <c r="I43" s="17">
+        <f>H43/(H43+$K$2)</f>
+        <v>1.7970099769898897E-7</v>
+      </c>
+      <c r="J43" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>557.84716902328785</v>
-      </c>
-      <c r="G43" s="18">
-        <f t="shared" si="6"/>
-        <v>545.48431938243687</v>
-      </c>
-      <c r="H43" s="19">
-        <f t="shared" si="7"/>
-        <v>0.29755314269212041</v>
-      </c>
-      <c r="I43" s="18">
-        <f>H43/(H43+$K$6)</f>
-        <v>1.1900709270307358E-4</v>
-      </c>
-      <c r="J43" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>545.48579064923013</v>
-      </c>
-      <c r="K43" s="19">
-        <f t="shared" si="5"/>
-        <v>0.29751773175768398</v>
+        <v>42.391142733678997</v>
+      </c>
+      <c r="K43" s="18">
+        <f t="shared" si="4"/>
+        <v>1.7970099769898896E-3</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -6573,35 +6540,35 @@
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>523.88314033489235</v>
+        <v>34.336838202925151</v>
       </c>
       <c r="E44">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-181.74860254680726</v>
+      </c>
+      <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>80.149641700463462</v>
-      </c>
-      <c r="F44">
+        <v>-147.41176434388211</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="5"/>
+        <v>38.152042447694612</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="6"/>
+        <v>1.4555783429306911E-3</v>
+      </c>
+      <c r="I44" s="17">
+        <f>H44/(H44+$K$2)</f>
+        <v>1.4555781310598907E-7</v>
+      </c>
+      <c r="J44" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>604.03278203535581</v>
-      </c>
-      <c r="G44" s="18">
-        <f t="shared" si="6"/>
-        <v>534.57463299478809</v>
-      </c>
-      <c r="H44" s="19">
-        <f t="shared" si="7"/>
-        <v>0.28577003824151243</v>
-      </c>
-      <c r="I44" s="18">
-        <f>H44/(H44+$K$6)</f>
-        <v>1.1429495046765859E-4</v>
-      </c>
-      <c r="J44" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>534.58257171049229</v>
-      </c>
-      <c r="K44" s="19">
-        <f t="shared" si="5"/>
-        <v>0.28573737616914646</v>
+        <v>38.152015437432702</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" si="4"/>
+        <v>1.4555781310598907E-3</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
@@ -6618,35 +6585,35 @@
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>513.40547752819452</v>
+        <v>30.903154382632636</v>
       </c>
       <c r="E45">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>32.03805501276949</v>
+      </c>
+      <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>-50.399356255169373</v>
-      </c>
-      <c r="F45">
+        <v>62.941209395402126</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="5"/>
+        <v>34.336838202925151</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1790184577738598E-3</v>
+      </c>
+      <c r="I45" s="17">
+        <f>H45/(H45+$K$2)</f>
+        <v>1.1790183187654239E-7</v>
+      </c>
+      <c r="J45" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>463.00612127302514</v>
-      </c>
-      <c r="G45" s="18">
-        <f t="shared" si="6"/>
-        <v>523.88314033489235</v>
-      </c>
-      <c r="H45" s="19">
-        <f t="shared" si="7"/>
-        <v>0.27445354472714856</v>
-      </c>
-      <c r="I45" s="18">
-        <f>H45/(H45+$K$6)</f>
-        <v>1.0976936725408128E-4</v>
-      </c>
-      <c r="J45" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>523.87645790302963</v>
-      </c>
-      <c r="K45" s="19">
-        <f t="shared" si="5"/>
-        <v>0.27442341813520321</v>
+        <v>34.336841575432913</v>
+      </c>
+      <c r="K45" s="18">
+        <f t="shared" si="4"/>
+        <v>1.1790183187654238E-3</v>
       </c>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -6663,35 +6630,35 @@
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>503.13736797763062</v>
+        <v>27.812838944369371</v>
       </c>
       <c r="E46">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-229.64242543698992</v>
+      </c>
+      <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>55.910986295682498</v>
-      </c>
-      <c r="F46">
+        <v>-201.82958649262056</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" si="5"/>
+        <v>30.903154382632636</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="6"/>
+        <v>9.5500495079682654E-4</v>
+      </c>
+      <c r="I46" s="17">
+        <f>H46/(H46+$K$2)</f>
+        <v>9.5500485959338968E-8</v>
+      </c>
+      <c r="J46" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>559.04835427331307</v>
-      </c>
-      <c r="G46" s="18">
-        <f t="shared" si="6"/>
-        <v>513.40547752819452</v>
-      </c>
-      <c r="H46" s="19">
-        <f t="shared" si="7"/>
-        <v>0.26358518435595346</v>
-      </c>
-      <c r="I46" s="18">
-        <f>H46/(H46+$K$6)</f>
-        <v>1.0542295857039333E-4</v>
-      </c>
-      <c r="J46" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>513.41028933529867</v>
-      </c>
-      <c r="K46" s="19">
-        <f t="shared" si="5"/>
-        <v>0.2635573964259833</v>
+        <v>30.903132156542782</v>
+      </c>
+      <c r="K46" s="18">
+        <f t="shared" si="4"/>
+        <v>9.550048595933896E-4</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="6"/>
@@ -6708,35 +6675,35 @@
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>493.07462061807797</v>
+        <v>25.031555049932436</v>
       </c>
       <c r="E47">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-9.2301267051120135</v>
+      </c>
+      <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>37.040190326433475</v>
-      </c>
-      <c r="F47">
+        <v>15.801428344820422</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="5"/>
+        <v>27.812838944369371</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" si="6"/>
+        <v>7.735540101454295E-4</v>
+      </c>
+      <c r="I47" s="17">
+        <f>H47/(H47+$K$2)</f>
+        <v>7.7355395030685354E-8</v>
+      </c>
+      <c r="J47" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>530.11481094451142</v>
-      </c>
-      <c r="G47" s="18">
-        <f t="shared" si="6"/>
-        <v>503.13736797763062</v>
-      </c>
-      <c r="H47" s="19">
-        <f t="shared" si="7"/>
-        <v>0.25314721105545768</v>
-      </c>
-      <c r="I47" s="18">
-        <f>H47/(H47+$K$6)</f>
-        <v>1.0124863209864749E-4</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>503.14009940682854</v>
-      </c>
-      <c r="K47" s="19">
-        <f t="shared" si="5"/>
-        <v>0.25312158024661874</v>
+        <v>27.81283801522196</v>
+      </c>
+      <c r="K47" s="18">
+        <f t="shared" si="4"/>
+        <v>7.7355395030685346E-4</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="6"/>
@@ -6753,35 +6720,35 @@
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>483.21312820571643</v>
+        <v>22.528399544939194</v>
       </c>
       <c r="E48">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-19.85776858537438</v>
+      </c>
+      <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>55.21580091269086</v>
-      </c>
-      <c r="F48">
+        <v>2.6706309595648143</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="5"/>
+        <v>25.031555049932436</v>
+      </c>
+      <c r="H48" s="18">
+        <f t="shared" si="6"/>
+        <v>6.2657874821779786E-4</v>
+      </c>
+      <c r="I48" s="17">
+        <f>H48/(H48+$K$2)</f>
+        <v>6.2657870895770756E-8</v>
+      </c>
+      <c r="J48" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>538.42892911840727</v>
-      </c>
-      <c r="G48" s="18">
-        <f t="shared" si="6"/>
-        <v>493.07462061807797</v>
-      </c>
-      <c r="H48" s="19">
-        <f t="shared" si="7"/>
-        <v>0.24312258149766156</v>
-      </c>
-      <c r="I48" s="18">
-        <f>H48/(H48+$K$6)</f>
-        <v>9.7239576144354239E-5</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>493.07903085181289</v>
-      </c>
-      <c r="K48" s="19">
-        <f t="shared" si="5"/>
-        <v>0.24309894036088558</v>
+        <v>25.03155364884454</v>
+      </c>
+      <c r="K48" s="18">
+        <f t="shared" si="4"/>
+        <v>6.2657870895770757E-4</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="6"/>
@@ -6798,35 +6765,35 @@
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>473.54886564160211</v>
+        <v>20.275559590445276</v>
       </c>
       <c r="E49">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>41.202397654091094</v>
+      </c>
+      <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>14.80089408486146</v>
-      </c>
-      <c r="F49">
+        <v>61.47795724453637</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" si="5"/>
+        <v>22.528399544939194</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="6"/>
+        <v>5.0752878605641639E-4</v>
+      </c>
+      <c r="I49" s="17">
+        <f>H49/(H49+$K$2)</f>
+        <v>5.0752876029787083E-8</v>
+      </c>
+      <c r="J49" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>488.34975972646356</v>
-      </c>
-      <c r="G49" s="18">
-        <f t="shared" si="6"/>
-        <v>483.21312820571643</v>
-      </c>
-      <c r="H49" s="19">
-        <f t="shared" si="7"/>
-        <v>0.23349492727035415</v>
-      </c>
-      <c r="I49" s="18">
-        <f>H49/(H49+$K$6)</f>
-        <v>9.3389248541823214E-5</v>
-      </c>
-      <c r="J49" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>483.21360791187419</v>
-      </c>
-      <c r="K49" s="19">
-        <f t="shared" si="5"/>
-        <v>0.23347312135455803</v>
+        <v>22.528401521741269</v>
+      </c>
+      <c r="K49" s="18">
+        <f t="shared" si="4"/>
+        <v>5.0752876029787081E-4</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="6"/>
@@ -6843,35 +6810,35 @@
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>464.07788832877003</v>
+        <v>18.248003631400749</v>
       </c>
       <c r="E50">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>65.325661585540004</v>
+      </c>
+      <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.3862143952128498</v>
-      </c>
-      <c r="F50">
+        <v>83.573665216940753</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="5"/>
+        <v>20.275559590445276</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="6"/>
+        <v>4.110983167056973E-4</v>
+      </c>
+      <c r="I50" s="17">
+        <f>H50/(H50+$K$2)</f>
+        <v>4.1109829980551536E-8</v>
+      </c>
+      <c r="J50" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>457.69167393355718</v>
-      </c>
-      <c r="G50" s="18">
-        <f t="shared" si="6"/>
-        <v>473.54886564160211</v>
-      </c>
-      <c r="H50" s="19">
-        <f t="shared" si="7"/>
-        <v>0.22424852815044813</v>
-      </c>
-      <c r="I50" s="18">
-        <f>H50/(H50+$K$6)</f>
-        <v>8.9691365997454165E-5</v>
-      </c>
-      <c r="J50" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>473.54744338841692</v>
-      </c>
-      <c r="K50" s="19">
-        <f t="shared" si="5"/>
-        <v>0.22422841499363538</v>
+        <v>20.275562192619635</v>
+      </c>
+      <c r="K50" s="18">
+        <f t="shared" si="4"/>
+        <v>4.1109829980551542E-4</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="6"/>
@@ -6888,35 +6855,35 @@
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>454.79633056219461</v>
+        <v>16.423203268260675</v>
       </c>
       <c r="E51">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-166.64976876217585</v>
+      </c>
+      <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>88.332983205462725</v>
-      </c>
-      <c r="F51">
+        <v>-150.22656549391519</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="5"/>
+        <v>18.248003631400749</v>
+      </c>
+      <c r="H51" s="18">
+        <f t="shared" si="6"/>
+        <v>3.3298963653161486E-4</v>
+      </c>
+      <c r="I51" s="17">
+        <f>H51/(H51+$K$2)</f>
+        <v>3.3298962544340542E-8</v>
+      </c>
+      <c r="J51" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>543.12931376765732</v>
-      </c>
-      <c r="G51" s="18">
-        <f t="shared" si="6"/>
-        <v>464.07788832877003</v>
-      </c>
-      <c r="H51" s="19">
-        <f t="shared" si="7"/>
-        <v>0.21536828643569036</v>
-      </c>
-      <c r="I51" s="18">
-        <f>H51/(H51+$K$6)</f>
-        <v>8.6139893853742945E-5</v>
-      </c>
-      <c r="J51" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>464.08469781016635</v>
-      </c>
-      <c r="K51" s="19">
-        <f t="shared" si="5"/>
-        <v>0.21534973463435733</v>
+        <v>18.247998021372382</v>
+      </c>
+      <c r="K51" s="18">
+        <f t="shared" si="4"/>
+        <v>3.3298962544340541E-4</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="6"/>
@@ -6933,35 +6900,35 @@
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>445.70040395095072</v>
+        <v>14.780882941434609</v>
       </c>
       <c r="E52">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-62.594523105327013</v>
+      </c>
+      <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>71.331636876944387</v>
-      </c>
-      <c r="F52">
+        <v>-47.813640163892401</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" si="5"/>
+        <v>16.423203268260675</v>
+      </c>
+      <c r="H52" s="18">
+        <f t="shared" si="6"/>
+        <v>2.6972160559060804E-4</v>
+      </c>
+      <c r="I52" s="17">
+        <f>H52/(H52+$K$2)</f>
+        <v>2.6972159831563379E-8</v>
+      </c>
+      <c r="J52" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>517.03204082789512</v>
-      </c>
-      <c r="G52" s="18">
-        <f t="shared" si="6"/>
-        <v>454.79633056219461</v>
-      </c>
-      <c r="H52" s="19">
-        <f t="shared" si="7"/>
-        <v>0.20683970229283702</v>
-      </c>
-      <c r="I52" s="18">
-        <f>H52/(H52+$K$6)</f>
-        <v>8.2729036257442632E-5</v>
-      </c>
-      <c r="J52" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>454.80147926252567</v>
-      </c>
-      <c r="K52" s="19">
-        <f t="shared" si="5"/>
-        <v>0.20682259064360656</v>
+        <v>16.423201535654268</v>
+      </c>
+      <c r="K52" s="18">
+        <f t="shared" si="4"/>
+        <v>2.697215983156338E-4</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="6"/>
@@ -6978,35 +6945,35 @@
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>436.78639587193169</v>
+        <v>13.302794647291147</v>
       </c>
       <c r="E53">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-12.440297942493311</v>
+      </c>
+      <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.8498703310087308</v>
-      </c>
-      <c r="F53">
+        <v>0.86249670479783624</v>
+      </c>
+      <c r="G53" s="17">
+        <f t="shared" si="5"/>
+        <v>14.780882941434609</v>
+      </c>
+      <c r="H53" s="18">
+        <f t="shared" si="6"/>
+        <v>2.1847450052839252E-4</v>
+      </c>
+      <c r="I53" s="17">
+        <f>H53/(H53+$K$2)</f>
+        <v>2.1847449575528187E-8</v>
+      </c>
+      <c r="J53" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>428.93652554092296</v>
-      </c>
-      <c r="G53" s="18">
-        <f t="shared" si="6"/>
-        <v>445.70040395095072</v>
-      </c>
-      <c r="H53" s="19">
-        <f t="shared" si="7"/>
-        <v>0.19864885008204067</v>
-      </c>
-      <c r="I53" s="18">
-        <f>H53/(H53+$K$6)</f>
-        <v>7.9453226715967289E-5</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>445.69907200671878</v>
-      </c>
-      <c r="K53" s="19">
-        <f t="shared" si="5"/>
-        <v>0.19863306678991824</v>
+        <v>14.780882637353367</v>
+      </c>
+      <c r="K53" s="18">
+        <f t="shared" si="4"/>
+        <v>2.1847449575528187E-4</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="6"/>
@@ -7023,35 +6990,35 @@
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>428.05066795449306</v>
+        <v>11.972515182562033</v>
       </c>
       <c r="E54">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-7.771424700830619</v>
+      </c>
+      <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>16.408255700510086</v>
-      </c>
-      <c r="F54">
+        <v>4.2010904817314136</v>
+      </c>
+      <c r="G54" s="17">
+        <f t="shared" si="5"/>
+        <v>13.302794647291147</v>
+      </c>
+      <c r="H54" s="18">
+        <f t="shared" si="6"/>
+        <v>1.7696434542799794E-4</v>
+      </c>
+      <c r="I54" s="17">
+        <f>H54/(H54+$K$2)</f>
+        <v>1.7696434229636003E-8</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>444.45892365500316</v>
-      </c>
-      <c r="G54" s="18">
-        <f t="shared" si="6"/>
-        <v>436.78639587193169</v>
-      </c>
-      <c r="H54" s="19">
-        <f t="shared" si="7"/>
-        <v>0.19078235561879187</v>
-      </c>
-      <c r="I54" s="18">
-        <f>H54/(H54+$K$6)</f>
-        <v>7.630711902674938E-5</v>
-      </c>
-      <c r="J54" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>436.78698134042247</v>
-      </c>
-      <c r="K54" s="19">
-        <f t="shared" si="5"/>
-        <v>0.19076779756687345</v>
+        <v>13.302794486223439</v>
+      </c>
+      <c r="K54" s="18">
+        <f t="shared" si="4"/>
+        <v>1.7696434229636003E-4</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="6"/>
@@ -7068,35 +7035,35 @@
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>419.48965459540318</v>
+        <v>10.775263664305829</v>
       </c>
       <c r="E55">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-7.4975467677898564</v>
+      </c>
+      <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2467037545803286</v>
-      </c>
-      <c r="F55">
+        <v>3.2777168965159724</v>
+      </c>
+      <c r="G55" s="17">
+        <f t="shared" si="5"/>
+        <v>11.972515182562033</v>
+      </c>
+      <c r="H55" s="18">
+        <f t="shared" si="6"/>
+        <v>1.4334111979667834E-4</v>
+      </c>
+      <c r="I55" s="17">
+        <f>H55/(H55+$K$2)</f>
+        <v>1.4334111774201071E-8</v>
+      </c>
+      <c r="J55" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>421.7363583499835</v>
-      </c>
-      <c r="G55" s="18">
-        <f t="shared" si="6"/>
-        <v>428.05066795449306</v>
-      </c>
-      <c r="H55" s="19">
-        <f t="shared" si="7"/>
-        <v>0.18322737433628772</v>
-      </c>
-      <c r="I55" s="18">
-        <f>H55/(H55+$K$6)</f>
-        <v>7.3285578564860233E-5</v>
-      </c>
-      <c r="J55" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>428.05020520666045</v>
-      </c>
-      <c r="K55" s="19">
-        <f t="shared" si="5"/>
-        <v>0.18321394641215055</v>
+        <v>11.972515057929822</v>
+      </c>
+      <c r="K55" s="18">
+        <f t="shared" si="4"/>
+        <v>1.433411177420107E-4</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="6"/>
@@ -7113,35 +7080,35 @@
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>411.09986150349511</v>
+        <v>9.6977372978752463</v>
       </c>
       <c r="E56">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>24.071893153332873</v>
+      </c>
+      <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>76.804094711018962</v>
-      </c>
-      <c r="F56">
+        <v>33.769630451208116</v>
+      </c>
+      <c r="G56" s="17">
+        <f t="shared" si="5"/>
+        <v>10.775263664305829</v>
+      </c>
+      <c r="H56" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1610630703530947E-4</v>
+      </c>
+      <c r="I56" s="17">
+        <f>H56/(H56+$K$2)</f>
+        <v>1.1610630568724204E-8</v>
+      </c>
+      <c r="J56" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>487.9039562145141</v>
-      </c>
-      <c r="G56" s="18">
-        <f t="shared" si="6"/>
-        <v>419.48965459540318</v>
-      </c>
-      <c r="H56" s="19">
-        <f t="shared" si="7"/>
-        <v>0.17597157031257071</v>
-      </c>
-      <c r="I56" s="18">
-        <f>H56/(H56+$K$6)</f>
-        <v>7.0383673914779023E-5</v>
-      </c>
-      <c r="J56" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>419.49446984529942</v>
-      </c>
-      <c r="K56" s="19">
-        <f t="shared" si="5"/>
-        <v>0.17595918478694755</v>
+        <v>10.775263931284927</v>
+      </c>
+      <c r="K56" s="18">
+        <f t="shared" si="4"/>
+        <v>1.1610630568724203E-4</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="6"/>
@@ -7158,35 +7125,35 @@
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>402.87786427342519</v>
+        <v>8.7279635680877217</v>
       </c>
       <c r="E57">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-146.34847594157276</v>
+      </c>
+      <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>-76.422157306822697</v>
-      </c>
-      <c r="F57">
+        <v>-137.62051237348504</v>
+      </c>
+      <c r="G57" s="17">
+        <f t="shared" si="5"/>
+        <v>9.6977372978752463</v>
+      </c>
+      <c r="H57" s="18">
+        <f t="shared" si="6"/>
+        <v>9.4046108698600672E-5</v>
+      </c>
+      <c r="I57" s="17">
+        <f>H57/(H57+$K$2)</f>
+        <v>9.404610781413363E-9</v>
+      </c>
+      <c r="J57" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>326.45570696660252</v>
-      </c>
-      <c r="G57" s="18">
-        <f t="shared" si="6"/>
-        <v>411.09986150349511</v>
-      </c>
-      <c r="H57" s="19">
-        <f t="shared" si="7"/>
-        <v>0.16900309612819292</v>
-      </c>
-      <c r="I57" s="18">
-        <f>H57/(H57+$K$6)</f>
-        <v>6.7596668832748891E-5</v>
-      </c>
-      <c r="J57" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>411.09413984061223</v>
-      </c>
-      <c r="K57" s="19">
-        <f t="shared" si="5"/>
-        <v>0.16899167208187224</v>
+        <v>9.6977359124044469</v>
+      </c>
+      <c r="K57" s="18">
+        <f t="shared" si="4"/>
+        <v>9.4046107814133625E-5</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
@@ -7203,35 +7170,35 @@
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>394.82030698795666</v>
+        <v>7.8551672112789497</v>
       </c>
       <c r="E58">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>165.17384947213696</v>
+      </c>
+      <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>82.935916148527127</v>
-      </c>
-      <c r="F58">
+        <v>173.0290166834159</v>
+      </c>
+      <c r="G58" s="17">
+        <f t="shared" si="5"/>
+        <v>8.7279635680877217</v>
+      </c>
+      <c r="H58" s="18">
+        <f t="shared" si="6"/>
+        <v>7.6177348045866554E-5</v>
+      </c>
+      <c r="I58" s="17">
+        <f>H58/(H58+$K$2)</f>
+        <v>7.6177347465567728E-9</v>
+      </c>
+      <c r="J58" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>477.75622313648375</v>
-      </c>
-      <c r="G58" s="18">
-        <f t="shared" si="6"/>
-        <v>402.87786427342519</v>
-      </c>
-      <c r="H58" s="19">
-        <f t="shared" si="7"/>
-        <v>0.16231057352151648</v>
-      </c>
-      <c r="I58" s="18">
-        <f>H58/(H58+$K$6)</f>
-        <v>6.4920014526690243E-5</v>
-      </c>
-      <c r="J58" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>402.8827253775703</v>
-      </c>
-      <c r="K58" s="19">
-        <f t="shared" si="5"/>
-        <v>0.16230003631672563</v>
+        <v>8.7279648196895625</v>
+      </c>
+      <c r="K58" s="18">
+        <f t="shared" si="4"/>
+        <v>7.6177347465567724E-5</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -7244,35 +7211,35 @@
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>386.92390084819749</v>
+        <v>7.0696504901510551</v>
       </c>
       <c r="E59">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>59.195241497276776</v>
+      </c>
+      <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>-50.020986121940624</v>
-      </c>
-      <c r="F59">
+        <v>66.264891987427831</v>
+      </c>
+      <c r="G59" s="17">
+        <f t="shared" si="5"/>
+        <v>7.8551672112789497</v>
+      </c>
+      <c r="H59" s="18">
+        <f t="shared" si="6"/>
+        <v>6.1703651917151923E-5</v>
+      </c>
+      <c r="I59" s="17">
+        <f>H59/(H59+$K$2)</f>
+        <v>6.1703651536417865E-9</v>
+      </c>
+      <c r="J59" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>336.90291472625688</v>
-      </c>
-      <c r="G59" s="18">
-        <f t="shared" si="6"/>
-        <v>394.82030698795666</v>
-      </c>
-      <c r="H59" s="19">
-        <f t="shared" si="7"/>
-        <v>0.15588307481006441</v>
-      </c>
-      <c r="I59" s="18">
-        <f>H59/(H59+$K$6)</f>
-        <v>6.2349342241153395E-5</v>
-      </c>
-      <c r="J59" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>394.81669587664481</v>
-      </c>
-      <c r="K59" s="19">
-        <f t="shared" si="5"/>
-        <v>0.15587335560288348</v>
+        <v>7.8551675716882805</v>
+      </c>
+      <c r="K59" s="18">
+        <f t="shared" si="4"/>
+        <v>6.1703651536417864E-5</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -7285,35 +7252,35 @@
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>379.18542283123355</v>
+        <v>6.3626854411359499</v>
       </c>
       <c r="E60">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-26.548299394713638</v>
+      </c>
+      <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>18.34637012579411</v>
-      </c>
-      <c r="F60">
+        <v>-20.185613953577686</v>
+      </c>
+      <c r="G60" s="17">
+        <f t="shared" si="5"/>
+        <v>7.0696504901510551</v>
+      </c>
+      <c r="H60" s="18">
+        <f t="shared" si="6"/>
+        <v>4.9979958052893058E-5</v>
+      </c>
+      <c r="I60" s="17">
+        <f>H60/(H60+$K$2)</f>
+        <v>4.9979957803093433E-9</v>
+      </c>
+      <c r="J60" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>397.53179295702768</v>
-      </c>
-      <c r="G60" s="18">
-        <f t="shared" si="6"/>
-        <v>386.92390084819749</v>
-      </c>
-      <c r="H60" s="19">
-        <f t="shared" si="7"/>
-        <v>0.14971010504758586</v>
-      </c>
-      <c r="I60" s="18">
-        <f>H60/(H60+$K$6)</f>
-        <v>5.9880456135283017E-5</v>
-      </c>
-      <c r="J60" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>386.92453605361561</v>
-      </c>
-      <c r="K60" s="19">
-        <f t="shared" si="5"/>
-        <v>0.14970114033820756</v>
+        <v>7.069650353929358</v>
+      </c>
+      <c r="K60" s="18">
+        <f t="shared" si="4"/>
+        <v>4.997995780309344E-5</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -7326,35 +7293,35 @@
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>371.60171437460889</v>
+        <v>5.7264168970223555</v>
       </c>
       <c r="E61">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-2.3684327992723189</v>
+      </c>
+      <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>-51.413208921494849</v>
-      </c>
-      <c r="F61">
+        <v>3.3579840977500366</v>
+      </c>
+      <c r="G61" s="17">
+        <f t="shared" si="5"/>
+        <v>6.3626854411359499</v>
+      </c>
+      <c r="H61" s="18">
+        <f t="shared" si="6"/>
+        <v>4.0483766022843381E-5</v>
+      </c>
+      <c r="I61" s="17">
+        <f>H61/(H61+$K$2)</f>
+        <v>4.048376585894985E-9</v>
+      </c>
+      <c r="J61" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>320.18850545311403</v>
-      </c>
-      <c r="G61" s="18">
-        <f t="shared" si="6"/>
-        <v>379.18542283123355</v>
-      </c>
-      <c r="H61" s="19">
-        <f t="shared" si="7"/>
-        <v>0.14378158488770146</v>
-      </c>
-      <c r="I61" s="18">
-        <f>H61/(H61+$K$6)</f>
-        <v>5.7509326442239906E-5</v>
-      </c>
-      <c r="J61" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>379.18202995825294</v>
-      </c>
-      <c r="K61" s="19">
-        <f t="shared" si="5"/>
-        <v>0.14377331610559976</v>
+        <v>6.3626854289717869</v>
+      </c>
+      <c r="K61" s="18">
+        <f t="shared" si="4"/>
+        <v>4.0483765858949852E-5</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -7367,35 +7334,35 @@
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>364.16968008711672</v>
+        <v>5.1537752073201197</v>
       </c>
       <c r="E62">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>35.587077080653948</v>
+      </c>
+      <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>-12.820145450106221</v>
-      </c>
-      <c r="F62">
+        <v>40.740852287974064</v>
+      </c>
+      <c r="G62" s="17">
+        <f t="shared" si="5"/>
+        <v>5.7264168970223555</v>
+      </c>
+      <c r="H62" s="18">
+        <f t="shared" si="6"/>
+        <v>3.2791850478503139E-5</v>
+      </c>
+      <c r="I62" s="17">
+        <f>H62/(H62+$K$2)</f>
+        <v>3.2791850370972594E-9</v>
+      </c>
+      <c r="J62" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>351.34953463701049</v>
-      </c>
-      <c r="G62" s="18">
-        <f t="shared" si="6"/>
-        <v>371.60171437460889</v>
-      </c>
-      <c r="H62" s="19">
-        <f t="shared" si="7"/>
-        <v>0.13808783412614847</v>
-      </c>
-      <c r="I62" s="18">
-        <f>H62/(H62+$K$6)</f>
-        <v>5.5232082898978673E-5</v>
-      </c>
-      <c r="J62" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>371.60059580453873</v>
-      </c>
-      <c r="K62" s="19">
-        <f t="shared" si="5"/>
-        <v>0.13808020724744668</v>
+        <v>5.7264170118411677</v>
+      </c>
+      <c r="K62" s="18">
+        <f t="shared" si="4"/>
+        <v>3.2791850370972591E-5</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -7408,35 +7375,35 @@
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>356.8862864853744</v>
+        <v>4.6383976865881076</v>
       </c>
       <c r="E63">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-168.60371071211185</v>
+      </c>
+      <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.7186365185462709</v>
-      </c>
-      <c r="F63">
+        <v>-163.96531302552373</v>
+      </c>
+      <c r="G63" s="17">
+        <f t="shared" si="5"/>
+        <v>5.1537752073201197</v>
+      </c>
+      <c r="H63" s="18">
+        <f t="shared" si="6"/>
+        <v>2.6561398887587544E-5</v>
+      </c>
+      <c r="I63" s="17">
+        <f>H63/(H63+$K$2)</f>
+        <v>2.6561398817036754E-9</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>348.16764996682815</v>
-      </c>
-      <c r="G63" s="18">
-        <f t="shared" si="6"/>
-        <v>364.16968008711672</v>
-      </c>
-      <c r="H63" s="19">
-        <f t="shared" si="7"/>
-        <v>0.13261955589475299</v>
-      </c>
-      <c r="I63" s="18">
-        <f>H63/(H63+$K$6)</f>
-        <v>5.3045008435716723E-5</v>
-      </c>
-      <c r="J63" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>364.168831259294</v>
-      </c>
-      <c r="K63" s="19">
-        <f t="shared" si="5"/>
-        <v>0.13261252108929181</v>
+        <v>5.1537747581161648</v>
+      </c>
+      <c r="K63" s="18">
+        <f t="shared" si="4"/>
+        <v>2.6561398817036753E-5</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -7449,35 +7416,35 @@
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>349.74856075566692</v>
+        <v>4.1745579179292971</v>
       </c>
       <c r="E64">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-30.738696768013103</v>
+      </c>
+      <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>58.259856185174627</v>
-      </c>
-      <c r="F64">
+        <v>-26.564138850083808</v>
+      </c>
+      <c r="G64" s="17">
+        <f t="shared" si="5"/>
+        <v>4.6383976865881076</v>
+      </c>
+      <c r="H64" s="18">
+        <f t="shared" si="6"/>
+        <v>2.1514733098945913E-5</v>
+      </c>
+      <c r="I64" s="17">
+        <f>H64/(H64+$K$2)</f>
+        <v>2.1514733052657536E-9</v>
+      </c>
+      <c r="J64" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>408.00841694084153</v>
-      </c>
-      <c r="G64" s="18">
-        <f t="shared" si="6"/>
-        <v>356.8862864853744</v>
-      </c>
-      <c r="H64" s="19">
-        <f t="shared" si="7"/>
-        <v>0.12736782148132078</v>
-      </c>
-      <c r="I64" s="18">
-        <f>H64/(H64+$K$6)</f>
-        <v>5.0944533114848625E-5</v>
-      </c>
-      <c r="J64" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>356.88889087844228</v>
-      </c>
-      <c r="K64" s="19">
-        <f t="shared" si="5"/>
-        <v>0.12736133278712156</v>
+        <v>4.6383976194566836</v>
+      </c>
+      <c r="K64" s="18">
+        <f t="shared" si="4"/>
+        <v>2.1514733052657537E-5</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -7490,35 +7457,35 @@
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>342.75358954055355</v>
+        <v>3.7571021261363673</v>
       </c>
       <c r="E65">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>115.0174517737095</v>
+      </c>
+      <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5096760739819133</v>
-      </c>
-      <c r="F65">
+        <v>118.77455389984587</v>
+      </c>
+      <c r="G65" s="17">
+        <f t="shared" si="5"/>
+        <v>4.1745579179292971</v>
+      </c>
+      <c r="H65" s="18">
+        <f t="shared" si="6"/>
+        <v>1.7426933810146192E-5</v>
+      </c>
+      <c r="I65" s="17">
+        <f>H65/(H65+$K$2)</f>
+        <v>1.742693377977639E-9</v>
+      </c>
+      <c r="J65" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>341.24391346657166</v>
-      </c>
-      <c r="G65" s="18">
-        <f t="shared" si="6"/>
-        <v>349.74856075566692</v>
-      </c>
-      <c r="H65" s="19">
-        <f t="shared" si="7"/>
-        <v>0.12232405575066048</v>
-      </c>
-      <c r="I65" s="18">
-        <f>H65/(H65+$K$6)</f>
-        <v>4.8927228309462814E-5</v>
-      </c>
-      <c r="J65" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>349.74814464684732</v>
-      </c>
-      <c r="K65" s="19">
-        <f t="shared" si="5"/>
-        <v>0.12231807077365701</v>
+        <v>4.1745581176419515</v>
+      </c>
+      <c r="K65" s="18">
+        <f t="shared" si="4"/>
+        <v>1.7426933779776391E-5</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -7531,35 +7498,35 @@
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>335.8985177497425</v>
+        <v>3.3813919135227306</v>
       </c>
       <c r="E66">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-29.59256391357701</v>
+      </c>
+      <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>-36.070481543752685</v>
-      </c>
-      <c r="F66">
+        <v>-26.21117200005428</v>
+      </c>
+      <c r="G66" s="17">
+        <f t="shared" si="5"/>
+        <v>3.7571021261363673</v>
+      </c>
+      <c r="H66" s="18">
+        <f t="shared" si="6"/>
+        <v>1.4115816386218418E-5</v>
+      </c>
+      <c r="I66" s="17">
+        <f>H66/(H66+$K$2)</f>
+        <v>1.4115816366292792E-9</v>
+      </c>
+      <c r="J66" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>299.8280362059898</v>
-      </c>
-      <c r="G66" s="18">
-        <f t="shared" si="6"/>
-        <v>342.75358954055355</v>
-      </c>
-      <c r="H66" s="19">
-        <f t="shared" si="7"/>
-        <v>0.11748002314293432</v>
-      </c>
-      <c r="I66" s="18">
-        <f>H66/(H66+$K$6)</f>
-        <v>4.6989801112004879E-5</v>
-      </c>
-      <c r="J66" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>342.75157247733972</v>
-      </c>
-      <c r="K66" s="19">
-        <f t="shared" si="5"/>
-        <v>0.1174745027800122</v>
+        <v>3.7571020838337019</v>
+      </c>
+      <c r="K66" s="18">
+        <f t="shared" si="4"/>
+        <v>1.4115816366292791E-5</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -7572,35 +7539,35 @@
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>329.18054739474763</v>
+        <v>3.0432527221704575</v>
       </c>
       <c r="E67">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-138.84086102192902</v>
+      </c>
+      <c r="F67">
         <f t="shared" ca="1" si="2"/>
-        <v>-32.570016665553943</v>
-      </c>
-      <c r="F67">
+        <v>-135.79760829975856</v>
+      </c>
+      <c r="G67" s="17">
+        <f t="shared" si="5"/>
+        <v>3.3813919135227306</v>
+      </c>
+      <c r="H67" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1433811272836918E-5</v>
+      </c>
+      <c r="I67" s="17">
+        <f>H67/(H67+$K$2)</f>
+        <v>1.1433811259763713E-9</v>
+      </c>
+      <c r="J67" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>296.61053072919367</v>
-      </c>
-      <c r="G67" s="18">
-        <f t="shared" si="6"/>
-        <v>335.8985177497425</v>
-      </c>
-      <c r="H67" s="19">
-        <f t="shared" si="7"/>
-        <v>0.11282781422647412</v>
-      </c>
-      <c r="I67" s="18">
-        <f>H67/(H67+$K$6)</f>
-        <v>4.5129088964003313E-5</v>
-      </c>
-      <c r="J67" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>335.89674471868102</v>
-      </c>
-      <c r="K67" s="19">
-        <f t="shared" si="5"/>
-        <v>0.11282272241000828</v>
+        <v>3.3813917543880887</v>
+      </c>
+      <c r="K67" s="18">
+        <f t="shared" si="4"/>
+        <v>1.1433811259763713E-5</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -7613,35 +7580,35 @@
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>322.59693644685268</v>
+        <v>2.7389274499534118</v>
       </c>
       <c r="E68">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>118.2528134482054</v>
+      </c>
+      <c r="F68">
         <f t="shared" ca="1" si="2"/>
-        <v>24.691826821663419</v>
-      </c>
-      <c r="F68">
+        <v>120.99174089815881</v>
+      </c>
+      <c r="G68" s="17">
+        <f t="shared" si="5"/>
+        <v>3.0432527221704575</v>
+      </c>
+      <c r="H68" s="18">
+        <f t="shared" si="6"/>
+        <v>9.2613871309979044E-6</v>
+      </c>
+      <c r="I68" s="17">
+        <f>H68/(H68+$K$2)</f>
+        <v>9.2613871224205755E-10</v>
+      </c>
+      <c r="J68" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>347.28876326851611</v>
-      </c>
-      <c r="G68" s="18">
-        <f t="shared" si="6"/>
-        <v>329.18054739474763</v>
-      </c>
-      <c r="H68" s="19">
-        <f t="shared" si="7"/>
-        <v>0.10835983278310574</v>
-      </c>
-      <c r="I68" s="18">
-        <f>H68/(H68+$K$6)</f>
-        <v>4.3342054498131132E-5</v>
-      </c>
-      <c r="J68" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>329.18133224202688</v>
-      </c>
-      <c r="K68" s="19">
-        <f t="shared" si="5"/>
-        <v>0.10835513624532783</v>
+        <v>3.0432528314071186</v>
+      </c>
+      <c r="K68" s="18">
+        <f t="shared" si="4"/>
+        <v>9.2613871224205743E-6</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -7654,35 +7621,35 @@
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>316.1449977179156</v>
+        <v>2.4650347049580708</v>
       </c>
       <c r="E69">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-42.681902071665561</v>
+      </c>
+      <c r="F69">
         <f t="shared" ca="1" si="2"/>
-        <v>-58.653052927555592</v>
-      </c>
-      <c r="F69">
+        <v>-40.21686736670749</v>
+      </c>
+      <c r="G69" s="17">
+        <f t="shared" si="5"/>
+        <v>2.7389274499534118</v>
+      </c>
+      <c r="H69" s="18">
+        <f t="shared" si="6"/>
+        <v>7.5017235761083038E-6</v>
+      </c>
+      <c r="I69" s="17">
+        <f>H69/(H69+$K$2)</f>
+        <v>7.5017235704807185E-10</v>
+      </c>
+      <c r="J69" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>257.49194479035998</v>
-      </c>
-      <c r="G69" s="18">
-        <f t="shared" si="6"/>
-        <v>322.59693644685268</v>
-      </c>
-      <c r="H69" s="19">
-        <f t="shared" si="7"/>
-        <v>0.10406878340489474</v>
-      </c>
-      <c r="I69" s="18">
-        <f>H69/(H69+$K$6)</f>
-        <v>4.1625780584220425E-5</v>
-      </c>
-      <c r="J69" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>322.59422640075508</v>
-      </c>
-      <c r="K69" s="19">
-        <f t="shared" si="5"/>
-        <v>0.10406445146055106</v>
+        <v>2.7389274177291618</v>
+      </c>
+      <c r="K69" s="18">
+        <f t="shared" si="4"/>
+        <v>7.5017235704807177E-6</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -7695,35 +7662,35 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>309.82209776355728</v>
+        <v>2.2185312344622639</v>
       </c>
       <c r="E70">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-105.76385479357131</v>
+      </c>
+      <c r="F70">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.5776186081183754</v>
-      </c>
-      <c r="F70">
+        <v>-103.54532355910905</v>
+      </c>
+      <c r="G70" s="17">
+        <f t="shared" si="5"/>
+        <v>2.4650347049580708</v>
+      </c>
+      <c r="H70" s="18">
+        <f t="shared" si="6"/>
+        <v>6.0763960966477263E-6</v>
+      </c>
+      <c r="I70" s="17">
+        <f>H70/(H70+$K$2)</f>
+        <v>6.0763960929554673E-10</v>
+      </c>
+      <c r="J70" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>306.24447915543891</v>
-      </c>
-      <c r="G70" s="18">
-        <f t="shared" si="6"/>
-        <v>316.1449977179156</v>
-      </c>
-      <c r="H70" s="19">
-        <f t="shared" si="7"/>
-        <v>9.9947659582060908E-2</v>
-      </c>
-      <c r="I70" s="18">
-        <f>H70/(H70+$K$6)</f>
-        <v>3.9977465571176419E-5</v>
-      </c>
-      <c r="J70" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>316.14460192027565</v>
-      </c>
-      <c r="K70" s="19">
-        <f t="shared" si="5"/>
-        <v>9.9943663927941045E-2</v>
+        <v>2.4650346405419783</v>
+      </c>
+      <c r="K70" s="18">
+        <f t="shared" si="4"/>
+        <v>6.0763960929554673E-6</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -7736,35 +7703,35 @@
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>303.62565580828613</v>
+        <v>1.9966781110160374</v>
       </c>
       <c r="E71">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-59.093471862907684</v>
+      </c>
+      <c r="F71">
         <f t="shared" ca="1" si="2"/>
-        <v>51.346276769176832</v>
-      </c>
-      <c r="F71">
+        <v>-57.096793751891646</v>
+      </c>
+      <c r="G71" s="17">
+        <f t="shared" si="5"/>
+        <v>2.2185312344622639</v>
+      </c>
+      <c r="H71" s="18">
+        <f t="shared" si="6"/>
+        <v>4.9218808382846585E-6</v>
+      </c>
+      <c r="I71" s="17">
+        <f>H71/(H71+$K$2)</f>
+        <v>4.9218808358621669E-10</v>
+      </c>
+      <c r="J71" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>354.97193257746295</v>
-      </c>
-      <c r="G71" s="18">
-        <f t="shared" si="6"/>
-        <v>309.82209776355728</v>
-      </c>
-      <c r="H71" s="19">
-        <f t="shared" si="7"/>
-        <v>9.5989732262611302E-2</v>
-      </c>
-      <c r="I71" s="18">
-        <f>H71/(H71+$K$6)</f>
-        <v>3.839441871705531E-5</v>
-      </c>
-      <c r="J71" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>309.82383126522012</v>
-      </c>
-      <c r="K71" s="19">
-        <f t="shared" si="5"/>
-        <v>9.598604679263828E-2</v>
+        <v>2.2185312052679675</v>
+      </c>
+      <c r="K71" s="18">
+        <f t="shared" si="4"/>
+        <v>4.9218808358621672E-6</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -7777,35 +7744,35 @@
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>297.55314269212039</v>
+        <v>1.7970102999144337</v>
       </c>
       <c r="E72">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-47.568860861415189</v>
+      </c>
+      <c r="F72">
         <f t="shared" ca="1" si="2"/>
-        <v>52.189732922261697</v>
-      </c>
-      <c r="F72">
+        <v>-45.771850561500756</v>
+      </c>
+      <c r="G72" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9966781110160374</v>
+      </c>
+      <c r="H72" s="18">
+        <f t="shared" si="6"/>
+        <v>3.986723479010574E-6</v>
+      </c>
+      <c r="I72" s="17">
+        <f>H72/(H72+$K$2)</f>
+        <v>3.9867234774211777E-10</v>
+      </c>
+      <c r="J72" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>349.74287561438211</v>
-      </c>
-      <c r="G72" s="18">
-        <f t="shared" si="6"/>
-        <v>303.62565580828613</v>
-      </c>
-      <c r="H72" s="19">
-        <f t="shared" si="7"/>
-        <v>9.2188538865011896E-2</v>
-      </c>
-      <c r="I72" s="18">
-        <f>H72/(H72+$K$6)</f>
-        <v>3.6874055799874269E-5</v>
-      </c>
-      <c r="J72" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>303.62735633722258</v>
-      </c>
-      <c r="K72" s="19">
-        <f t="shared" si="5"/>
-        <v>9.2185139499685681E-2</v>
+        <v>1.9966780919720459</v>
+      </c>
+      <c r="K72" s="18">
+        <f t="shared" si="4"/>
+        <v>3.9867234774211776E-6</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -7818,35 +7785,35 @@
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>291.60207983827797</v>
+        <v>1.6173092699229903</v>
       </c>
       <c r="E73">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-55.375099065730282</v>
+      </c>
+      <c r="F73">
         <f t="shared" ca="1" si="2"/>
-        <v>-35.252545663830922</v>
-      </c>
-      <c r="F73">
+        <v>-53.757789795807291</v>
+      </c>
+      <c r="G73" s="17">
+        <f t="shared" si="5"/>
+        <v>1.7970102999144337</v>
+      </c>
+      <c r="H73" s="18">
+        <f t="shared" si="6"/>
+        <v>3.2292460179985649E-6</v>
+      </c>
+      <c r="I73" s="17">
+        <f>H73/(H73+$K$2)</f>
+        <v>3.229246016955762E-10</v>
+      </c>
+      <c r="J73" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>256.34953417444706</v>
-      </c>
-      <c r="G73" s="18">
-        <f t="shared" si="6"/>
-        <v>297.55314269212039</v>
-      </c>
-      <c r="H73" s="19">
-        <f t="shared" si="7"/>
-        <v>8.8537872725957423E-2</v>
-      </c>
-      <c r="I73" s="18">
-        <f>H73/(H73+$K$6)</f>
-        <v>3.5413894902015143E-5</v>
-      </c>
-      <c r="J73" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>297.55168351185876</v>
-      </c>
-      <c r="K73" s="19">
-        <f t="shared" si="5"/>
-        <v>8.8534737255037854E-2</v>
+        <v>1.797010281974422</v>
+      </c>
+      <c r="K73" s="18">
+        <f t="shared" si="4"/>
+        <v>3.2292460169557619E-6</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -7859,35 +7826,35 @@
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>285.7700382415124</v>
+        <v>1.4555783429306912</v>
       </c>
       <c r="E74">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>53.114171413604858</v>
+      </c>
+      <c r="F74">
         <f t="shared" ca="1" si="2"/>
-        <v>22.882581289836207</v>
-      </c>
-      <c r="F74">
+        <v>54.56974975653555</v>
+      </c>
+      <c r="G74" s="17">
+        <f t="shared" si="5"/>
+        <v>1.6173092699229903</v>
+      </c>
+      <c r="H74" s="18">
+        <f t="shared" si="6"/>
+        <v>2.6156892745788378E-6</v>
+      </c>
+      <c r="I74" s="17">
+        <f>H74/(H74+$K$2)</f>
+        <v>2.615689273894655E-10</v>
+      </c>
+      <c r="J74" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>308.65261953134859</v>
-      </c>
-      <c r="G74" s="18">
-        <f t="shared" si="6"/>
-        <v>291.60207983827797</v>
-      </c>
-      <c r="H74" s="19">
-        <f t="shared" si="7"/>
-        <v>8.50317729660095E-2</v>
-      </c>
-      <c r="I74" s="18">
-        <f>H74/(H74+$K$6)</f>
-        <v>3.4011552361364354E-5</v>
-      </c>
-      <c r="J74" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>291.60265975360153</v>
-      </c>
-      <c r="K74" s="19">
-        <f t="shared" si="5"/>
-        <v>8.5028880903410889E-2</v>
+        <v>1.6173092837737033</v>
+      </c>
+      <c r="K74" s="18">
+        <f t="shared" si="4"/>
+        <v>2.615689273894655E-6</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -7900,35 +7867,35 @@
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>280.05463747668216</v>
+        <v>1.3100205086376222</v>
       </c>
       <c r="E75">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-131.18117686468435</v>
+      </c>
+      <c r="F75">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.959365541245218</v>
-      </c>
-      <c r="F75">
+        <v>-129.87115635604673</v>
+      </c>
+      <c r="G75" s="17">
+        <f t="shared" si="5"/>
+        <v>1.4555783429306912</v>
+      </c>
+      <c r="H75" s="18">
+        <f t="shared" si="6"/>
+        <v>2.1187083124088588E-6</v>
+      </c>
+      <c r="I75" s="17">
+        <f>H75/(H75+$K$2)</f>
+        <v>2.1187083119599663E-10</v>
+      </c>
+      <c r="J75" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>268.09527193543693</v>
-      </c>
-      <c r="G75" s="18">
-        <f t="shared" si="6"/>
-        <v>285.7700382415124</v>
-      </c>
-      <c r="H75" s="19">
-        <f t="shared" si="7"/>
-        <v>8.1664514756555534E-2</v>
-      </c>
-      <c r="I75" s="18">
-        <f>H75/(H75+$K$6)</f>
-        <v>3.2664738882602012E-5</v>
-      </c>
-      <c r="J75" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>285.76946089988621</v>
-      </c>
-      <c r="K75" s="19">
-        <f t="shared" si="5"/>
-        <v>8.1661847206505031E-2</v>
+        <v>1.4555783151063868</v>
+      </c>
+      <c r="K75" s="18">
+        <f t="shared" si="4"/>
+        <v>2.1187083119599661E-6</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -7941,35 +7908,35 @@
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>274.45354472714854</v>
+        <v>1.1790184577738601</v>
       </c>
       <c r="E76">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>274.03433678733904</v>
+      </c>
+      <c r="F76">
         <f t="shared" ca="1" si="2"/>
-        <v>-22.019132247466558</v>
-      </c>
-      <c r="F76">
+        <v>275.21335524511289</v>
+      </c>
+      <c r="G76" s="17">
+        <f t="shared" si="5"/>
+        <v>1.3100205086376222</v>
+      </c>
+      <c r="H76" s="18">
+        <f t="shared" si="6"/>
+        <v>1.7161537330511758E-6</v>
+      </c>
+      <c r="I76" s="17">
+        <f>H76/(H76+$K$2)</f>
+        <v>1.7161537327566575E-10</v>
+      </c>
+      <c r="J76" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>252.43441247968198</v>
-      </c>
-      <c r="G76" s="18">
-        <f t="shared" si="6"/>
-        <v>280.05463747668216</v>
-      </c>
-      <c r="H76" s="19">
-        <f t="shared" si="7"/>
-        <v>7.8430599972195938E-2</v>
-      </c>
-      <c r="I76" s="18">
-        <f>H76/(H76+$K$6)</f>
-        <v>3.1371255802312588E-5</v>
-      </c>
-      <c r="J76" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>280.05377099553846</v>
-      </c>
-      <c r="K76" s="19">
-        <f t="shared" si="5"/>
-        <v>7.842813950578148E-2</v>
+        <v>1.3100205556436453</v>
+      </c>
+      <c r="K76" s="18">
+        <f t="shared" si="4"/>
+        <v>1.7161537327566573E-6</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -7982,35 +7949,35 @@
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
-        <v>268.96447383260556</v>
+        <v>1.0611166119964741</v>
       </c>
       <c r="E77">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>68.79811674131021</v>
+      </c>
+      <c r="F77">
         <f t="shared" ca="1" si="2"/>
-        <v>-23.566556643576032</v>
-      </c>
-      <c r="F77">
+        <v>69.859233353306678</v>
+      </c>
+      <c r="G77" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1790184577738601</v>
+      </c>
+      <c r="H77" s="18">
+        <f t="shared" si="6"/>
+        <v>1.3900845237714525E-6</v>
+      </c>
+      <c r="I77" s="17">
+        <f>H77/(H77+$K$2)</f>
+        <v>1.390084523578219E-10</v>
+      </c>
+      <c r="J77" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>245.39791718902953</v>
-      </c>
-      <c r="G77" s="18">
-        <f t="shared" si="6"/>
-        <v>274.45354472714854</v>
-      </c>
-      <c r="H77" s="19">
-        <f t="shared" si="7"/>
-        <v>7.5324748213296988E-2</v>
-      </c>
-      <c r="I77" s="18">
-        <f>H77/(H77+$K$6)</f>
-        <v>3.0128991501839274E-5</v>
-      </c>
-      <c r="J77" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>274.45266931039339</v>
-      </c>
-      <c r="K77" s="19">
-        <f t="shared" si="5"/>
-        <v>7.5322478754598202E-2</v>
+        <v>1.1790184673209905</v>
+      </c>
+      <c r="K77" s="18">
+        <f t="shared" si="4"/>
+        <v>1.3900845235782189E-6</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8018,40 +7985,40 @@
         <v>65</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" ref="B78:B113" si="8">A78*$B$7+$B$8</f>
+        <f t="shared" ref="B78:B113" si="7">A78*$B$7+$B$8</f>
         <v>6.5</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:D113" si="9">$B$2*G78</f>
-        <v>263.58518435595346</v>
+        <f t="shared" ref="D78:D113" si="8">$B$2*G78</f>
+        <v>0.95500495079682668</v>
       </c>
       <c r="E78">
-        <f t="shared" ref="E78:E113" ca="1" si="10">IF($K$3=0,$K$2,NORMINV(RAND(),$K$2,$K$3))</f>
-        <v>-12.840352648919445</v>
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>130.21657743817838</v>
       </c>
       <c r="F78">
-        <f t="shared" ref="F78:F113" ca="1" si="11">D78+E78</f>
-        <v>250.74483170703402</v>
-      </c>
-      <c r="G78" s="18">
+        <f t="shared" ref="F78:F113" ca="1" si="9">D78+E78</f>
+        <v>131.1715823889752</v>
+      </c>
+      <c r="G78" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0611166119964741</v>
+      </c>
+      <c r="H78" s="18">
         <f t="shared" si="6"/>
-        <v>268.96447383260556</v>
-      </c>
-      <c r="H78" s="19">
-        <f t="shared" si="7"/>
-        <v>7.2341888184050421E-2</v>
-      </c>
-      <c r="I78" s="18">
-        <f>H78/(H78+$K$6)</f>
-        <v>2.8935917962043486E-5</v>
+        <v>1.1259684642548765E-6</v>
+      </c>
+      <c r="I78" s="17">
+        <f>H78/(H78+$K$2)</f>
+        <v>1.125968464128096E-10</v>
       </c>
       <c r="J78" s="9">
-        <f t="shared" ref="J78:J113" ca="1" si="12">G78+I78*(F78-G78)</f>
-        <v>268.9639466305357</v>
-      </c>
-      <c r="K78" s="19">
-        <f t="shared" ref="K78:K113" si="13">(1-I78)*H78</f>
-        <v>7.2339794905108709E-2</v>
+        <f t="shared" ref="J78:J113" ca="1" si="10">G78+I78*(F78-G78)</f>
+        <v>1.0611166266465022</v>
+      </c>
+      <c r="K78" s="18">
+        <f t="shared" ref="K78:K113" si="11">(1-I78)*H78</f>
+        <v>1.125968464128096E-6</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8059,40 +8026,40 @@
         <v>66</v>
       </c>
       <c r="B79" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="8"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="9"/>
-        <v>258.31348066883436</v>
+        <v>0.85950445571714407</v>
       </c>
       <c r="E79">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>51.44347908640696</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="9"/>
+        <v>52.302983542124103</v>
+      </c>
+      <c r="G79" s="17">
+        <f t="shared" ref="G79:G113" si="12">$B$2*G78</f>
+        <v>0.95500495079682668</v>
+      </c>
+      <c r="H79" s="18">
+        <f t="shared" ref="H79:H113" si="13">$B$2*H78*$B$2</f>
+        <v>9.1203445604644998E-7</v>
+      </c>
+      <c r="I79" s="17">
+        <f>H79/(H79+$K$2)</f>
+        <v>9.1203445596326935E-11</v>
+      </c>
+      <c r="J79" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-33.686249047580816</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ca="1" si="11"/>
-        <v>224.62723162125354</v>
-      </c>
-      <c r="G79" s="18">
-        <f t="shared" ref="G79:G113" si="14">$B$2*G78</f>
-        <v>263.58518435595346</v>
-      </c>
-      <c r="H79" s="19">
-        <f t="shared" ref="H79:H113" si="15">$B$2*H78*$B$2</f>
-        <v>6.9477149411962022E-2</v>
-      </c>
-      <c r="I79" s="18">
-        <f>H79/(H79+$K$6)</f>
-        <v>2.7790087454361515E-5</v>
-      </c>
-      <c r="J79" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>263.58410171103992</v>
-      </c>
-      <c r="K79" s="19">
-        <f t="shared" si="13"/>
-        <v>6.9475218635903779E-2</v>
+        <v>0.95500495547993924</v>
+      </c>
+      <c r="K79" s="18">
+        <f t="shared" si="11"/>
+        <v>9.1203445596326922E-7</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8100,40 +8067,40 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
+        <f t="shared" si="7"/>
+        <v>6.7</v>
+      </c>
+      <c r="D80">
         <f t="shared" si="8"/>
-        <v>6.7</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="9"/>
-        <v>253.14721105545766</v>
+        <v>0.77355401014542968</v>
       </c>
       <c r="E80">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>177.81048170938055</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="9"/>
+        <v>178.58403571952599</v>
+      </c>
+      <c r="G80" s="17">
+        <f t="shared" si="12"/>
+        <v>0.85950445571714407</v>
+      </c>
+      <c r="H80" s="18">
+        <f t="shared" si="13"/>
+        <v>7.3874790939762443E-7</v>
+      </c>
+      <c r="I80" s="17">
+        <f>H80/(H80+$K$2)</f>
+        <v>7.3874790934304959E-11</v>
+      </c>
+      <c r="J80" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>33.511600818433685</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="11"/>
-        <v>286.65881187389135</v>
-      </c>
-      <c r="G80" s="18">
-        <f t="shared" si="14"/>
-        <v>258.31348066883436</v>
-      </c>
-      <c r="H80" s="19">
-        <f t="shared" si="15"/>
-        <v>6.6725854295248313E-2</v>
-      </c>
-      <c r="I80" s="18">
-        <f>H80/(H80+$K$6)</f>
-        <v>2.6689629362771301E-5</v>
-      </c>
-      <c r="J80" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>258.31423719521837</v>
-      </c>
-      <c r="K80" s="19">
-        <f t="shared" si="13"/>
-        <v>6.672407340692825E-2</v>
+        <v>0.85950446884650666</v>
+      </c>
+      <c r="K80" s="18">
+        <f t="shared" si="11"/>
+        <v>7.3874790934304957E-7</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8141,40 +8108,40 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
+        <f t="shared" si="7"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="8"/>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="9"/>
-        <v>248.08426683434851</v>
+        <v>0.69619860913088671</v>
       </c>
       <c r="E81">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>85.621239700310568</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="9"/>
+        <v>86.317438309441457</v>
+      </c>
+      <c r="G81" s="17">
+        <f t="shared" si="12"/>
+        <v>0.77355401014542968</v>
+      </c>
+      <c r="H81" s="18">
+        <f t="shared" si="13"/>
+        <v>5.9838580661207589E-7</v>
+      </c>
+      <c r="I81" s="17">
+        <f>H81/(H81+$K$2)</f>
+        <v>5.9838580657626932E-11</v>
+      </c>
+      <c r="J81" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>128.63591991082038</v>
-      </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="11"/>
-        <v>376.72018674516892</v>
-      </c>
-      <c r="G81" s="18">
-        <f t="shared" si="14"/>
-        <v>253.14721105545766</v>
-      </c>
-      <c r="H81" s="19">
-        <f t="shared" si="15"/>
-        <v>6.4083510465156479E-2</v>
-      </c>
-      <c r="I81" s="18">
-        <f>H81/(H81+$K$6)</f>
-        <v>2.5632747131494972E-5</v>
-      </c>
-      <c r="J81" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>253.1503785702958</v>
-      </c>
-      <c r="K81" s="19">
-        <f t="shared" si="13"/>
-        <v>6.4081867828737427E-2</v>
+        <v>0.77355401526425427</v>
+      </c>
+      <c r="K81" s="18">
+        <f t="shared" si="11"/>
+        <v>5.9838580657626937E-7</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -8182,40 +8149,40 @@
         <v>69</v>
       </c>
       <c r="B82" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="8"/>
-        <v>6.9</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="9"/>
-        <v>243.12258149766154</v>
+        <v>0.62657874821779802</v>
       </c>
       <c r="E82">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>57.398519777890925</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="9"/>
+        <v>58.025098526108721</v>
+      </c>
+      <c r="G82" s="17">
+        <f t="shared" si="12"/>
+        <v>0.69619860913088671</v>
+      </c>
+      <c r="H82" s="18">
+        <f t="shared" si="13"/>
+        <v>4.8469250335578148E-7</v>
+      </c>
+      <c r="I82" s="17">
+        <f>H82/(H82+$K$2)</f>
+        <v>4.8469250333228878E-11</v>
+      </c>
+      <c r="J82" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>9.9167076110071157</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="11"/>
-        <v>253.03928910866867</v>
-      </c>
-      <c r="G82" s="18">
-        <f t="shared" si="14"/>
-        <v>248.08426683434851</v>
-      </c>
-      <c r="H82" s="19">
-        <f t="shared" si="15"/>
-        <v>6.1545803450736285E-2</v>
-      </c>
-      <c r="I82" s="18">
-        <f>H82/(H82+$K$6)</f>
-        <v>2.4617715333466786E-5</v>
-      </c>
-      <c r="J82" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>248.08438881567633</v>
-      </c>
-      <c r="K82" s="19">
-        <f t="shared" si="13"/>
-        <v>6.1544288333666965E-2</v>
+        <v>0.69619861190957555</v>
+      </c>
+      <c r="K82" s="18">
+        <f t="shared" si="11"/>
+        <v>4.8469250333228881E-7</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -8223,40 +8190,40 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="9"/>
-        <v>238.26012986770832</v>
+        <v>0.56392087339601826</v>
       </c>
       <c r="E83">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-48.824983617032757</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="9"/>
+        <v>-48.261062743636735</v>
+      </c>
+      <c r="G83" s="17">
+        <f t="shared" si="12"/>
+        <v>0.62657874821779802</v>
+      </c>
+      <c r="H83" s="18">
+        <f t="shared" si="13"/>
+        <v>3.9260092771818302E-7</v>
+      </c>
+      <c r="I83" s="17">
+        <f>H83/(H83+$K$2)</f>
+        <v>3.9260092770276942E-11</v>
+      </c>
+      <c r="J83" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7403102879881489</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="11"/>
-        <v>244.00044015569645</v>
-      </c>
-      <c r="G83" s="18">
-        <f t="shared" si="14"/>
-        <v>243.12258149766154</v>
-      </c>
-      <c r="H83" s="19">
-        <f t="shared" si="15"/>
-        <v>5.9108589634087119E-2</v>
-      </c>
-      <c r="I83" s="18">
-        <f>H83/(H83+$K$6)</f>
-        <v>2.3642876854792536E-5</v>
-      </c>
-      <c r="J83" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>243.12260225276569</v>
-      </c>
-      <c r="K83" s="19">
-        <f t="shared" si="13"/>
-        <v>5.9107192136981346E-2</v>
+        <v>0.62657874629846466</v>
+      </c>
+      <c r="K83" s="18">
+        <f t="shared" si="11"/>
+        <v>3.9260092770276951E-7</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -8264,40 +8231,40 @@
         <v>71</v>
       </c>
       <c r="B84" s="2">
+        <f t="shared" si="7"/>
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="8"/>
-        <v>7.1000000000000005</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="9"/>
-        <v>233.49492727035414</v>
+        <v>0.50752878605641649</v>
       </c>
       <c r="E84">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>136.16122277813943</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="9"/>
+        <v>136.66875156419584</v>
+      </c>
+      <c r="G84" s="17">
+        <f t="shared" si="12"/>
+        <v>0.56392087339601826</v>
+      </c>
+      <c r="H84" s="18">
+        <f t="shared" si="13"/>
+        <v>3.1800675145172828E-7</v>
+      </c>
+      <c r="I84" s="17">
+        <f>H84/(H84+$K$2)</f>
+        <v>3.1800675144161546E-11</v>
+      </c>
+      <c r="J84" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>30.56930618246647</v>
-      </c>
-      <c r="F84">
-        <f t="shared" ca="1" si="11"/>
-        <v>264.06423345282059</v>
-      </c>
-      <c r="G84" s="18">
-        <f t="shared" si="14"/>
-        <v>238.26012986770832</v>
-      </c>
-      <c r="H84" s="19">
-        <f t="shared" si="15"/>
-        <v>5.6767889484577269E-2</v>
-      </c>
-      <c r="I84" s="18">
-        <f>H84/(H84+$K$6)</f>
-        <v>2.2706640190614546E-5</v>
-      </c>
-      <c r="J84" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>238.26071579220385</v>
-      </c>
-      <c r="K84" s="19">
-        <f t="shared" si="13"/>
-        <v>5.6766600476536359E-2</v>
+        <v>0.56392087772424382</v>
+      </c>
+      <c r="K84" s="18">
+        <f t="shared" si="11"/>
+        <v>3.1800675144161544E-7</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -8305,40 +8272,40 @@
         <v>72</v>
       </c>
       <c r="B85" s="2">
+        <f t="shared" si="7"/>
+        <v>7.2</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="8"/>
-        <v>7.2</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="9"/>
-        <v>228.82502872494706</v>
+        <v>0.45677590745077484</v>
       </c>
       <c r="E85">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-60.737886917869375</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="9"/>
+        <v>-60.281111010418599</v>
+      </c>
+      <c r="G85" s="17">
+        <f t="shared" si="12"/>
+        <v>0.50752878605641649</v>
+      </c>
+      <c r="H85" s="18">
+        <f t="shared" si="13"/>
+        <v>2.5758546867589988E-7</v>
+      </c>
+      <c r="I85" s="17">
+        <f>H85/(H85+$K$2)</f>
+        <v>2.5758546866926487E-11</v>
+      </c>
+      <c r="J85" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-9.649541762151042</v>
-      </c>
-      <c r="F85">
-        <f t="shared" ca="1" si="11"/>
-        <v>219.17548696279601</v>
-      </c>
-      <c r="G85" s="18">
-        <f t="shared" si="14"/>
-        <v>233.49492727035414</v>
-      </c>
-      <c r="H85" s="19">
-        <f t="shared" si="15"/>
-        <v>5.4519881060988006E-2</v>
-      </c>
-      <c r="I85" s="18">
-        <f>H85/(H85+$K$6)</f>
-        <v>2.1807476847977604E-5</v>
-      </c>
-      <c r="J85" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>233.49461499949115</v>
-      </c>
-      <c r="K85" s="19">
-        <f t="shared" si="13"/>
-        <v>5.4518692119944014E-2</v>
+        <v>0.50752878449058947</v>
+      </c>
+      <c r="K85" s="18">
+        <f t="shared" si="11"/>
+        <v>2.5758546866926486E-7</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8346,40 +8313,40 @@
         <v>73</v>
       </c>
       <c r="B86" s="2">
+        <f t="shared" si="7"/>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="D86">
         <f t="shared" si="8"/>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="9"/>
-        <v>224.24852815044812</v>
+        <v>0.41109831670569735</v>
       </c>
       <c r="E86">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>14.34339135732024</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="9"/>
+        <v>14.754489674025937</v>
+      </c>
+      <c r="G86" s="17">
+        <f t="shared" si="12"/>
+        <v>0.45677590745077484</v>
+      </c>
+      <c r="H86" s="18">
+        <f t="shared" si="13"/>
+        <v>2.0864422962747889E-7</v>
+      </c>
+      <c r="I86" s="17">
+        <f>H86/(H86+$K$2)</f>
+        <v>2.0864422962312566E-11</v>
+      </c>
+      <c r="J86" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-89.047864642919222</v>
-      </c>
-      <c r="F86">
-        <f t="shared" ca="1" si="11"/>
-        <v>135.2006635075289</v>
-      </c>
-      <c r="G86" s="18">
-        <f t="shared" si="14"/>
-        <v>228.82502872494706</v>
-      </c>
-      <c r="H86" s="19">
-        <f t="shared" si="15"/>
-        <v>5.2360893770972874E-2</v>
-      </c>
-      <c r="I86" s="18">
-        <f>H86/(H86+$K$6)</f>
-        <v>2.0943918851465098E-5</v>
-      </c>
-      <c r="J86" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>228.82306786383944</v>
-      </c>
-      <c r="K86" s="19">
-        <f t="shared" si="13"/>
-        <v>5.2359797128662747E-2</v>
+        <v>0.45677590774908838</v>
+      </c>
+      <c r="K86" s="18">
+        <f t="shared" si="11"/>
+        <v>2.0864422962312565E-7</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -8387,40 +8354,40 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="8"/>
-        <v>7.4</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="9"/>
-        <v>219.76355758743915</v>
+        <v>0.3699884850351276</v>
       </c>
       <c r="E87">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>238.68083034059867</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="9"/>
+        <v>239.0508188256338</v>
+      </c>
+      <c r="G87" s="17">
+        <f t="shared" si="12"/>
+        <v>0.41109831670569735</v>
+      </c>
+      <c r="H87" s="18">
+        <f t="shared" si="13"/>
+        <v>1.6900182599825792E-7</v>
+      </c>
+      <c r="I87" s="17">
+        <f>H87/(H87+$K$2)</f>
+        <v>1.6900182599540175E-11</v>
+      </c>
+      <c r="J87" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-27.749751222169738</v>
-      </c>
-      <c r="F87">
-        <f t="shared" ca="1" si="11"/>
-        <v>192.0138063652694</v>
-      </c>
-      <c r="G87" s="18">
-        <f t="shared" si="14"/>
-        <v>224.24852815044812</v>
-      </c>
-      <c r="H87" s="19">
-        <f t="shared" si="15"/>
-        <v>5.028740237764235E-2</v>
-      </c>
-      <c r="I87" s="18">
-        <f>H87/(H87+$K$6)</f>
-        <v>2.0114556347541459E-5</v>
-      </c>
-      <c r="J87" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>224.24787976332044</v>
-      </c>
-      <c r="K87" s="19">
-        <f t="shared" si="13"/>
-        <v>5.0286390868853656E-2</v>
+        <v>0.41109832073875219</v>
+      </c>
+      <c r="K87" s="18">
+        <f t="shared" si="11"/>
+        <v>1.6900182599540175E-7</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -8428,40 +8395,40 @@
         <v>75</v>
       </c>
       <c r="B88" s="2">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="8"/>
-        <v>7.5</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="9"/>
-        <v>215.36828643569038</v>
+        <v>0.33298963653161484</v>
       </c>
       <c r="E88">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>25.84656097145314</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="9"/>
+        <v>26.179550607984755</v>
+      </c>
+      <c r="G88" s="17">
+        <f t="shared" si="12"/>
+        <v>0.3699884850351276</v>
+      </c>
+      <c r="H88" s="18">
+        <f t="shared" si="13"/>
+        <v>1.3689147905858892E-7</v>
+      </c>
+      <c r="I88" s="17">
+        <f>H88/(H88+$K$2)</f>
+        <v>1.3689147905671499E-11</v>
+      </c>
+      <c r="J88" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>47.982788583732564</v>
-      </c>
-      <c r="F88">
-        <f t="shared" ca="1" si="11"/>
-        <v>263.35107501942292</v>
-      </c>
-      <c r="G88" s="18">
-        <f t="shared" si="14"/>
-        <v>219.76355758743915</v>
-      </c>
-      <c r="H88" s="19">
-        <f t="shared" si="15"/>
-        <v>4.8296021243487711E-2</v>
-      </c>
-      <c r="I88" s="18">
-        <f>H88/(H88+$K$6)</f>
-        <v>1.931803530369772E-5</v>
-      </c>
-      <c r="J88" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>219.76439961263969</v>
-      </c>
-      <c r="K88" s="19">
-        <f t="shared" si="13"/>
-        <v>4.82950882592443E-2</v>
+        <v>0.36998848538843854</v>
+      </c>
+      <c r="K88" s="18">
+        <f t="shared" si="11"/>
+        <v>1.3689147905671499E-7</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -8469,40 +8436,40 @@
         <v>76</v>
       </c>
       <c r="B89" s="2">
+        <f t="shared" si="7"/>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="8"/>
-        <v>7.6000000000000005</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="9"/>
-        <v>211.06092070697656</v>
+        <v>0.29969067287845336</v>
       </c>
       <c r="E89">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>56.771530176330941</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="9"/>
+        <v>57.071220849209396</v>
+      </c>
+      <c r="G89" s="17">
+        <f t="shared" si="12"/>
+        <v>0.33298963653161484</v>
+      </c>
+      <c r="H89" s="18">
+        <f t="shared" si="13"/>
+        <v>1.1088209803745703E-7</v>
+      </c>
+      <c r="I89" s="17">
+        <f>H89/(H89+$K$2)</f>
+        <v>1.1088209803622755E-11</v>
+      </c>
+      <c r="J89" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>4.1022595735456191</v>
-      </c>
-      <c r="F89">
-        <f t="shared" ca="1" si="11"/>
-        <v>215.16318028052217</v>
-      </c>
-      <c r="G89" s="18">
-        <f t="shared" si="14"/>
-        <v>215.36828643569038</v>
-      </c>
-      <c r="H89" s="19">
-        <f t="shared" si="15"/>
-        <v>4.6383498802245599E-2</v>
-      </c>
-      <c r="I89" s="18">
-        <f>H89/(H89+$K$6)</f>
-        <v>1.855305529865095E-5</v>
-      </c>
-      <c r="J89" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>215.36828263034454</v>
-      </c>
-      <c r="K89" s="19">
-        <f t="shared" si="13"/>
-        <v>4.6382638246627375E-2</v>
+        <v>0.33298963716074026</v>
+      </c>
+      <c r="K89" s="18">
+        <f t="shared" si="11"/>
+        <v>1.1088209803622754E-7</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -8510,40 +8477,40 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
+        <f t="shared" si="7"/>
+        <v>7.7</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="8"/>
-        <v>7.7</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="9"/>
-        <v>206.83970229283702</v>
+        <v>0.26972160559060804</v>
       </c>
       <c r="E90">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>101.94576967923152</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="9"/>
+        <v>102.21549128482212</v>
+      </c>
+      <c r="G90" s="17">
+        <f t="shared" si="12"/>
+        <v>0.29969067287845336</v>
+      </c>
+      <c r="H90" s="18">
+        <f t="shared" si="13"/>
+        <v>8.9814499410340198E-8</v>
+      </c>
+      <c r="I90" s="17">
+        <f>H90/(H90+$K$2)</f>
+        <v>8.9814499409533529E-12</v>
+      </c>
+      <c r="J90" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>42.812736378424738</v>
-      </c>
-      <c r="F90">
-        <f t="shared" ca="1" si="11"/>
-        <v>249.65243867126176</v>
-      </c>
-      <c r="G90" s="18">
-        <f t="shared" si="14"/>
-        <v>211.06092070697656</v>
-      </c>
-      <c r="H90" s="19">
-        <f t="shared" si="15"/>
-        <v>4.454671224967667E-2</v>
-      </c>
-      <c r="I90" s="18">
-        <f>H90/(H90+$K$6)</f>
-        <v>1.7818367399996539E-5</v>
-      </c>
-      <c r="J90" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>211.06160834482216</v>
-      </c>
-      <c r="K90" s="19">
-        <f t="shared" si="13"/>
-        <v>4.4545918499991344E-2</v>
+        <v>0.29969067379380504</v>
+      </c>
+      <c r="K90" s="18">
+        <f t="shared" si="11"/>
+        <v>8.9814499409533531E-8</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -8551,40 +8518,40 @@
         <v>78</v>
       </c>
       <c r="B91" s="2">
+        <f t="shared" si="7"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="8"/>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="9"/>
-        <v>202.70290824698029</v>
+        <v>0.24274944503154725</v>
       </c>
       <c r="E91">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>78.693718178792039</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="9"/>
+        <v>78.936467623823589</v>
+      </c>
+      <c r="G91" s="17">
+        <f t="shared" si="12"/>
+        <v>0.26972160559060804</v>
+      </c>
+      <c r="H91" s="18">
+        <f t="shared" si="13"/>
+        <v>7.2749744522375552E-8</v>
+      </c>
+      <c r="I91" s="17">
+        <f>H91/(H91+$K$2)</f>
+        <v>7.2749744521846294E-12</v>
+      </c>
+      <c r="J91" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>15.979445769171846</v>
-      </c>
-      <c r="F91">
-        <f t="shared" ca="1" si="11"/>
-        <v>218.68235401615215</v>
-      </c>
-      <c r="G91" s="18">
-        <f t="shared" si="14"/>
-        <v>206.83970229283702</v>
-      </c>
-      <c r="H91" s="19">
-        <f t="shared" si="15"/>
-        <v>4.2782662444589468E-2</v>
-      </c>
-      <c r="I91" s="18">
-        <f>H91/(H91+$K$6)</f>
-        <v>1.7112772125854446E-5</v>
-      </c>
-      <c r="J91" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>206.83990495343733</v>
-      </c>
-      <c r="K91" s="19">
-        <f t="shared" si="13"/>
-        <v>4.2781930314636112E-2</v>
+        <v>0.26972160616290658</v>
+      </c>
+      <c r="K91" s="18">
+        <f t="shared" si="11"/>
+        <v>7.2749744521846302E-8</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -8592,40 +8559,40 @@
         <v>79</v>
       </c>
       <c r="B92" s="2">
+        <f t="shared" si="7"/>
+        <v>7.9</v>
+      </c>
+      <c r="D92">
         <f t="shared" si="8"/>
-        <v>7.9</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="9"/>
-        <v>198.64885008204067</v>
+        <v>0.21847450052839251</v>
       </c>
       <c r="E92">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>224.60406510370362</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="9"/>
+        <v>224.82253960423202</v>
+      </c>
+      <c r="G92" s="17">
+        <f t="shared" si="12"/>
+        <v>0.24274944503154725</v>
+      </c>
+      <c r="H92" s="18">
+        <f t="shared" si="13"/>
+        <v>5.8927293063124204E-8</v>
+      </c>
+      <c r="I92" s="17">
+        <f>H92/(H92+$K$2)</f>
+        <v>5.8927293062776955E-12</v>
+      </c>
+      <c r="J92" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-56.682095580539652</v>
-      </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="11"/>
-        <v>141.96675450150101</v>
-      </c>
-      <c r="G92" s="18">
-        <f t="shared" si="14"/>
-        <v>202.70290824698029</v>
-      </c>
-      <c r="H92" s="19">
-        <f t="shared" si="15"/>
-        <v>4.1088469011783729E-2</v>
-      </c>
-      <c r="I92" s="18">
-        <f>H92/(H92+$K$6)</f>
-        <v>1.643511748718726E-5</v>
-      </c>
-      <c r="J92" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>202.70191004115776</v>
-      </c>
-      <c r="K92" s="19">
-        <f t="shared" si="13"/>
-        <v>4.1087793717968155E-2</v>
+        <v>0.24274944635493514</v>
+      </c>
+      <c r="K92" s="18">
+        <f t="shared" si="11"/>
+        <v>5.892729306277696E-8</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -8633,40 +8600,40 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="9"/>
-        <v>194.67587308039984</v>
+        <v>0.19662705047555326</v>
       </c>
       <c r="E93">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>38.772172467488289</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="9"/>
+        <v>38.968799517963845</v>
+      </c>
+      <c r="G93" s="17">
+        <f t="shared" si="12"/>
+        <v>0.21847450052839251</v>
+      </c>
+      <c r="H93" s="18">
+        <f t="shared" si="13"/>
+        <v>4.7731107381130604E-8</v>
+      </c>
+      <c r="I93" s="17">
+        <f>H93/(H93+$K$2)</f>
+        <v>4.7731107380902778E-12</v>
+      </c>
+      <c r="J93" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-38.037477024533558</v>
-      </c>
-      <c r="F93">
-        <f t="shared" ca="1" si="11"/>
-        <v>156.63839605586628</v>
-      </c>
-      <c r="G93" s="18">
-        <f t="shared" si="14"/>
-        <v>198.64885008204067</v>
-      </c>
-      <c r="H93" s="19">
-        <f t="shared" si="15"/>
-        <v>3.9461365638917091E-2</v>
-      </c>
-      <c r="I93" s="18">
-        <f>H93/(H93+$K$6)</f>
-        <v>1.5784297107599028E-5</v>
-      </c>
-      <c r="J93" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>198.64818697655269</v>
-      </c>
-      <c r="K93" s="19">
-        <f t="shared" si="13"/>
-        <v>3.9460742768997574E-2</v>
+        <v>0.21847450071335212</v>
+      </c>
+      <c r="K93" s="18">
+        <f t="shared" si="11"/>
+        <v>4.7731107380902779E-8</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -8674,40 +8641,40 @@
         <v>81</v>
       </c>
       <c r="B94" s="2">
+        <f t="shared" si="7"/>
+        <v>8.1</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="8"/>
-        <v>8.1</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="9"/>
-        <v>190.78235561879183</v>
+        <v>0.17696434542799794</v>
       </c>
       <c r="E94">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-6.0941930492364902</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.9172287038084921</v>
+      </c>
+      <c r="G94" s="17">
+        <f t="shared" si="12"/>
+        <v>0.19662705047555326</v>
+      </c>
+      <c r="H94" s="18">
+        <f t="shared" si="13"/>
+        <v>3.8662196978715788E-8</v>
+      </c>
+      <c r="I94" s="17">
+        <f>H94/(H94+$K$2)</f>
+        <v>3.8662196978566311E-12</v>
+      </c>
+      <c r="J94" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>83.909503618019571</v>
-      </c>
-      <c r="F94">
-        <f t="shared" ca="1" si="11"/>
-        <v>274.69185923681141</v>
-      </c>
-      <c r="G94" s="18">
-        <f t="shared" si="14"/>
-        <v>194.67587308039984</v>
-      </c>
-      <c r="H94" s="19">
-        <f t="shared" si="15"/>
-        <v>3.7898695559615975E-2</v>
-      </c>
-      <c r="I94" s="18">
-        <f>H94/(H94+$K$6)</f>
-        <v>1.5159248417550113E-5</v>
-      </c>
-      <c r="J94" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>194.67708606261135</v>
-      </c>
-      <c r="K94" s="19">
-        <f t="shared" si="13"/>
-        <v>3.7898121043875285E-2</v>
+        <v>0.19662705045191575</v>
+      </c>
+      <c r="K94" s="18">
+        <f t="shared" si="11"/>
+        <v>3.8662196978566313E-8</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -8715,40 +8682,40 @@
         <v>82</v>
       </c>
       <c r="B95" s="2">
+        <f t="shared" si="7"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="8"/>
-        <v>8.2000000000000011</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="9"/>
-        <v>186.96670850641598</v>
+        <v>0.15926791088519815</v>
       </c>
       <c r="E95">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-102.33311552707229</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="9"/>
+        <v>-102.1738476161871</v>
+      </c>
+      <c r="G95" s="17">
+        <f t="shared" si="12"/>
+        <v>0.17696434542799794</v>
+      </c>
+      <c r="H95" s="18">
+        <f t="shared" si="13"/>
+        <v>3.1316379552759791E-8</v>
+      </c>
+      <c r="I95" s="17">
+        <f>H95/(H95+$K$2)</f>
+        <v>3.1316379552661721E-12</v>
+      </c>
+      <c r="J95" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-135.47105257336918</v>
-      </c>
-      <c r="F95">
-        <f t="shared" ca="1" si="11"/>
-        <v>51.495655933046805</v>
-      </c>
-      <c r="G95" s="18">
-        <f t="shared" si="14"/>
-        <v>190.78235561879183</v>
-      </c>
-      <c r="H95" s="19">
-        <f t="shared" si="15"/>
-        <v>3.6397907215455182E-2</v>
-      </c>
-      <c r="I95" s="18">
-        <f>H95/(H95+$K$6)</f>
-        <v>1.4558950920044176E-5</v>
-      </c>
-      <c r="J95" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>190.7803277505673</v>
-      </c>
-      <c r="K95" s="19">
-        <f t="shared" si="13"/>
-        <v>3.6397377300110438E-2</v>
+        <v>0.17696434510747225</v>
+      </c>
+      <c r="K95" s="18">
+        <f t="shared" si="11"/>
+        <v>3.131637955266172E-8</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -8756,40 +8723,40 @@
         <v>83</v>
       </c>
       <c r="B96" s="2">
+        <f t="shared" si="7"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="8"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="9"/>
-        <v>183.22737433628765</v>
+        <v>0.14334111979667835</v>
       </c>
       <c r="E96">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>77.676850108986514</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="9"/>
+        <v>77.820191228783187</v>
+      </c>
+      <c r="G96" s="17">
+        <f t="shared" si="12"/>
+        <v>0.15926791088519815</v>
+      </c>
+      <c r="H96" s="18">
+        <f t="shared" si="13"/>
+        <v>2.5366267437735433E-8</v>
+      </c>
+      <c r="I96" s="17">
+        <f>H96/(H96+$K$2)</f>
+        <v>2.5366267437671089E-12</v>
+      </c>
+      <c r="J96" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>74.181366184336824</v>
-      </c>
-      <c r="F96">
-        <f t="shared" ca="1" si="11"/>
-        <v>257.40874052062446</v>
-      </c>
-      <c r="G96" s="18">
-        <f t="shared" si="14"/>
-        <v>186.96670850641598</v>
-      </c>
-      <c r="H96" s="19">
-        <f t="shared" si="15"/>
-        <v>3.4956550089723155E-2</v>
-      </c>
-      <c r="I96" s="18">
-        <f>H96/(H96+$K$6)</f>
-        <v>1.3982424524959949E-5</v>
-      </c>
-      <c r="J96" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>186.96769345681201</v>
-      </c>
-      <c r="K96" s="19">
-        <f t="shared" si="13"/>
-        <v>3.4956061312399873E-2</v>
+        <v>0.15926791108219493</v>
+      </c>
+      <c r="K96" s="18">
+        <f t="shared" si="11"/>
+        <v>2.5366267437671088E-8</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -8797,40 +8764,40 @@
         <v>84</v>
       </c>
       <c r="B97" s="2">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="8"/>
-        <v>8.4</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="9"/>
-        <v>179.5628268495619</v>
+        <v>0.12900700781701052</v>
       </c>
       <c r="E97">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>141.02243568880166</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="9"/>
+        <v>141.15144269661869</v>
+      </c>
+      <c r="G97" s="17">
+        <f t="shared" si="12"/>
+        <v>0.14334111979667835</v>
+      </c>
+      <c r="H97" s="18">
+        <f t="shared" si="13"/>
+        <v>2.0546676624565701E-8</v>
+      </c>
+      <c r="I97" s="17">
+        <f>H97/(H97+$K$2)</f>
+        <v>2.0546676624523483E-12</v>
+      </c>
+      <c r="J97" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>18.544076595943437</v>
-      </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="11"/>
-        <v>198.10690344550534</v>
-      </c>
-      <c r="G97" s="18">
-        <f t="shared" si="14"/>
-        <v>183.22737433628765</v>
-      </c>
-      <c r="H97" s="19">
-        <f t="shared" si="15"/>
-        <v>3.3572270706170117E-2</v>
-      </c>
-      <c r="I97" s="18">
-        <f>H97/(H97+$K$6)</f>
-        <v>1.3428727949312063E-5</v>
-      </c>
-      <c r="J97" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>183.22757414943607</v>
-      </c>
-      <c r="K97" s="19">
-        <f t="shared" si="13"/>
-        <v>3.3571819873280166E-2</v>
+        <v>0.14334112008640315</v>
+      </c>
+      <c r="K97" s="18">
+        <f t="shared" si="11"/>
+        <v>2.0546676624523485E-8</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -8838,40 +8805,40 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="8"/>
-        <v>8.5</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="9"/>
-        <v>175.97157031257066</v>
+        <v>0.11610630703530947</v>
       </c>
       <c r="E98">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>99.790017239927735</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="9"/>
+        <v>99.906123546963045</v>
+      </c>
+      <c r="G98" s="17">
+        <f t="shared" si="12"/>
+        <v>0.12900700781701052</v>
+      </c>
+      <c r="H98" s="18">
+        <f t="shared" si="13"/>
+        <v>1.6642808065898218E-8</v>
+      </c>
+      <c r="I98" s="17">
+        <f>H98/(H98+$K$2)</f>
+        <v>1.664280806587052E-12</v>
+      </c>
+      <c r="J98" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-16.790000494652801</v>
-      </c>
-      <c r="F98">
-        <f t="shared" ca="1" si="11"/>
-        <v>159.18156981791788</v>
-      </c>
-      <c r="G98" s="18">
-        <f t="shared" si="14"/>
-        <v>179.5628268495619</v>
-      </c>
-      <c r="H98" s="19">
-        <f t="shared" si="15"/>
-        <v>3.2242808786205779E-2</v>
-      </c>
-      <c r="I98" s="18">
-        <f>H98/(H98+$K$6)</f>
-        <v>1.2896957180832589E-5</v>
-      </c>
-      <c r="J98" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>179.56256399336266</v>
-      </c>
-      <c r="K98" s="19">
-        <f t="shared" si="13"/>
-        <v>3.2242392952081471E-2</v>
+        <v>0.12900700798306766</v>
+      </c>
+      <c r="K98" s="18">
+        <f t="shared" si="11"/>
+        <v>1.6642808065870517E-8</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -8879,40 +8846,40 @@
         <v>86</v>
       </c>
       <c r="B99" s="2">
+        <f t="shared" si="7"/>
+        <v>8.6</v>
+      </c>
+      <c r="D99">
         <f t="shared" si="8"/>
-        <v>8.6</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="9"/>
-        <v>172.45213890631925</v>
+        <v>0.10449567633177853</v>
       </c>
       <c r="E99">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-9.8525352711678291</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.748039594836051</v>
+      </c>
+      <c r="G99" s="17">
+        <f t="shared" si="12"/>
+        <v>0.11610630703530947</v>
+      </c>
+      <c r="H99" s="18">
+        <f t="shared" si="13"/>
+        <v>1.3480674533377557E-8</v>
+      </c>
+      <c r="I99" s="17">
+        <f>H99/(H99+$K$2)</f>
+        <v>1.3480674533359385E-12</v>
+      </c>
+      <c r="J99" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3834328575389341</v>
-      </c>
-      <c r="F99">
-        <f t="shared" ca="1" si="11"/>
-        <v>174.83557176385818</v>
-      </c>
-      <c r="G99" s="18">
-        <f t="shared" si="14"/>
-        <v>175.97157031257066</v>
-      </c>
-      <c r="H99" s="19">
-        <f t="shared" si="15"/>
-        <v>3.096599355827203E-2</v>
-      </c>
-      <c r="I99" s="18">
-        <f>H99/(H99+$K$6)</f>
-        <v>1.2386244002368017E-5</v>
-      </c>
-      <c r="J99" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>175.97155624181545</v>
-      </c>
-      <c r="K99" s="19">
-        <f t="shared" si="13"/>
-        <v>3.0965610005920043E-2</v>
+        <v>0.11610630702201194</v>
+      </c>
+      <c r="K99" s="18">
+        <f t="shared" si="11"/>
+        <v>1.3480674533359384E-8</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -8920,40 +8887,40 @@
         <v>87</v>
       </c>
       <c r="B100" s="2">
+        <f t="shared" si="7"/>
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="D100">
         <f t="shared" si="8"/>
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="9"/>
-        <v>169.00309612819285</v>
+        <v>9.4046108698600681E-2</v>
       </c>
       <c r="E100">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>74.703853270843751</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="9"/>
+        <v>74.797899379542358</v>
+      </c>
+      <c r="G100" s="17">
+        <f t="shared" si="12"/>
+        <v>0.10449567633177853</v>
+      </c>
+      <c r="H100" s="18">
+        <f t="shared" si="13"/>
+        <v>1.0919346372035822E-8</v>
+      </c>
+      <c r="I100" s="17">
+        <f>H100/(H100+$K$2)</f>
+        <v>1.0919346372023899E-12</v>
+      </c>
+      <c r="J100" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-91.818088258537841</v>
-      </c>
-      <c r="F100">
-        <f t="shared" ca="1" si="11"/>
-        <v>77.18500786965501</v>
-      </c>
-      <c r="G100" s="18">
-        <f t="shared" si="14"/>
-        <v>172.45213890631925</v>
-      </c>
-      <c r="H100" s="19">
-        <f t="shared" si="15"/>
-        <v>2.9739740213364455E-2</v>
-      </c>
-      <c r="I100" s="18">
-        <f>H100/(H100+$K$6)</f>
-        <v>1.1895754574685505E-5</v>
-      </c>
-      <c r="J100" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>172.4510056319094</v>
-      </c>
-      <c r="K100" s="19">
-        <f t="shared" si="13"/>
-        <v>2.9739386436713762E-2</v>
+        <v>0.10449567641333884</v>
+      </c>
+      <c r="K100" s="18">
+        <f t="shared" si="11"/>
+        <v>1.0919346372023899E-8</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -8961,40 +8928,40 @@
         <v>88</v>
       </c>
       <c r="B101" s="2">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D101">
         <f t="shared" si="8"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="9"/>
-        <v>165.62303420562898</v>
+        <v>8.4641497828740614E-2</v>
       </c>
       <c r="E101">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>188.54867795981173</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="9"/>
+        <v>188.63331945764045</v>
+      </c>
+      <c r="G101" s="17">
+        <f t="shared" si="12"/>
+        <v>9.4046108698600681E-2</v>
+      </c>
+      <c r="H101" s="18">
+        <f t="shared" si="13"/>
+        <v>8.8446705613490164E-9</v>
+      </c>
+      <c r="I101" s="17">
+        <f>H101/(H101+$K$2)</f>
+        <v>8.8446705613411947E-13</v>
+      </c>
+      <c r="J101" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-17.550711049221732</v>
-      </c>
-      <c r="F101">
-        <f t="shared" ca="1" si="11"/>
-        <v>148.07232315640726</v>
-      </c>
-      <c r="G101" s="18">
-        <f t="shared" si="14"/>
-        <v>169.00309612819285</v>
-      </c>
-      <c r="H101" s="19">
-        <f t="shared" si="15"/>
-        <v>2.856204650091522E-2</v>
-      </c>
-      <c r="I101" s="18">
-        <f>H101/(H101+$K$6)</f>
-        <v>1.142468807537726E-5</v>
-      </c>
-      <c r="J101" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>169.00285700064046</v>
-      </c>
-      <c r="K101" s="19">
-        <f t="shared" si="13"/>
-        <v>2.8561720188443152E-2</v>
+        <v>9.4046108865357456E-2</v>
+      </c>
+      <c r="K101" s="18">
+        <f t="shared" si="11"/>
+        <v>8.844670561341193E-9</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -9002,40 +8969,40 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
+        <f t="shared" si="7"/>
+        <v>8.9</v>
+      </c>
+      <c r="D102">
         <f t="shared" si="8"/>
-        <v>8.9</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="9"/>
-        <v>162.3105735215164</v>
+        <v>7.6177348045866553E-2</v>
       </c>
       <c r="E102">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-13.365805237683698</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="9"/>
+        <v>-13.289627889637831</v>
+      </c>
+      <c r="G102" s="17">
+        <f t="shared" si="12"/>
+        <v>8.4641497828740614E-2</v>
+      </c>
+      <c r="H102" s="18">
+        <f t="shared" si="13"/>
+        <v>7.1641831546927033E-9</v>
+      </c>
+      <c r="I102" s="17">
+        <f>H102/(H102+$K$2)</f>
+        <v>7.16418315468757E-13</v>
+      </c>
+      <c r="J102" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-62.835330326649128</v>
-      </c>
-      <c r="F102">
-        <f t="shared" ca="1" si="11"/>
-        <v>99.475243194867275</v>
-      </c>
-      <c r="G102" s="18">
-        <f t="shared" si="14"/>
-        <v>165.62303420562898</v>
-      </c>
-      <c r="H102" s="19">
-        <f t="shared" si="15"/>
-        <v>2.7430989459478975E-2</v>
-      </c>
-      <c r="I102" s="18">
-        <f>H102/(H102+$K$6)</f>
-        <v>1.0972275391643344E-5</v>
-      </c>
-      <c r="J102" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>165.62230841384945</v>
-      </c>
-      <c r="K102" s="19">
-        <f t="shared" si="13"/>
-        <v>2.7430688479108362E-2</v>
+        <v>8.4641497819159042E-2</v>
+      </c>
+      <c r="K102" s="18">
+        <f t="shared" si="11"/>
+        <v>7.1641831546875706E-9</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -9043,40 +9010,40 @@
         <v>90</v>
       </c>
       <c r="B103" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D103">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="9"/>
-        <v>159.06436205108608</v>
+        <v>6.8559613241279904E-2</v>
       </c>
       <c r="E103">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>101.95322128237333</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="9"/>
+        <v>102.02178089561461</v>
+      </c>
+      <c r="G103" s="17">
+        <f t="shared" si="12"/>
+        <v>7.6177348045866553E-2</v>
+      </c>
+      <c r="H103" s="18">
+        <f t="shared" si="13"/>
+        <v>5.8029883553010899E-9</v>
+      </c>
+      <c r="I103" s="17">
+        <f>H103/(H103+$K$2)</f>
+        <v>5.802988355297723E-13</v>
+      </c>
+      <c r="J103" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>60.976630077951121</v>
-      </c>
-      <c r="F103">
-        <f t="shared" ca="1" si="11"/>
-        <v>220.04099212903719</v>
-      </c>
-      <c r="G103" s="18">
-        <f t="shared" si="14"/>
-        <v>162.3105735215164</v>
-      </c>
-      <c r="H103" s="19">
-        <f t="shared" si="15"/>
-        <v>2.6344722276883607E-2</v>
-      </c>
-      <c r="I103" s="18">
-        <f>H103/(H103+$K$6)</f>
-        <v>1.0537777864820937E-5</v>
-      </c>
-      <c r="J103" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>162.31118187184373</v>
-      </c>
-      <c r="K103" s="19">
-        <f t="shared" si="13"/>
-        <v>2.6344444662052342E-2</v>
+        <v>7.6177348105025466E-2</v>
+      </c>
+      <c r="K103" s="18">
+        <f t="shared" si="11"/>
+        <v>5.8029883552977224E-9</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -9084,40 +9051,40 @@
         <v>91</v>
       </c>
       <c r="B104" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1</v>
+      </c>
+      <c r="D104">
         <f t="shared" si="8"/>
-        <v>9.1</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="9"/>
-        <v>155.88307481006436</v>
+        <v>6.1703651917151915E-2</v>
       </c>
       <c r="E104">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-42.081102649195074</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="9"/>
+        <v>-42.019398997277925</v>
+      </c>
+      <c r="G104" s="17">
+        <f t="shared" si="12"/>
+        <v>6.8559613241279904E-2</v>
+      </c>
+      <c r="H104" s="18">
+        <f t="shared" si="13"/>
+        <v>4.7004205677938825E-9</v>
+      </c>
+      <c r="I104" s="17">
+        <f>H104/(H104+$K$2)</f>
+        <v>4.7004205677916735E-13</v>
+      </c>
+      <c r="J104" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-123.43128058352963</v>
-      </c>
-      <c r="F104">
-        <f t="shared" ca="1" si="11"/>
-        <v>32.45179422653473</v>
-      </c>
-      <c r="G104" s="18">
-        <f t="shared" si="14"/>
-        <v>159.06436205108608</v>
-      </c>
-      <c r="H104" s="19">
-        <f t="shared" si="15"/>
-        <v>2.5301471274719014E-2</v>
-      </c>
-      <c r="I104" s="18">
-        <f>H104/(H104+$K$6)</f>
-        <v>1.0120486084612422E-5</v>
-      </c>
-      <c r="J104" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>159.06308067035528</v>
-      </c>
-      <c r="K104" s="19">
-        <f t="shared" si="13"/>
-        <v>2.5301215211531058E-2</v>
+        <v>6.8559613221496798E-2</v>
+      </c>
+      <c r="K104" s="18">
+        <f t="shared" si="11"/>
+        <v>4.7004205677916731E-9</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -9125,40 +9092,40 @@
         <v>92</v>
       </c>
       <c r="B105" s="2">
+        <f t="shared" si="7"/>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="D105">
         <f t="shared" si="8"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="9"/>
-        <v>152.76541331386306</v>
+        <v>5.5533286725436726E-2</v>
       </c>
       <c r="E105">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-10.161739368169687</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="9"/>
+        <v>-10.106206081444251</v>
+      </c>
+      <c r="G105" s="17">
+        <f t="shared" si="12"/>
+        <v>6.1703651917151915E-2</v>
+      </c>
+      <c r="H105" s="18">
+        <f t="shared" si="13"/>
+        <v>3.807340659913045E-9</v>
+      </c>
+      <c r="I105" s="17">
+        <f>H105/(H105+$K$2)</f>
+        <v>3.8073406599115955E-13</v>
+      </c>
+      <c r="J105" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>20.423526321728495</v>
-      </c>
-      <c r="F105">
-        <f t="shared" ca="1" si="11"/>
-        <v>173.18893963559157</v>
-      </c>
-      <c r="G105" s="18">
-        <f t="shared" si="14"/>
-        <v>155.88307481006436</v>
-      </c>
-      <c r="H105" s="19">
-        <f t="shared" si="15"/>
-        <v>2.4299533012240141E-2</v>
-      </c>
-      <c r="I105" s="18">
-        <f>H105/(H105+$K$6)</f>
-        <v>9.7197187310455871E-6</v>
-      </c>
-      <c r="J105" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>155.88324301820285</v>
-      </c>
-      <c r="K105" s="19">
-        <f t="shared" si="13"/>
-        <v>2.4299296827613965E-2</v>
+        <v>6.1703651913280644E-2</v>
+      </c>
+      <c r="K105" s="18">
+        <f t="shared" si="11"/>
+        <v>3.8073406599115957E-9</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -9166,40 +9133,40 @@
         <v>93</v>
       </c>
       <c r="B106" s="2">
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D106">
         <f t="shared" si="8"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="9"/>
-        <v>149.71010504758581</v>
+        <v>4.9979958052893056E-2</v>
       </c>
       <c r="E106">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>149.59522588213591</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="9"/>
+        <v>149.64520584018879</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="12"/>
+        <v>5.5533286725436726E-2</v>
+      </c>
+      <c r="H106" s="18">
+        <f t="shared" si="13"/>
+        <v>3.0839459345295667E-9</v>
+      </c>
+      <c r="I106" s="17">
+        <f>H106/(H106+$K$2)</f>
+        <v>3.0839459345286161E-13</v>
+      </c>
+      <c r="J106" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-21.012034400637646</v>
-      </c>
-      <c r="F106">
-        <f t="shared" ca="1" si="11"/>
-        <v>128.69807064694817</v>
-      </c>
-      <c r="G106" s="18">
-        <f t="shared" si="14"/>
-        <v>152.76541331386306</v>
-      </c>
-      <c r="H106" s="19">
-        <f t="shared" si="15"/>
-        <v>2.3337271504955431E-2</v>
-      </c>
-      <c r="I106" s="18">
-        <f>H106/(H106+$K$6)</f>
-        <v>9.3348214622770061E-6</v>
-      </c>
-      <c r="J106" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>152.7651886495162</v>
-      </c>
-      <c r="K106" s="19">
-        <f t="shared" si="13"/>
-        <v>2.3337053655692518E-2</v>
+        <v>5.5533286771569372E-2</v>
+      </c>
+      <c r="K106" s="18">
+        <f t="shared" si="11"/>
+        <v>3.0839459345286155E-9</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -9207,40 +9174,40 @@
         <v>94</v>
       </c>
       <c r="B107" s="2">
+        <f t="shared" si="7"/>
+        <v>9.4</v>
+      </c>
+      <c r="D107">
         <f t="shared" si="8"/>
-        <v>9.4</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="9"/>
-        <v>146.71590294663409</v>
+        <v>4.498196224760375E-2</v>
       </c>
       <c r="E107">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>2.4456782425095498</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.4906602047571536</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="12"/>
+        <v>4.9979958052893056E-2</v>
+      </c>
+      <c r="H107" s="18">
+        <f t="shared" si="13"/>
+        <v>2.497996206968949E-9</v>
+      </c>
+      <c r="I107" s="17">
+        <f>H107/(H107+$K$2)</f>
+        <v>2.4979962069683252E-13</v>
+      </c>
+      <c r="J107" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-43.170893110404883</v>
-      </c>
-      <c r="F107">
-        <f t="shared" ca="1" si="11"/>
-        <v>103.54500983622921</v>
-      </c>
-      <c r="G107" s="18">
-        <f t="shared" si="14"/>
-        <v>149.71010504758581</v>
-      </c>
-      <c r="H107" s="19">
-        <f t="shared" si="15"/>
-        <v>2.2413115553359196E-2</v>
-      </c>
-      <c r="I107" s="18">
-        <f>H107/(H107+$K$6)</f>
-        <v>8.96516584642445E-6</v>
-      </c>
-      <c r="J107" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>149.70969116985091</v>
-      </c>
-      <c r="K107" s="19">
-        <f t="shared" si="13"/>
-        <v>2.2412914616061125E-2</v>
+        <v>4.9979958053502735E-2</v>
+      </c>
+      <c r="K107" s="18">
+        <f t="shared" si="11"/>
+        <v>2.4979962069683249E-9</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -9248,40 +9215,40 @@
         <v>95</v>
       </c>
       <c r="B108" s="2">
+        <f t="shared" si="7"/>
+        <v>9.5</v>
+      </c>
+      <c r="D108">
         <f t="shared" si="8"/>
-        <v>9.5</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="9"/>
-        <v>143.7815848877014</v>
+        <v>4.0483766022843377E-2</v>
       </c>
       <c r="E108">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-41.895384771328743</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="9"/>
+        <v>-41.854901005305898</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="12"/>
+        <v>4.498196224760375E-2</v>
+      </c>
+      <c r="H108" s="18">
+        <f t="shared" si="13"/>
+        <v>2.0233769276448487E-9</v>
+      </c>
+      <c r="I108" s="17">
+        <f>H108/(H108+$K$2)</f>
+        <v>2.0233769276444394E-13</v>
+      </c>
+      <c r="J108" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-37.994269357075076</v>
-      </c>
-      <c r="F108">
-        <f t="shared" ca="1" si="11"/>
-        <v>105.78731553062633</v>
-      </c>
-      <c r="G108" s="18">
-        <f t="shared" si="14"/>
-        <v>146.71590294663409</v>
-      </c>
-      <c r="H108" s="19">
-        <f t="shared" si="15"/>
-        <v>2.152555617744617E-2</v>
-      </c>
-      <c r="I108" s="18">
-        <f>H108/(H108+$K$6)</f>
-        <v>8.6101483356857897E-6</v>
-      </c>
-      <c r="J108" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>146.71555054542526</v>
-      </c>
-      <c r="K108" s="19">
-        <f t="shared" si="13"/>
-        <v>2.1525370839214474E-2</v>
+        <v>4.4981962239125824E-2</v>
+      </c>
+      <c r="K108" s="18">
+        <f t="shared" si="11"/>
+        <v>2.0233769276444393E-9</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -9289,40 +9256,40 @@
         <v>96</v>
       </c>
       <c r="B109" s="2">
+        <f t="shared" si="7"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="D109">
         <f t="shared" si="8"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="9"/>
-        <v>140.90595318994738</v>
+        <v>3.6435389420559038E-2</v>
       </c>
       <c r="E109">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>35.755393148406448</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="9"/>
+        <v>35.791828537827008</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="12"/>
+        <v>4.0483766022843377E-2</v>
+      </c>
+      <c r="H109" s="18">
+        <f t="shared" si="13"/>
+        <v>1.6389353113923277E-9</v>
+      </c>
+      <c r="I109" s="17">
+        <f>H109/(H109+$K$2)</f>
+        <v>1.638935311392059E-13</v>
+      </c>
+      <c r="J109" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>60.917106492565878</v>
-      </c>
-      <c r="F109">
-        <f t="shared" ca="1" si="11"/>
-        <v>201.82305968251325</v>
-      </c>
-      <c r="G109" s="18">
-        <f t="shared" si="14"/>
-        <v>143.7815848877014</v>
-      </c>
-      <c r="H109" s="19">
-        <f t="shared" si="15"/>
-        <v>2.0673144152819303E-2</v>
-      </c>
-      <c r="I109" s="18">
-        <f>H109/(H109+$K$6)</f>
-        <v>8.2691892810709076E-6</v>
-      </c>
-      <c r="J109" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>143.78206484364264</v>
-      </c>
-      <c r="K109" s="19">
-        <f t="shared" si="13"/>
-        <v>2.0672973202677268E-2</v>
+        <v>4.0483766028702795E-2</v>
+      </c>
+      <c r="K109" s="18">
+        <f t="shared" si="11"/>
+        <v>1.6389353113920591E-9</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -9330,40 +9297,40 @@
         <v>97</v>
       </c>
       <c r="B110" s="2">
+        <f t="shared" si="7"/>
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="D110">
         <f t="shared" si="8"/>
-        <v>9.7000000000000011</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="9"/>
-        <v>138.08783412614844</v>
+        <v>3.2791850478503137E-2</v>
       </c>
       <c r="E110">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>68.162190962576901</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="9"/>
+        <v>68.194982813055404</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="12"/>
+        <v>3.6435389420559038E-2</v>
+      </c>
+      <c r="H110" s="18">
+        <f t="shared" si="13"/>
+        <v>1.3275376022277854E-9</v>
+      </c>
+      <c r="I110" s="17">
+        <f>H110/(H110+$K$2)</f>
+        <v>1.3275376022276091E-13</v>
+      </c>
+      <c r="J110" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.2789522726189575</v>
-      </c>
-      <c r="F110">
-        <f t="shared" ca="1" si="11"/>
-        <v>135.80888185352947</v>
-      </c>
-      <c r="G110" s="18">
-        <f t="shared" si="14"/>
-        <v>140.90595318994738</v>
-      </c>
-      <c r="H110" s="19">
-        <f t="shared" si="15"/>
-        <v>1.985448764436766E-2</v>
-      </c>
-      <c r="I110" s="18">
-        <f>H110/(H110+$K$6)</f>
-        <v>7.9417319861392271E-6</v>
-      </c>
-      <c r="J110" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>140.90591271037292</v>
-      </c>
-      <c r="K110" s="19">
-        <f t="shared" si="13"/>
-        <v>1.9854329965348066E-2</v>
+        <v>3.6435389429607341E-2</v>
+      </c>
+      <c r="K110" s="18">
+        <f t="shared" si="11"/>
+        <v>1.3275376022276092E-9</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -9371,40 +9338,40 @@
         <v>98</v>
       </c>
       <c r="B111" s="2">
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D111">
         <f t="shared" si="8"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="9"/>
-        <v>135.32607744362548</v>
+        <v>2.9512665430652823E-2</v>
       </c>
       <c r="E111">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-49.546189476550211</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="9"/>
+        <v>-49.516676811119559</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="12"/>
+        <v>3.2791850478503137E-2</v>
+      </c>
+      <c r="H111" s="18">
+        <f t="shared" si="13"/>
+        <v>1.0753054578045062E-9</v>
+      </c>
+      <c r="I111" s="17">
+        <f>H111/(H111+$K$2)</f>
+        <v>1.0753054578043906E-13</v>
+      </c>
+      <c r="J111" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>15.826818590013444</v>
-      </c>
-      <c r="F111">
-        <f t="shared" ca="1" si="11"/>
-        <v>151.15289603363891</v>
-      </c>
-      <c r="G111" s="18">
-        <f t="shared" si="14"/>
-        <v>138.08783412614844</v>
-      </c>
-      <c r="H111" s="19">
-        <f t="shared" si="15"/>
-        <v>1.9068249933650701E-2</v>
-      </c>
-      <c r="I111" s="18">
-        <f>H111/(H111+$K$6)</f>
-        <v>7.6272417981991152E-6</v>
-      </c>
-      <c r="J111" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>138.08793377653473</v>
-      </c>
-      <c r="K111" s="19">
-        <f t="shared" si="13"/>
-        <v>1.9068104495497791E-2</v>
+        <v>3.2791850473175059E-2</v>
+      </c>
+      <c r="K111" s="18">
+        <f t="shared" si="11"/>
+        <v>1.0753054578043906E-9</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -9412,40 +9379,40 @@
         <v>99</v>
       </c>
       <c r="B112" s="2">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="D112">
         <f t="shared" si="8"/>
-        <v>9.9</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="9"/>
-        <v>132.61955589475298</v>
+        <v>2.6561398887587542E-2</v>
       </c>
       <c r="E112">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>210.22185321875443</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="9"/>
+        <v>210.24841461764203</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="12"/>
+        <v>2.9512665430652823E-2</v>
+      </c>
+      <c r="H112" s="18">
+        <f t="shared" si="13"/>
+        <v>8.7099742082165006E-10</v>
+      </c>
+      <c r="I112" s="17">
+        <f>H112/(H112+$K$2)</f>
+        <v>8.7099742082157413E-14</v>
+      </c>
+      <c r="J112" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>9.2409163713480069</v>
-      </c>
-      <c r="F112">
-        <f t="shared" ca="1" si="11"/>
-        <v>141.860472266101</v>
-      </c>
-      <c r="G112" s="18">
-        <f t="shared" si="14"/>
-        <v>135.32607744362548</v>
-      </c>
-      <c r="H112" s="19">
-        <f t="shared" si="15"/>
-        <v>1.8313147236278131E-2</v>
-      </c>
-      <c r="I112" s="18">
-        <f>H112/(H112+$K$6)</f>
-        <v>7.325205235486447E-6</v>
-      </c>
-      <c r="J112" s="9">
-        <f t="shared" ca="1" si="12"/>
-        <v>135.32612530940864</v>
-      </c>
-      <c r="K112" s="19">
-        <f t="shared" si="13"/>
-        <v>1.8313013088716117E-2</v>
+        <v>2.9512665448962836E-2</v>
+      </c>
+      <c r="K112" s="18">
+        <f t="shared" si="11"/>
+        <v>8.7099742082157416E-10</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -9453,40 +9420,40 @@
         <v>100</v>
       </c>
       <c r="B113" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D113">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="9"/>
-        <v>129.96716477685791</v>
+        <v>2.3905258998828789E-2</v>
       </c>
       <c r="E113">
+        <f ca="1">IF($H$3=0,$H$2,NORMINV(RAND(),$H$2,$H$3))</f>
+        <v>-66.899534198130468</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="9"/>
+        <v>-66.875628939131644</v>
+      </c>
+      <c r="G113" s="24">
+        <f t="shared" si="12"/>
+        <v>2.6561398887587542E-2</v>
+      </c>
+      <c r="H113" s="26">
+        <f t="shared" si="13"/>
+        <v>7.0550791086553654E-10</v>
+      </c>
+      <c r="I113" s="24">
+        <f>H113/(H113+$K$2)</f>
+        <v>7.0550791086548671E-14</v>
+      </c>
+      <c r="J113" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>-15.869639478674975</v>
-      </c>
-      <c r="F113">
-        <f t="shared" ca="1" si="11"/>
-        <v>114.09752529818294</v>
-      </c>
-      <c r="G113" s="28">
-        <f t="shared" si="14"/>
-        <v>132.61955589475298</v>
-      </c>
-      <c r="H113" s="30">
-        <f t="shared" si="15"/>
-        <v>1.7587946605721515E-2</v>
-      </c>
-      <c r="I113" s="28">
-        <f>H113/(H113+$K$6)</f>
-        <v>7.0351291488982726E-6</v>
-      </c>
-      <c r="J113" s="29">
-        <f t="shared" ca="1" si="12"/>
-        <v>132.61942558987562</v>
-      </c>
-      <c r="K113" s="30">
-        <f t="shared" si="13"/>
-        <v>1.7587822872245678E-2</v>
+        <v>2.6561398882867539E-2</v>
+      </c>
+      <c r="K113" s="26">
+        <f t="shared" si="11"/>
+        <v>7.055079108654868E-10</v>
       </c>
     </row>
   </sheetData>
